--- a/xrp_data.xlsx
+++ b/xrp_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E367"/>
+  <dimension ref="A1:F367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,6169 +463,7270 @@
           <t>volatility</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>market_cap_pct_change</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44789</v>
+        <v>44790</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3768509898908952</v>
+        <v>0.3783216218313519</v>
       </c>
       <c r="C2" t="n">
-        <v>1162193827.437666</v>
+        <v>1031739476.423797</v>
       </c>
       <c r="D2" t="n">
-        <v>18525959226.67408</v>
+        <v>18662404423.88056</v>
       </c>
       <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44790</v>
+        <v>44791</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3783216218313519</v>
+        <v>0.3818997820132455</v>
       </c>
       <c r="C3" t="n">
-        <v>1031739476.423797</v>
+        <v>1563237238.528783</v>
       </c>
       <c r="D3" t="n">
-        <v>18662404423.88056</v>
+        <v>18885868314.17379</v>
       </c>
       <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>1.197401391683917</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44791</v>
+        <v>44792</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3818997820132455</v>
+        <v>0.3723714128223131</v>
       </c>
       <c r="C4" t="n">
-        <v>1563237238.528783</v>
+        <v>988350335.1681571</v>
       </c>
       <c r="D4" t="n">
-        <v>18885868314.17379</v>
+        <v>18412316301.11691</v>
       </c>
       <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>-2.507441040989777</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44792</v>
+        <v>44793</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3723714128223131</v>
+        <v>0.3364734653426623</v>
       </c>
       <c r="C5" t="n">
-        <v>988350335.1681571</v>
+        <v>1723039768.117662</v>
       </c>
       <c r="D5" t="n">
-        <v>18412316301.11691</v>
+        <v>16619838119.30638</v>
       </c>
       <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>-9.735212846097996</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44793</v>
+        <v>44794</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3364734653426623</v>
+        <v>0.3387855562056176</v>
       </c>
       <c r="C6" t="n">
-        <v>1723039768.117662</v>
+        <v>890708537.3842945</v>
       </c>
       <c r="D6" t="n">
-        <v>16619838119.30638</v>
+        <v>16734615067.23157</v>
       </c>
       <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>0.6906020810868219</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44794</v>
+        <v>44795</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3387855562056176</v>
+        <v>0.3470545927088616</v>
       </c>
       <c r="C7" t="n">
-        <v>890708537.3842945</v>
+        <v>795459529.3534839</v>
       </c>
       <c r="D7" t="n">
-        <v>16734615067.23157</v>
+        <v>17146379649.37107</v>
       </c>
       <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>2.460556041983808</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44795</v>
+        <v>44796</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3470545927088616</v>
+        <v>0.3456268424544587</v>
       </c>
       <c r="C8" t="n">
-        <v>795459529.3534839</v>
+        <v>1092232936.383989</v>
       </c>
       <c r="D8" t="n">
-        <v>17146379649.37107</v>
+        <v>17096908382.42149</v>
       </c>
       <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>-0.2885231049424064</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44796</v>
+        <v>44797</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3456268424544587</v>
+        <v>0.3477726001845276</v>
       </c>
       <c r="C9" t="n">
-        <v>1092232936.383989</v>
+        <v>980885020.0196048</v>
       </c>
       <c r="D9" t="n">
-        <v>17096908382.42149</v>
+        <v>17226011066.46298</v>
       </c>
       <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>0.7551229798612225</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44797</v>
+        <v>44798</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3477726001845276</v>
+        <v>0.3467927140889044</v>
       </c>
       <c r="C10" t="n">
-        <v>980885020.0196048</v>
+        <v>893746663.3587409</v>
       </c>
       <c r="D10" t="n">
-        <v>17226011066.46298</v>
+        <v>17168064186.93132</v>
       </c>
       <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>-0.3363917468070965</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44798</v>
+        <v>44799</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3467927140889044</v>
+        <v>0.3500981147926268</v>
       </c>
       <c r="C11" t="n">
-        <v>893746663.3587409</v>
+        <v>880120992.1624258</v>
       </c>
       <c r="D11" t="n">
-        <v>17168064186.93132</v>
+        <v>17339114328.04799</v>
       </c>
       <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>0.9963274790577792</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44799</v>
+        <v>44800</v>
       </c>
       <c r="B12" t="n">
-        <v>0.3500981147926268</v>
+        <v>0.3392009860890026</v>
       </c>
       <c r="C12" t="n">
-        <v>880120992.1624258</v>
+        <v>1466059795.947098</v>
       </c>
       <c r="D12" t="n">
-        <v>17339114328.04799</v>
+        <v>16771137642.24183</v>
       </c>
       <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>-3.275696065325551</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44800</v>
+        <v>44801</v>
       </c>
       <c r="B13" t="n">
-        <v>0.3392009860890026</v>
+        <v>0.337101913520448</v>
       </c>
       <c r="C13" t="n">
-        <v>1466059795.947098</v>
+        <v>699466583.794597</v>
       </c>
       <c r="D13" t="n">
-        <v>16771137642.24183</v>
+        <v>16685950202.08335</v>
       </c>
       <c r="E13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>-0.5079407370905398</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44801</v>
+        <v>44802</v>
       </c>
       <c r="B14" t="n">
-        <v>0.337101913520448</v>
+        <v>0.3250929286503036</v>
       </c>
       <c r="C14" t="n">
-        <v>699466583.794597</v>
+        <v>527683239.7413518</v>
       </c>
       <c r="D14" t="n">
-        <v>16685950202.08335</v>
+        <v>16183127804.81136</v>
       </c>
       <c r="E14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>-3.013447788003187</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44802</v>
+        <v>44803</v>
       </c>
       <c r="B15" t="n">
-        <v>0.3250929286503036</v>
+        <v>0.3342307471691954</v>
       </c>
       <c r="C15" t="n">
-        <v>527683239.7413518</v>
+        <v>928205984.638813</v>
       </c>
       <c r="D15" t="n">
-        <v>16183127804.81136</v>
+        <v>16597261690.554</v>
       </c>
       <c r="E15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>2.559047241902856</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44803</v>
+        <v>44804</v>
       </c>
       <c r="B16" t="n">
-        <v>0.3342307471691954</v>
+        <v>0.3275580359165741</v>
       </c>
       <c r="C16" t="n">
-        <v>928205984.638813</v>
+        <v>866624871.2554851</v>
       </c>
       <c r="D16" t="n">
-        <v>16597261690.554</v>
+        <v>16293719360.21225</v>
       </c>
       <c r="E16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>-1.828869942530975</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44804</v>
+        <v>44805</v>
       </c>
       <c r="B17" t="n">
-        <v>0.3275580359165741</v>
+        <v>0.328042991500521</v>
       </c>
       <c r="C17" t="n">
-        <v>866624871.2554851</v>
+        <v>796912925.4163057</v>
       </c>
       <c r="D17" t="n">
-        <v>16293719360.21225</v>
+        <v>16279792839.53471</v>
       </c>
       <c r="E17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>-0.08547171072272874</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44805</v>
+        <v>44806</v>
       </c>
       <c r="B18" t="n">
-        <v>0.328042991500521</v>
+        <v>0.333710016881428</v>
       </c>
       <c r="C18" t="n">
-        <v>796912925.4163057</v>
+        <v>809944925.6004992</v>
       </c>
       <c r="D18" t="n">
-        <v>16279792839.53471</v>
+        <v>16563286140.75001</v>
       </c>
       <c r="E18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>1.741381502882788</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44806</v>
+        <v>44807</v>
       </c>
       <c r="B19" t="n">
-        <v>0.333710016881428</v>
+        <v>0.3313879767791771</v>
       </c>
       <c r="C19" t="n">
-        <v>809944925.6004992</v>
+        <v>846287512.8513036</v>
       </c>
       <c r="D19" t="n">
-        <v>16563286140.75001</v>
+        <v>16448201041.4098</v>
       </c>
       <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>-0.6948204502551181</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44807</v>
+        <v>44808</v>
       </c>
       <c r="B20" t="n">
-        <v>0.3313879767791771</v>
+        <v>0.3301689354116557</v>
       </c>
       <c r="C20" t="n">
-        <v>846287512.8513036</v>
+        <v>444863917.8765463</v>
       </c>
       <c r="D20" t="n">
-        <v>16448201041.4098</v>
+        <v>16401705686.28816</v>
       </c>
       <c r="E20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>-0.2826774490692907</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44808</v>
+        <v>44809</v>
       </c>
       <c r="B21" t="n">
-        <v>0.3301689354116557</v>
+        <v>0.3322327382786843</v>
       </c>
       <c r="C21" t="n">
-        <v>444863917.8765463</v>
+        <v>405810028.4339963</v>
       </c>
       <c r="D21" t="n">
-        <v>16401705686.28816</v>
+        <v>16477181610.60224</v>
       </c>
       <c r="E21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>0.4601711904706152</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44809</v>
+        <v>44810</v>
       </c>
       <c r="B22" t="n">
-        <v>0.3322327382786843</v>
+        <v>0.3331744434353924</v>
       </c>
       <c r="C22" t="n">
-        <v>405810028.4339963</v>
+        <v>714260159.5814117</v>
       </c>
       <c r="D22" t="n">
-        <v>16477181610.60224</v>
+        <v>16503579175.83677</v>
       </c>
       <c r="E22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>0.1602067990653433</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44810</v>
+        <v>44811</v>
       </c>
       <c r="B23" t="n">
-        <v>0.3331744434353924</v>
+        <v>0.322882837554491</v>
       </c>
       <c r="C23" t="n">
-        <v>714260159.5814117</v>
+        <v>1188996326.401049</v>
       </c>
       <c r="D23" t="n">
-        <v>16503579175.83677</v>
+        <v>16040602510.2321</v>
       </c>
       <c r="E23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>-2.805310658202675</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44811</v>
+        <v>44812</v>
       </c>
       <c r="B24" t="n">
-        <v>0.322882837554491</v>
+        <v>0.337812631402927</v>
       </c>
       <c r="C24" t="n">
-        <v>1188996326.401049</v>
+        <v>1023686540.747103</v>
       </c>
       <c r="D24" t="n">
-        <v>16040602510.2321</v>
+        <v>16767664626.55779</v>
       </c>
       <c r="E24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>4.532635952183894</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44812</v>
+        <v>44813</v>
       </c>
       <c r="B25" t="n">
-        <v>0.337812631402927</v>
+        <v>0.3405432304913233</v>
       </c>
       <c r="C25" t="n">
-        <v>1023686540.747103</v>
+        <v>1009572640.529288</v>
       </c>
       <c r="D25" t="n">
-        <v>16767664626.55779</v>
+        <v>16914537556.62607</v>
       </c>
       <c r="E25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>0.8759295545287316</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44813</v>
+        <v>44814</v>
       </c>
       <c r="B26" t="n">
-        <v>0.3405432304913233</v>
+        <v>0.3565520466053419</v>
       </c>
       <c r="C26" t="n">
-        <v>1009572640.529288</v>
+        <v>1403094809.62469</v>
       </c>
       <c r="D26" t="n">
-        <v>16914537556.62607</v>
+        <v>17726561451.46776</v>
       </c>
       <c r="E26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>4.800745465982792</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44814</v>
+        <v>44815</v>
       </c>
       <c r="B27" t="n">
-        <v>0.3565520466053419</v>
+        <v>0.3576322207239013</v>
       </c>
       <c r="C27" t="n">
-        <v>1403094809.62469</v>
+        <v>802561442.9660527</v>
       </c>
       <c r="D27" t="n">
-        <v>17726561451.46776</v>
+        <v>17817289842.85518</v>
       </c>
       <c r="E27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>0.5118217181364626</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44815</v>
+        <v>44816</v>
       </c>
       <c r="B28" t="n">
-        <v>0.3576322207239013</v>
+        <v>0.3544726698443175</v>
       </c>
       <c r="C28" t="n">
-        <v>802561442.9660527</v>
+        <v>638880661.7877574</v>
       </c>
       <c r="D28" t="n">
-        <v>17817289842.85518</v>
+        <v>17665293814.17329</v>
       </c>
       <c r="E28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>-0.8530816416102427</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="B29" t="n">
-        <v>0.3544726698443175</v>
+        <v>0.3585904942689409</v>
       </c>
       <c r="C29" t="n">
-        <v>638880661.7877574</v>
+        <v>1059520260.124269</v>
       </c>
       <c r="D29" t="n">
-        <v>17665293814.17329</v>
+        <v>17852055047.25914</v>
       </c>
       <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>1.057221210416603</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44817</v>
+        <v>44818</v>
       </c>
       <c r="B30" t="n">
-        <v>0.3585904942689409</v>
+        <v>0.3331343427229645</v>
       </c>
       <c r="C30" t="n">
-        <v>1059520260.124269</v>
+        <v>1324489792.655357</v>
       </c>
       <c r="D30" t="n">
-        <v>17852055047.25914</v>
+        <v>16587780887.87984</v>
       </c>
       <c r="E30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>-7.081953063848578</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44818</v>
+        <v>44819</v>
       </c>
       <c r="B31" t="n">
-        <v>0.3331343427229645</v>
+        <v>0.3422976662773338</v>
       </c>
       <c r="C31" t="n">
-        <v>1324489792.655357</v>
+        <v>1106999903.504982</v>
       </c>
       <c r="D31" t="n">
-        <v>16587780887.87984</v>
+        <v>17046141808.06437</v>
       </c>
       <c r="E31" t="n">
-        <v>0.01627990839189257</v>
+        <v>0.01509259448106423</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2.763244362116213</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44819</v>
+        <v>44820</v>
       </c>
       <c r="B32" t="n">
-        <v>0.3422976662773338</v>
+        <v>0.3269761627882082</v>
       </c>
       <c r="C32" t="n">
-        <v>1106999903.504982</v>
+        <v>1337552250.392017</v>
       </c>
       <c r="D32" t="n">
-        <v>17046141808.06437</v>
+        <v>16311357746.34038</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0150925944810643</v>
+        <v>0.0138524038702181</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-4.310559362919109</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44820</v>
+        <v>44821</v>
       </c>
       <c r="B33" t="n">
-        <v>0.3269761627882082</v>
+        <v>0.3571830539290055</v>
       </c>
       <c r="C33" t="n">
-        <v>1337552250.392017</v>
+        <v>1261958274.686834</v>
       </c>
       <c r="D33" t="n">
-        <v>16311357746.34038</v>
+        <v>17805028262.43194</v>
       </c>
       <c r="E33" t="n">
-        <v>0.01385240387021819</v>
+        <v>0.01198552654597706</v>
+      </c>
+      <c r="F33" t="n">
+        <v>9.157242084440686</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44821</v>
+        <v>44822</v>
       </c>
       <c r="B34" t="n">
-        <v>0.3571830539290055</v>
+        <v>0.3755354258768863</v>
       </c>
       <c r="C34" t="n">
-        <v>1261958274.686834</v>
+        <v>1427789277.67536</v>
       </c>
       <c r="D34" t="n">
-        <v>17805028262.43194</v>
+        <v>18707608411.82521</v>
       </c>
       <c r="E34" t="n">
-        <v>0.01198552654597716</v>
+        <v>0.01228286337205226</v>
+      </c>
+      <c r="F34" t="n">
+        <v>5.069243003099766</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44822</v>
+        <v>44823</v>
       </c>
       <c r="B35" t="n">
-        <v>0.3755354258768863</v>
+        <v>0.3601116912207258</v>
       </c>
       <c r="C35" t="n">
-        <v>1427789277.67536</v>
+        <v>2096753184.294249</v>
       </c>
       <c r="D35" t="n">
-        <v>18707608411.82521</v>
+        <v>18019337973.33975</v>
       </c>
       <c r="E35" t="n">
-        <v>0.01228286337205235</v>
+        <v>0.01273645345900219</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-3.679093678539891</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44823</v>
+        <v>44824</v>
       </c>
       <c r="B36" t="n">
-        <v>0.3601116912207258</v>
+        <v>0.3884003338636591</v>
       </c>
       <c r="C36" t="n">
-        <v>2096753184.294249</v>
+        <v>2475380016.166749</v>
       </c>
       <c r="D36" t="n">
-        <v>18019337973.33975</v>
+        <v>19262269100.34978</v>
       </c>
       <c r="E36" t="n">
-        <v>0.01273645345900228</v>
+        <v>0.01530401181855688</v>
+      </c>
+      <c r="F36" t="n">
+        <v>6.897762441933186</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44824</v>
+        <v>44825</v>
       </c>
       <c r="B37" t="n">
-        <v>0.3884003338636591</v>
+        <v>0.4146975478487356</v>
       </c>
       <c r="C37" t="n">
-        <v>2475380016.166749</v>
+        <v>3389711446.220129</v>
       </c>
       <c r="D37" t="n">
-        <v>19262269100.34978</v>
+        <v>20670126868.42153</v>
       </c>
       <c r="E37" t="n">
-        <v>0.01530401181855695</v>
+        <v>0.02009672353896185</v>
+      </c>
+      <c r="F37" t="n">
+        <v>7.308888484203457</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44825</v>
+        <v>44826</v>
       </c>
       <c r="B38" t="n">
-        <v>0.4146975478487356</v>
+        <v>0.3987516860564047</v>
       </c>
       <c r="C38" t="n">
-        <v>3389711446.220129</v>
+        <v>2923866454.04644</v>
       </c>
       <c r="D38" t="n">
-        <v>20670126868.42153</v>
+        <v>19846510864.63612</v>
       </c>
       <c r="E38" t="n">
-        <v>0.02009672353896189</v>
+        <v>0.02231429432899077</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-3.984571594689523</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44826</v>
+        <v>44827</v>
       </c>
       <c r="B39" t="n">
-        <v>0.3987516860564047</v>
+        <v>0.4870596202359753</v>
       </c>
       <c r="C39" t="n">
-        <v>2923866454.04644</v>
+        <v>4345510563.239003</v>
       </c>
       <c r="D39" t="n">
-        <v>19846510864.63612</v>
+        <v>24224069872.3676</v>
       </c>
       <c r="E39" t="n">
-        <v>0.02231429432899081</v>
+        <v>0.03388448259902454</v>
+      </c>
+      <c r="F39" t="n">
+        <v>22.05707107707136</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44827</v>
+        <v>44828</v>
       </c>
       <c r="B40" t="n">
-        <v>0.4870596202359753</v>
+        <v>0.5055469016261381</v>
       </c>
       <c r="C40" t="n">
-        <v>4345510563.239003</v>
+        <v>6851174094.822689</v>
       </c>
       <c r="D40" t="n">
-        <v>24224069872.3676</v>
+        <v>25349689054.64032</v>
       </c>
       <c r="E40" t="n">
-        <v>0.03388448259902455</v>
+        <v>0.04393997906495967</v>
+      </c>
+      <c r="F40" t="n">
+        <v>4.646697223890994</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44828</v>
+        <v>44829</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5055469016261381</v>
+        <v>0.4896121534995437</v>
       </c>
       <c r="C41" t="n">
-        <v>6851174094.822689</v>
+        <v>3174509674.062331</v>
       </c>
       <c r="D41" t="n">
-        <v>25349689054.64032</v>
+        <v>24456632305.1208</v>
       </c>
       <c r="E41" t="n">
-        <v>0.04393997906495967</v>
+        <v>0.05009844981603113</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-3.522949522554586</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44829</v>
+        <v>44830</v>
       </c>
       <c r="B42" t="n">
-        <v>0.4896121534995437</v>
+        <v>0.4938206844129948</v>
       </c>
       <c r="C42" t="n">
-        <v>3174509674.062331</v>
+        <v>3076786928.782902</v>
       </c>
       <c r="D42" t="n">
-        <v>24456632305.1208</v>
+        <v>24659902343.98544</v>
       </c>
       <c r="E42" t="n">
-        <v>0.05009844981603113</v>
+        <v>0.05535120619286914</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.8311448458178772</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44830</v>
+        <v>44831</v>
       </c>
       <c r="B43" t="n">
-        <v>0.4938206844129948</v>
+        <v>0.4675847993795477</v>
       </c>
       <c r="C43" t="n">
-        <v>3076786928.782902</v>
+        <v>2761704681.577815</v>
       </c>
       <c r="D43" t="n">
-        <v>24659902343.98544</v>
+        <v>23303350158.12698</v>
       </c>
       <c r="E43" t="n">
-        <v>0.05535120619286914</v>
+        <v>0.05797361973173088</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-5.501044436168745</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44831</v>
+        <v>44832</v>
       </c>
       <c r="B44" t="n">
-        <v>0.4675847993795477</v>
+        <v>0.4497387595743009</v>
       </c>
       <c r="C44" t="n">
-        <v>2761704681.577815</v>
+        <v>2605483194.233198</v>
       </c>
       <c r="D44" t="n">
-        <v>23303350158.12698</v>
+        <v>22484461714.6888</v>
       </c>
       <c r="E44" t="n">
-        <v>0.05797361973173088</v>
+        <v>0.05899116381345611</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-3.514037414713067</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44832</v>
+        <v>44833</v>
       </c>
       <c r="B45" t="n">
-        <v>0.4497387595743009</v>
+        <v>0.4523199977661284</v>
       </c>
       <c r="C45" t="n">
-        <v>2605483194.233198</v>
+        <v>2399425239.069429</v>
       </c>
       <c r="D45" t="n">
-        <v>22484461714.6888</v>
+        <v>22620371849.26028</v>
       </c>
       <c r="E45" t="n">
-        <v>0.05899116381345611</v>
+        <v>0.06006235642994927</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.6044624785599639</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44833</v>
+        <v>44834</v>
       </c>
       <c r="B46" t="n">
-        <v>0.4523199977661284</v>
+        <v>0.4854973583713267</v>
       </c>
       <c r="C46" t="n">
-        <v>2399425239.069429</v>
+        <v>2979531131.334198</v>
       </c>
       <c r="D46" t="n">
-        <v>22620371849.26028</v>
+        <v>24160534854.87574</v>
       </c>
       <c r="E46" t="n">
-        <v>0.06006235642994927</v>
+        <v>0.06222773247958426</v>
+      </c>
+      <c r="F46" t="n">
+        <v>6.808743091753522</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44834</v>
+        <v>44835</v>
       </c>
       <c r="B47" t="n">
-        <v>0.4854973583713267</v>
+        <v>0.4801856071411346</v>
       </c>
       <c r="C47" t="n">
-        <v>2979531131.334198</v>
+        <v>2972868272.42752</v>
       </c>
       <c r="D47" t="n">
-        <v>24160534854.87574</v>
+        <v>23954591313.39305</v>
       </c>
       <c r="E47" t="n">
-        <v>0.06222773247958426</v>
+        <v>0.06362253517601107</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.8523964503258208</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44835</v>
+        <v>44836</v>
       </c>
       <c r="B48" t="n">
-        <v>0.4801856071411346</v>
+        <v>0.47496133042485</v>
       </c>
       <c r="C48" t="n">
-        <v>2972868272.42752</v>
+        <v>1408593745.580317</v>
       </c>
       <c r="D48" t="n">
-        <v>23954591313.39305</v>
+        <v>23685517249.64408</v>
       </c>
       <c r="E48" t="n">
-        <v>0.06362253517601107</v>
+        <v>0.06453928275913637</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-1.123267185938281</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44836</v>
+        <v>44837</v>
       </c>
       <c r="B49" t="n">
-        <v>0.47496133042485</v>
+        <v>0.4502563299536657</v>
       </c>
       <c r="C49" t="n">
-        <v>1408593745.580317</v>
+        <v>1408392767.923718</v>
       </c>
       <c r="D49" t="n">
-        <v>23685517249.64408</v>
+        <v>22548990353.11134</v>
       </c>
       <c r="E49" t="n">
-        <v>0.06453928275913637</v>
+        <v>0.06417064312313182</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-4.798404377467513</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44837</v>
+        <v>44838</v>
       </c>
       <c r="B50" t="n">
-        <v>0.4502563299536657</v>
+        <v>0.4626165151540292</v>
       </c>
       <c r="C50" t="n">
-        <v>1408392767.923718</v>
+        <v>1739336470.576477</v>
       </c>
       <c r="D50" t="n">
-        <v>22548990353.11134</v>
+        <v>23133346946.76287</v>
       </c>
       <c r="E50" t="n">
-        <v>0.06417064312313182</v>
+        <v>0.06385629916164597</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2.591497820969635</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44838</v>
+        <v>44839</v>
       </c>
       <c r="B51" t="n">
-        <v>0.4626165151540292</v>
+        <v>0.4803559754582246</v>
       </c>
       <c r="C51" t="n">
-        <v>1739336470.576477</v>
+        <v>2038303645.021969</v>
       </c>
       <c r="D51" t="n">
-        <v>23133346946.76287</v>
+        <v>23940005839.73178</v>
       </c>
       <c r="E51" t="n">
-        <v>0.06385629916164597</v>
+        <v>0.06392182268287934</v>
+      </c>
+      <c r="F51" t="n">
+        <v>3.4869960443912</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44839</v>
+        <v>44840</v>
       </c>
       <c r="B52" t="n">
-        <v>0.4803559754582246</v>
+        <v>0.4901887683681505</v>
       </c>
       <c r="C52" t="n">
-        <v>2038303645.021969</v>
+        <v>2280930102.168097</v>
       </c>
       <c r="D52" t="n">
-        <v>23940005839.73178</v>
+        <v>24463171586.90248</v>
       </c>
       <c r="E52" t="n">
-        <v>0.06392182268287934</v>
+        <v>0.0640167211882723</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2.185320048261774</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44840</v>
+        <v>44841</v>
       </c>
       <c r="B53" t="n">
-        <v>0.4901887683681505</v>
+        <v>0.4935510217263323</v>
       </c>
       <c r="C53" t="n">
-        <v>2280930102.168097</v>
+        <v>1784282944.348989</v>
       </c>
       <c r="D53" t="n">
-        <v>24463171586.90248</v>
+        <v>24626852233.60393</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0640167211882723</v>
+        <v>0.0632951496680564</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.6690900487698048</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44841</v>
+        <v>44842</v>
       </c>
       <c r="B54" t="n">
-        <v>0.4935510217263323</v>
+        <v>0.5160327262732206</v>
       </c>
       <c r="C54" t="n">
-        <v>1784282944.348989</v>
+        <v>2249633454.415931</v>
       </c>
       <c r="D54" t="n">
-        <v>24626852233.60393</v>
+        <v>25843445398.10576</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0632951496680564</v>
+        <v>0.06378706416162602</v>
+      </c>
+      <c r="F54" t="n">
+        <v>4.940108272716071</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44842</v>
+        <v>44843</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5160327262732206</v>
+        <v>0.5166455189625007</v>
       </c>
       <c r="C55" t="n">
-        <v>2249633454.415931</v>
+        <v>1610134699.361302</v>
       </c>
       <c r="D55" t="n">
-        <v>25843445398.10576</v>
+        <v>25751005671.69239</v>
       </c>
       <c r="E55" t="n">
-        <v>0.06378706416162602</v>
+        <v>0.06386816370395468</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-0.3576911862539278</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44843</v>
+        <v>44844</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5166455189625007</v>
+        <v>0.5342292366286716</v>
       </c>
       <c r="C56" t="n">
-        <v>1610134699.361302</v>
+        <v>1653702361.125292</v>
       </c>
       <c r="D56" t="n">
-        <v>25751005671.69239</v>
+        <v>26622398815.99551</v>
       </c>
       <c r="E56" t="n">
-        <v>0.06386816370395468</v>
+        <v>0.06498577710798448</v>
+      </c>
+      <c r="F56" t="n">
+        <v>3.383918886170068</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44844</v>
+        <v>44845</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5342292366286716</v>
+        <v>0.4973242512168488</v>
       </c>
       <c r="C57" t="n">
-        <v>1653702361.125292</v>
+        <v>2164911186.160931</v>
       </c>
       <c r="D57" t="n">
-        <v>26622398815.99551</v>
+        <v>24835054251.92636</v>
       </c>
       <c r="E57" t="n">
-        <v>0.06498577710798448</v>
+        <v>0.06413148475265827</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-6.713687133990554</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44845</v>
+        <v>44846</v>
       </c>
       <c r="B58" t="n">
-        <v>0.4973242512168488</v>
+        <v>0.4853342550217692</v>
       </c>
       <c r="C58" t="n">
-        <v>2164911186.160931</v>
+        <v>2176382497.818888</v>
       </c>
       <c r="D58" t="n">
-        <v>24835054251.92636</v>
+        <v>24198543433.74821</v>
       </c>
       <c r="E58" t="n">
-        <v>0.06413148475265827</v>
+        <v>0.06245365336182835</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-2.562953202040164</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44846</v>
+        <v>44847</v>
       </c>
       <c r="B59" t="n">
-        <v>0.4853342550217692</v>
+        <v>0.4880393259972368</v>
       </c>
       <c r="C59" t="n">
-        <v>2176382497.818888</v>
+        <v>1366104521.158277</v>
       </c>
       <c r="D59" t="n">
-        <v>24198543433.74821</v>
+        <v>24372617617.30438</v>
       </c>
       <c r="E59" t="n">
-        <v>0.06245365336182835</v>
+        <v>0.06068020166305377</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.719358105303991</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44847</v>
+        <v>44848</v>
       </c>
       <c r="B60" t="n">
-        <v>0.4880393259972368</v>
+        <v>0.4808330688637784</v>
       </c>
       <c r="C60" t="n">
-        <v>1366104521.158277</v>
+        <v>2784181355.301998</v>
       </c>
       <c r="D60" t="n">
-        <v>24372617617.30438</v>
+        <v>24045617337.58696</v>
       </c>
       <c r="E60" t="n">
-        <v>0.06068020166305377</v>
+        <v>0.05674086675473858</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-1.341670742354961</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44848</v>
+        <v>44849</v>
       </c>
       <c r="B61" t="n">
-        <v>0.4808330688637784</v>
+        <v>0.4887202730658274</v>
       </c>
       <c r="C61" t="n">
-        <v>2784181355.301998</v>
+        <v>2121123366.640868</v>
       </c>
       <c r="D61" t="n">
-        <v>24045617337.58696</v>
+        <v>24366649108.62635</v>
       </c>
       <c r="E61" t="n">
-        <v>0.05674086675473858</v>
+        <v>0.05289186587541511</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1.335094734862863</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44849</v>
+        <v>44850</v>
       </c>
       <c r="B62" t="n">
-        <v>0.4887202730658274</v>
+        <v>0.4820268650834917</v>
       </c>
       <c r="C62" t="n">
-        <v>2121123366.640868</v>
+        <v>798628206.3475759</v>
       </c>
       <c r="D62" t="n">
-        <v>24366649108.62635</v>
+        <v>24078700455.34395</v>
       </c>
       <c r="E62" t="n">
-        <v>0.05289186587541511</v>
+        <v>0.04668270436127338</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-1.181732670744884</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44850</v>
+        <v>44851</v>
       </c>
       <c r="B63" t="n">
-        <v>0.4820268650834917</v>
+        <v>0.4766938429740172</v>
       </c>
       <c r="C63" t="n">
-        <v>798628206.3475759</v>
+        <v>966732867.985011</v>
       </c>
       <c r="D63" t="n">
-        <v>24078700455.34395</v>
+        <v>23783757576.55461</v>
       </c>
       <c r="E63" t="n">
-        <v>0.04668270436127338</v>
+        <v>0.04204174783467495</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-1.224911947953067</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44851</v>
+        <v>44852</v>
       </c>
       <c r="B64" t="n">
-        <v>0.4766938429740172</v>
+        <v>0.4806542623288421</v>
       </c>
       <c r="C64" t="n">
-        <v>966732867.985011</v>
+        <v>1417504115.521878</v>
       </c>
       <c r="D64" t="n">
-        <v>23783757576.55461</v>
+        <v>23992818375.12885</v>
       </c>
       <c r="E64" t="n">
-        <v>0.04204174783467495</v>
+        <v>0.03819773166215677</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.8790065989418228</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44852</v>
+        <v>44853</v>
       </c>
       <c r="B65" t="n">
-        <v>0.4806542623288421</v>
+        <v>0.4668408131092937</v>
       </c>
       <c r="C65" t="n">
-        <v>1417504115.521878</v>
+        <v>1309409841.906018</v>
       </c>
       <c r="D65" t="n">
-        <v>23992818375.12885</v>
+        <v>23309738544.1798</v>
       </c>
       <c r="E65" t="n">
-        <v>0.03819773166215677</v>
+        <v>0.03181680337955821</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-2.847017887890735</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44853</v>
+        <v>44854</v>
       </c>
       <c r="B66" t="n">
-        <v>0.4668408131092937</v>
+        <v>0.4510834284006613</v>
       </c>
       <c r="C66" t="n">
-        <v>1309409841.906018</v>
+        <v>1518939369.798926</v>
       </c>
       <c r="D66" t="n">
-        <v>23309738544.1798</v>
+        <v>22499563476.75372</v>
       </c>
       <c r="E66" t="n">
-        <v>0.03181680337955821</v>
+        <v>0.02765508462987006</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-3.475693499910038</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44854</v>
+        <v>44855</v>
       </c>
       <c r="B67" t="n">
-        <v>0.4510834284006613</v>
+        <v>0.4475857270550886</v>
       </c>
       <c r="C67" t="n">
-        <v>1518939369.798926</v>
+        <v>1800114950.362331</v>
       </c>
       <c r="D67" t="n">
-        <v>22499563476.75372</v>
+        <v>22305568615.86945</v>
       </c>
       <c r="E67" t="n">
-        <v>0.02765508462987006</v>
+        <v>0.02563567230588246</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.8622161095911851</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44855</v>
+        <v>44856</v>
       </c>
       <c r="B68" t="n">
-        <v>0.4475857270550886</v>
+        <v>0.4610825481618852</v>
       </c>
       <c r="C68" t="n">
-        <v>1800114950.362331</v>
+        <v>1712778421.486631</v>
       </c>
       <c r="D68" t="n">
-        <v>22305568615.86945</v>
+        <v>23003431881.17114</v>
       </c>
       <c r="E68" t="n">
-        <v>0.02563567230588246</v>
+        <v>0.02100343292963311</v>
+      </c>
+      <c r="F68" t="n">
+        <v>3.128650416045398</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44856</v>
+        <v>44857</v>
       </c>
       <c r="B69" t="n">
-        <v>0.4610825481618852</v>
+        <v>0.4656755212931661</v>
       </c>
       <c r="C69" t="n">
-        <v>1712778421.486631</v>
+        <v>912940134.4613929</v>
       </c>
       <c r="D69" t="n">
-        <v>23003431881.17114</v>
+        <v>23214185274.98662</v>
       </c>
       <c r="E69" t="n">
-        <v>0.02100343292963311</v>
+        <v>0.02116048272171408</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.9161823979316308</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44857</v>
+        <v>44858</v>
       </c>
       <c r="B70" t="n">
-        <v>0.4656755212931661</v>
+        <v>0.4692781812601062</v>
       </c>
       <c r="C70" t="n">
-        <v>912940134.4613929</v>
+        <v>995497789.5121337</v>
       </c>
       <c r="D70" t="n">
-        <v>23214185274.98662</v>
+        <v>23368720307.60009</v>
       </c>
       <c r="E70" t="n">
-        <v>0.02116048272171408</v>
+        <v>0.02071151686964661</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.665692251452743</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44858</v>
+        <v>44859</v>
       </c>
       <c r="B71" t="n">
-        <v>0.4692781812601062</v>
+        <v>0.4527157204688305</v>
       </c>
       <c r="C71" t="n">
-        <v>995497789.5121337</v>
+        <v>1356662232.60071</v>
       </c>
       <c r="D71" t="n">
-        <v>23368720307.60009</v>
+        <v>22601387269.0849</v>
       </c>
       <c r="E71" t="n">
-        <v>0.02071151686964661</v>
+        <v>0.02116802919438641</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-3.283590322511742</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44859</v>
+        <v>44860</v>
       </c>
       <c r="B72" t="n">
-        <v>0.4527157204688305</v>
+        <v>0.4610277301114104</v>
       </c>
       <c r="C72" t="n">
-        <v>1356662232.60071</v>
+        <v>1689657453.943819</v>
       </c>
       <c r="D72" t="n">
-        <v>22601387269.0849</v>
+        <v>23030839580.3518</v>
       </c>
       <c r="E72" t="n">
-        <v>0.02116802919438641</v>
+        <v>0.02117292547518365</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1.900114829917188</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44860</v>
+        <v>44861</v>
       </c>
       <c r="B73" t="n">
-        <v>0.4610277301114104</v>
+        <v>0.4690482574175606</v>
       </c>
       <c r="C73" t="n">
-        <v>1689657453.943819</v>
+        <v>1565980824.031056</v>
       </c>
       <c r="D73" t="n">
-        <v>23030839580.3518</v>
+        <v>23479164280.20445</v>
       </c>
       <c r="E73" t="n">
-        <v>0.02117292547518365</v>
+        <v>0.02115223394204175</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1.946627687143154</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44861</v>
+        <v>44862</v>
       </c>
       <c r="B74" t="n">
-        <v>0.4690482574175606</v>
+        <v>0.4623407900423064</v>
       </c>
       <c r="C74" t="n">
-        <v>1565980824.031056</v>
+        <v>1860834302.823871</v>
       </c>
       <c r="D74" t="n">
-        <v>23479164280.20445</v>
+        <v>23163065596.09166</v>
       </c>
       <c r="E74" t="n">
-        <v>0.02115223394204175</v>
+        <v>0.02071236524430297</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-1.346294443619955</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44862</v>
+        <v>44863</v>
       </c>
       <c r="B75" t="n">
-        <v>0.4623407900423064</v>
+        <v>0.4728780103227727</v>
       </c>
       <c r="C75" t="n">
-        <v>1860834302.823871</v>
+        <v>1353826346.238948</v>
       </c>
       <c r="D75" t="n">
-        <v>23163065596.09166</v>
+        <v>23647471398.29458</v>
       </c>
       <c r="E75" t="n">
-        <v>0.02071236524430297</v>
+        <v>0.02018606953422892</v>
+      </c>
+      <c r="F75" t="n">
+        <v>2.091285370640494</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44863</v>
+        <v>44864</v>
       </c>
       <c r="B76" t="n">
-        <v>0.4728780103227727</v>
+        <v>0.4687647603167771</v>
       </c>
       <c r="C76" t="n">
-        <v>1353826346.238948</v>
+        <v>1521168003.448446</v>
       </c>
       <c r="D76" t="n">
-        <v>23647471398.29458</v>
+        <v>23467642103.02534</v>
       </c>
       <c r="E76" t="n">
-        <v>0.02018606953422892</v>
+        <v>0.02020645365808631</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-0.7604588763017062</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44864</v>
+        <v>44865</v>
       </c>
       <c r="B77" t="n">
-        <v>0.4687647603167771</v>
+        <v>0.4575045195341237</v>
       </c>
       <c r="C77" t="n">
-        <v>1521168003.448446</v>
+        <v>1045064808.350674</v>
       </c>
       <c r="D77" t="n">
-        <v>23467642103.02534</v>
+        <v>22902197620.77545</v>
       </c>
       <c r="E77" t="n">
-        <v>0.02020645365808631</v>
+        <v>0.02052682108116009</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-2.409464401099748</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44865</v>
+        <v>44866</v>
       </c>
       <c r="B78" t="n">
-        <v>0.4575045195341237</v>
+        <v>0.4650174721173135</v>
       </c>
       <c r="C78" t="n">
-        <v>1045064808.350674</v>
+        <v>1602014607.304093</v>
       </c>
       <c r="D78" t="n">
-        <v>22902197620.77545</v>
+        <v>23224524935.39032</v>
       </c>
       <c r="E78" t="n">
-        <v>0.02052682108116009</v>
+        <v>0.02063768259203734</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1.407407795322113</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44866</v>
+        <v>44867</v>
       </c>
       <c r="B79" t="n">
-        <v>0.4650174721173135</v>
+        <v>0.4642729057613325</v>
       </c>
       <c r="C79" t="n">
-        <v>1602014607.304093</v>
+        <v>1431760457.252663</v>
       </c>
       <c r="D79" t="n">
-        <v>23224524935.39032</v>
+        <v>23248404094.12417</v>
       </c>
       <c r="E79" t="n">
-        <v>0.02063768259203734</v>
+        <v>0.02017709398656558</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.1028187177144924</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44867</v>
+        <v>44868</v>
       </c>
       <c r="B80" t="n">
-        <v>0.4642729057613325</v>
+        <v>0.4513827988804672</v>
       </c>
       <c r="C80" t="n">
-        <v>1431760457.252663</v>
+        <v>1524489627.507291</v>
       </c>
       <c r="D80" t="n">
-        <v>23248404094.12417</v>
+        <v>22626151059.17507</v>
       </c>
       <c r="E80" t="n">
-        <v>0.02017709398656558</v>
+        <v>0.02055292733459732</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-2.676540860309506</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44868</v>
+        <v>44869</v>
       </c>
       <c r="B81" t="n">
-        <v>0.4513827988804672</v>
+        <v>0.4551034214158142</v>
       </c>
       <c r="C81" t="n">
-        <v>1524489627.507291</v>
+        <v>1222014267.347436</v>
       </c>
       <c r="D81" t="n">
-        <v>22626151059.17507</v>
+        <v>22780070699.42792</v>
       </c>
       <c r="E81" t="n">
-        <v>0.02055292733459732</v>
+        <v>0.02090663477420162</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.6802731929540284</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44869</v>
+        <v>44870</v>
       </c>
       <c r="B82" t="n">
-        <v>0.4551034214158142</v>
+        <v>0.5020577520809391</v>
       </c>
       <c r="C82" t="n">
-        <v>1222014267.347436</v>
+        <v>3011375714.152464</v>
       </c>
       <c r="D82" t="n">
-        <v>22780070699.42792</v>
+        <v>25226441321.76689</v>
       </c>
       <c r="E82" t="n">
-        <v>0.02090663477420162</v>
+        <v>0.02129833384325507</v>
+      </c>
+      <c r="F82" t="n">
+        <v>10.73908265965306</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44870</v>
+        <v>44871</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5020577520809391</v>
+        <v>0.4930089286209581</v>
       </c>
       <c r="C83" t="n">
-        <v>3011375714.152464</v>
+        <v>1308897160.509376</v>
       </c>
       <c r="D83" t="n">
-        <v>25226441321.76689</v>
+        <v>24797324782.66233</v>
       </c>
       <c r="E83" t="n">
-        <v>0.02129833384325507</v>
+        <v>0.02128326406370135</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-1.701058558482815</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44871</v>
+        <v>44872</v>
       </c>
       <c r="B84" t="n">
-        <v>0.4930089286209581</v>
+        <v>0.4708625249851686</v>
       </c>
       <c r="C84" t="n">
-        <v>1308897160.509376</v>
+        <v>1031713111.617514</v>
       </c>
       <c r="D84" t="n">
-        <v>24797324782.66233</v>
+        <v>23668541342.75686</v>
       </c>
       <c r="E84" t="n">
-        <v>0.02128326406370135</v>
+        <v>0.01991512207893974</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-4.552037164487565</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44872</v>
+        <v>44873</v>
       </c>
       <c r="B85" t="n">
-        <v>0.4708625249851686</v>
+        <v>0.4660747931757319</v>
       </c>
       <c r="C85" t="n">
-        <v>1031713111.617514</v>
+        <v>1755549936.034909</v>
       </c>
       <c r="D85" t="n">
-        <v>23668541342.75686</v>
+        <v>23384940963.22353</v>
       </c>
       <c r="E85" t="n">
-        <v>0.01991512207893974</v>
+        <v>0.01830909675398169</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-1.198216550087972</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44873</v>
+        <v>44874</v>
       </c>
       <c r="B86" t="n">
-        <v>0.4660747931757319</v>
+        <v>0.4087213924365498</v>
       </c>
       <c r="C86" t="n">
-        <v>1755549936.034909</v>
+        <v>3706738060.474099</v>
       </c>
       <c r="D86" t="n">
-        <v>23384940963.22353</v>
+        <v>20601640289.62465</v>
       </c>
       <c r="E86" t="n">
-        <v>0.01830909675398169</v>
+        <v>0.01815439307973095</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-11.90210690707345</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44874</v>
+        <v>44875</v>
       </c>
       <c r="B87" t="n">
-        <v>0.4087213924365498</v>
+        <v>0.331704077462695</v>
       </c>
       <c r="C87" t="n">
-        <v>3706738060.474099</v>
+        <v>3241614924.196977</v>
       </c>
       <c r="D87" t="n">
-        <v>20601640289.62465</v>
+        <v>16605761205.84244</v>
       </c>
       <c r="E87" t="n">
-        <v>0.01815439307973095</v>
+        <v>0.03028748060619063</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-19.39592686604963</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44875</v>
+        <v>44876</v>
       </c>
       <c r="B88" t="n">
-        <v>0.331704077462695</v>
+        <v>0.3989669088541101</v>
       </c>
       <c r="C88" t="n">
-        <v>3241614924.196977</v>
+        <v>3217259210.958386</v>
       </c>
       <c r="D88" t="n">
-        <v>16605761205.84244</v>
+        <v>19989322488.39249</v>
       </c>
       <c r="E88" t="n">
-        <v>0.03028748060619063</v>
+        <v>0.03215901047825236</v>
+      </c>
+      <c r="F88" t="n">
+        <v>20.37582764564632</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44876</v>
+        <v>44877</v>
       </c>
       <c r="B89" t="n">
-        <v>0.3989669088541101</v>
+        <v>0.3896264895691673</v>
       </c>
       <c r="C89" t="n">
-        <v>3217259210.958386</v>
+        <v>1861507915.395455</v>
       </c>
       <c r="D89" t="n">
-        <v>19989322488.39249</v>
+        <v>19478630558.9855</v>
       </c>
       <c r="E89" t="n">
-        <v>0.03215901047825236</v>
+        <v>0.03419045905206037</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-2.554823604969825</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44877</v>
+        <v>44878</v>
       </c>
       <c r="B90" t="n">
-        <v>0.3896264895691673</v>
+        <v>0.3665857482549202</v>
       </c>
       <c r="C90" t="n">
-        <v>1861507915.395455</v>
+        <v>1003463771.333068</v>
       </c>
       <c r="D90" t="n">
-        <v>19478630558.9855</v>
+        <v>18371602318.29175</v>
       </c>
       <c r="E90" t="n">
-        <v>0.03419045905206037</v>
+        <v>0.03763898917314508</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-5.683296047642717</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44878</v>
+        <v>44879</v>
       </c>
       <c r="B91" t="n">
-        <v>0.3665857482549202</v>
+        <v>0.3417074995436799</v>
       </c>
       <c r="C91" t="n">
-        <v>1003463771.333068</v>
+        <v>1118704703.349329</v>
       </c>
       <c r="D91" t="n">
-        <v>18371602318.29175</v>
+        <v>17086304271.57517</v>
       </c>
       <c r="E91" t="n">
-        <v>0.03763898917314508</v>
+        <v>0.04215954050489321</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-6.996112938047139</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44879</v>
+        <v>44880</v>
       </c>
       <c r="B92" t="n">
-        <v>0.3417074995436799</v>
+        <v>0.3775451641894298</v>
       </c>
       <c r="C92" t="n">
-        <v>1118704703.349329</v>
+        <v>2595659777.069231</v>
       </c>
       <c r="D92" t="n">
-        <v>17086304271.57517</v>
+        <v>18989205360.44477</v>
       </c>
       <c r="E92" t="n">
-        <v>0.04215954050489321</v>
+        <v>0.04357286978172457</v>
+      </c>
+      <c r="F92" t="n">
+        <v>11.13699638391241</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44880</v>
+        <v>44881</v>
       </c>
       <c r="B93" t="n">
-        <v>0.3775451641894298</v>
+        <v>0.3906359681576188</v>
       </c>
       <c r="C93" t="n">
-        <v>2595659777.069231</v>
+        <v>2081487497.975052</v>
       </c>
       <c r="D93" t="n">
-        <v>18989205360.44477</v>
+        <v>19639994952.65355</v>
       </c>
       <c r="E93" t="n">
-        <v>0.04357286978172457</v>
+        <v>0.04423265685821108</v>
+      </c>
+      <c r="F93" t="n">
+        <v>3.427155480473121</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44881</v>
+        <v>44882</v>
       </c>
       <c r="B94" t="n">
-        <v>0.3906359681576188</v>
+        <v>0.378098097621922</v>
       </c>
       <c r="C94" t="n">
-        <v>2081487497.975052</v>
+        <v>1372852887.951188</v>
       </c>
       <c r="D94" t="n">
-        <v>19639994952.65355</v>
+        <v>18970779255.09903</v>
       </c>
       <c r="E94" t="n">
-        <v>0.04423265685821108</v>
+        <v>0.04509619519750986</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-3.40741277769071</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44882</v>
+        <v>44883</v>
       </c>
       <c r="B95" t="n">
-        <v>0.378098097621922</v>
+        <v>0.3841956301573169</v>
       </c>
       <c r="C95" t="n">
-        <v>1372852887.951188</v>
+        <v>1402527156.568397</v>
       </c>
       <c r="D95" t="n">
-        <v>18970779255.09903</v>
+        <v>19303982424.42455</v>
       </c>
       <c r="E95" t="n">
-        <v>0.04509619519750986</v>
+        <v>0.0458282161642146</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1.756402121625888</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44883</v>
+        <v>44884</v>
       </c>
       <c r="B96" t="n">
-        <v>0.3841956301573169</v>
+        <v>0.3846264751615185</v>
       </c>
       <c r="C96" t="n">
-        <v>1402527156.568397</v>
+        <v>986101847.6468065</v>
       </c>
       <c r="D96" t="n">
-        <v>19303982424.42455</v>
+        <v>19357565131.27626</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0458282161642146</v>
+        <v>0.0466634740234924</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.2775733300705685</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44884</v>
+        <v>44885</v>
       </c>
       <c r="B97" t="n">
-        <v>0.3846264751615185</v>
+        <v>0.3866899724708343</v>
       </c>
       <c r="C97" t="n">
-        <v>986101847.6468065</v>
+        <v>569755684.8419449</v>
       </c>
       <c r="D97" t="n">
-        <v>19357565131.27626</v>
+        <v>19448735815.09945</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0466634740234924</v>
+        <v>0.04735363794315051</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.4709821881259346</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44885</v>
+        <v>44886</v>
       </c>
       <c r="B98" t="n">
-        <v>0.3866899724708343</v>
+        <v>0.3643748657670609</v>
       </c>
       <c r="C98" t="n">
-        <v>569755684.8419449</v>
+        <v>1052428346.706693</v>
       </c>
       <c r="D98" t="n">
-        <v>19448735815.09945</v>
+        <v>18311817579.16252</v>
       </c>
       <c r="E98" t="n">
-        <v>0.04735363794315051</v>
+        <v>0.04855204764148065</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-5.845717926068284</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44886</v>
+        <v>44887</v>
       </c>
       <c r="B99" t="n">
-        <v>0.3643748657670609</v>
+        <v>0.367583115604242</v>
       </c>
       <c r="C99" t="n">
-        <v>1052428346.706693</v>
+        <v>1780013171.27111</v>
       </c>
       <c r="D99" t="n">
-        <v>18311817579.16252</v>
+        <v>18495233972.438</v>
       </c>
       <c r="E99" t="n">
-        <v>0.04855204764148065</v>
+        <v>0.04924967043189681</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1.001628552067935</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44887</v>
+        <v>44888</v>
       </c>
       <c r="B100" t="n">
-        <v>0.367583115604242</v>
+        <v>0.3765581048909515</v>
       </c>
       <c r="C100" t="n">
-        <v>1780013171.27111</v>
+        <v>1485466338.833063</v>
       </c>
       <c r="D100" t="n">
-        <v>18495233972.438</v>
+        <v>18989891837.63745</v>
       </c>
       <c r="E100" t="n">
-        <v>0.04924967043189681</v>
+        <v>0.04928967819141847</v>
+      </c>
+      <c r="F100" t="n">
+        <v>2.674515315332604</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44888</v>
+        <v>44889</v>
       </c>
       <c r="B101" t="n">
-        <v>0.3765581048909515</v>
+        <v>0.3833062814501991</v>
       </c>
       <c r="C101" t="n">
-        <v>1485466338.833063</v>
+        <v>1174797641.931981</v>
       </c>
       <c r="D101" t="n">
-        <v>18989891837.63745</v>
+        <v>19284896098.64619</v>
       </c>
       <c r="E101" t="n">
-        <v>0.04928967819141847</v>
+        <v>0.04942649612451209</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1.553480470194368</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44889</v>
+        <v>44890</v>
       </c>
       <c r="B102" t="n">
-        <v>0.3833062814501991</v>
+        <v>0.4038237448074739</v>
       </c>
       <c r="C102" t="n">
-        <v>1174797641.931981</v>
+        <v>1423798508.923036</v>
       </c>
       <c r="D102" t="n">
-        <v>19284896098.64619</v>
+        <v>20296568045.36234</v>
       </c>
       <c r="E102" t="n">
-        <v>0.04942649612451209</v>
+        <v>0.04887654840655582</v>
+      </c>
+      <c r="F102" t="n">
+        <v>5.245928946369416</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44890</v>
+        <v>44891</v>
       </c>
       <c r="B103" t="n">
-        <v>0.4038237448074739</v>
+        <v>0.4106132467603584</v>
       </c>
       <c r="C103" t="n">
-        <v>1423798508.923036</v>
+        <v>1479657670.157974</v>
       </c>
       <c r="D103" t="n">
-        <v>20296568045.36234</v>
+        <v>20680013254.50364</v>
       </c>
       <c r="E103" t="n">
-        <v>0.04887654840655582</v>
+        <v>0.04791745764701816</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1.889212049467259</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44891</v>
+        <v>44892</v>
       </c>
       <c r="B104" t="n">
-        <v>0.4106132467603584</v>
+        <v>0.3986991803189688</v>
       </c>
       <c r="C104" t="n">
-        <v>1479657670.157974</v>
+        <v>693914954.5763754</v>
       </c>
       <c r="D104" t="n">
-        <v>20680013254.50364</v>
+        <v>20049161326.72813</v>
       </c>
       <c r="E104" t="n">
-        <v>0.04791745764701816</v>
+        <v>0.04719017403207027</v>
+      </c>
+      <c r="F104" t="n">
+        <v>-3.050539281632825</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44892</v>
+        <v>44893</v>
       </c>
       <c r="B105" t="n">
-        <v>0.3986991803189688</v>
+        <v>0.3990189274998981</v>
       </c>
       <c r="C105" t="n">
-        <v>693914954.5763754</v>
+        <v>720248826.0615702</v>
       </c>
       <c r="D105" t="n">
-        <v>20049161326.72813</v>
+        <v>20105943755.22066</v>
       </c>
       <c r="E105" t="n">
-        <v>0.04719017403207027</v>
+        <v>0.04590547688596144</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.2832159787992339</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44893</v>
+        <v>44894</v>
       </c>
       <c r="B106" t="n">
-        <v>0.3990189274998981</v>
+        <v>0.3915898959103989</v>
       </c>
       <c r="C106" t="n">
-        <v>720248826.0615702</v>
+        <v>1402123354.674959</v>
       </c>
       <c r="D106" t="n">
-        <v>20105943755.22066</v>
+        <v>19693656670.17409</v>
       </c>
       <c r="E106" t="n">
-        <v>0.04590547688596144</v>
+        <v>0.04471758575170093</v>
+      </c>
+      <c r="F106" t="n">
+        <v>-2.050573154217261</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44894</v>
+        <v>44895</v>
       </c>
       <c r="B107" t="n">
-        <v>0.3915898959103989</v>
+        <v>0.3997957534980851</v>
       </c>
       <c r="C107" t="n">
-        <v>1402123354.674959</v>
+        <v>1140526999.010247</v>
       </c>
       <c r="D107" t="n">
-        <v>19693656670.17409</v>
+        <v>20106137882.34614</v>
       </c>
       <c r="E107" t="n">
-        <v>0.04471758575170093</v>
+        <v>0.04377552036348886</v>
+      </c>
+      <c r="F107" t="n">
+        <v>2.094487677327872</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44895</v>
+        <v>44896</v>
       </c>
       <c r="B108" t="n">
-        <v>0.3997957534980851</v>
+        <v>0.4111918971610414</v>
       </c>
       <c r="C108" t="n">
-        <v>1140526999.010247</v>
+        <v>1083227863.165195</v>
       </c>
       <c r="D108" t="n">
-        <v>20106137882.34614</v>
+        <v>20719087977.17768</v>
       </c>
       <c r="E108" t="n">
-        <v>0.04377552036348886</v>
+        <v>0.04238564371637884</v>
+      </c>
+      <c r="F108" t="n">
+        <v>3.048572025210916</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44896</v>
+        <v>44897</v>
       </c>
       <c r="B109" t="n">
-        <v>0.4111918971610414</v>
+        <v>0.39858580461137</v>
       </c>
       <c r="C109" t="n">
-        <v>1083227863.165195</v>
+        <v>858081595.7050642</v>
       </c>
       <c r="D109" t="n">
-        <v>20719087977.17768</v>
+        <v>20031963631.71759</v>
       </c>
       <c r="E109" t="n">
-        <v>0.04238564371637884</v>
+        <v>0.0408854020157773</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-3.316383164244308</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44897</v>
+        <v>44898</v>
       </c>
       <c r="B110" t="n">
-        <v>0.39858580461137</v>
+        <v>0.398615834145069</v>
       </c>
       <c r="C110" t="n">
-        <v>858081595.7050642</v>
+        <v>888235349.9074985</v>
       </c>
       <c r="D110" t="n">
-        <v>20031963631.71759</v>
+        <v>19969808623.71558</v>
       </c>
       <c r="E110" t="n">
-        <v>0.0408854020157773</v>
+        <v>0.03984315026898831</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-0.3102791575739561</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44898</v>
+        <v>44899</v>
       </c>
       <c r="B111" t="n">
-        <v>0.398615834145069</v>
+        <v>0.3898651923416876</v>
       </c>
       <c r="C111" t="n">
-        <v>888235349.9074985</v>
+        <v>533721848.1149885</v>
       </c>
       <c r="D111" t="n">
-        <v>19969808623.71558</v>
+        <v>19674166663.67257</v>
       </c>
       <c r="E111" t="n">
-        <v>0.03984315026898831</v>
+        <v>0.03854760464609708</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-1.48044463326461</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44899</v>
+        <v>44900</v>
       </c>
       <c r="B112" t="n">
-        <v>0.3898651923416876</v>
+        <v>0.3927017597255727</v>
       </c>
       <c r="C112" t="n">
-        <v>533721848.1149885</v>
+        <v>491979075.1387994</v>
       </c>
       <c r="D112" t="n">
-        <v>19674166663.67257</v>
+        <v>19722117911.69046</v>
       </c>
       <c r="E112" t="n">
-        <v>0.03854760464609708</v>
+        <v>0.03325623316231906</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.2437269584913526</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44900</v>
+        <v>44901</v>
       </c>
       <c r="B113" t="n">
-        <v>0.3927017597255727</v>
+        <v>0.3907786665135361</v>
       </c>
       <c r="C113" t="n">
-        <v>491979075.1387994</v>
+        <v>1057341827.343863</v>
       </c>
       <c r="D113" t="n">
-        <v>19722117911.69046</v>
+        <v>19651351254.57491</v>
       </c>
       <c r="E113" t="n">
-        <v>0.03325623316231906</v>
+        <v>0.02765156168982398</v>
+      </c>
+      <c r="F113" t="n">
+        <v>-0.3588187507671092</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44901</v>
+        <v>44902</v>
       </c>
       <c r="B114" t="n">
-        <v>0.3907786665135361</v>
+        <v>0.3923780530945942</v>
       </c>
       <c r="C114" t="n">
-        <v>1057341827.343863</v>
+        <v>934598154.6602762</v>
       </c>
       <c r="D114" t="n">
-        <v>19651351254.57491</v>
+        <v>19722550803.50706</v>
       </c>
       <c r="E114" t="n">
-        <v>0.02765156168982398</v>
+        <v>0.02327741042907105</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.3623137564932932</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44902</v>
+        <v>44903</v>
       </c>
       <c r="B115" t="n">
-        <v>0.3923780530945942</v>
+        <v>0.3844779242127989</v>
       </c>
       <c r="C115" t="n">
-        <v>934598154.6602762</v>
+        <v>959854684.2095537</v>
       </c>
       <c r="D115" t="n">
-        <v>19722550803.50706</v>
+        <v>19328530509.12746</v>
       </c>
       <c r="E115" t="n">
-        <v>0.02327741042907105</v>
+        <v>0.01819115852177104</v>
+      </c>
+      <c r="F115" t="n">
+        <v>-1.997816095418714</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44903</v>
+        <v>44904</v>
       </c>
       <c r="B116" t="n">
-        <v>0.3844779242127989</v>
+        <v>0.3949164182037001</v>
       </c>
       <c r="C116" t="n">
-        <v>959854684.2095537</v>
+        <v>879857521.4372247</v>
       </c>
       <c r="D116" t="n">
-        <v>19328530509.12746</v>
+        <v>19854852002.13049</v>
       </c>
       <c r="E116" t="n">
-        <v>0.01819115852177104</v>
+        <v>0.01777788100192674</v>
+      </c>
+      <c r="F116" t="n">
+        <v>2.723029010169631</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44904</v>
+        <v>44905</v>
       </c>
       <c r="B117" t="n">
-        <v>0.3949164182037001</v>
+        <v>0.3902238921173458</v>
       </c>
       <c r="C117" t="n">
-        <v>879857521.4372247</v>
+        <v>801611082.0733637</v>
       </c>
       <c r="D117" t="n">
-        <v>19854852002.13049</v>
+        <v>19664656225.08729</v>
       </c>
       <c r="E117" t="n">
-        <v>0.01777788100192674</v>
+        <v>0.01453186767392656</v>
+      </c>
+      <c r="F117" t="n">
+        <v>-0.9579309733600105</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44905</v>
+        <v>44906</v>
       </c>
       <c r="B118" t="n">
-        <v>0.3902238921173458</v>
+        <v>0.387759799248256</v>
       </c>
       <c r="C118" t="n">
-        <v>801611082.0733637</v>
+        <v>359503303.7351229</v>
       </c>
       <c r="D118" t="n">
-        <v>19664656225.08729</v>
+        <v>19506256516.58789</v>
       </c>
       <c r="E118" t="n">
-        <v>0.01453186767392656</v>
+        <v>0.01438152175291431</v>
+      </c>
+      <c r="F118" t="n">
+        <v>-0.8055045899929114</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44906</v>
+        <v>44907</v>
       </c>
       <c r="B119" t="n">
-        <v>0.387759799248256</v>
+        <v>0.3828656934365775</v>
       </c>
       <c r="C119" t="n">
-        <v>359503303.7351229</v>
+        <v>395120823.4216973</v>
       </c>
       <c r="D119" t="n">
-        <v>19506256516.58789</v>
+        <v>19283214294.09726</v>
       </c>
       <c r="E119" t="n">
-        <v>0.01438152175291431</v>
+        <v>0.01440085660546955</v>
+      </c>
+      <c r="F119" t="n">
+        <v>-1.143439400076351</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44907</v>
+        <v>44908</v>
       </c>
       <c r="B120" t="n">
-        <v>0.3828656934365775</v>
+        <v>0.3878258918092492</v>
       </c>
       <c r="C120" t="n">
-        <v>395120823.4216973</v>
+        <v>1049862565.876282</v>
       </c>
       <c r="D120" t="n">
-        <v>19283214294.09726</v>
+        <v>19594256739.87033</v>
       </c>
       <c r="E120" t="n">
-        <v>0.01440085660546955</v>
+        <v>0.01385786055619678</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1.613021776500601</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44908</v>
+        <v>44909</v>
       </c>
       <c r="B121" t="n">
-        <v>0.3878258918092492</v>
+        <v>0.3950139409300741</v>
       </c>
       <c r="C121" t="n">
-        <v>1049862565.876282</v>
+        <v>1355988500.85153</v>
       </c>
       <c r="D121" t="n">
-        <v>19594256739.87033</v>
+        <v>19922570552.08643</v>
       </c>
       <c r="E121" t="n">
-        <v>0.01385786055619678</v>
+        <v>0.01079099594680236</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1.675561449330454</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44909</v>
+        <v>44910</v>
       </c>
       <c r="B122" t="n">
-        <v>0.3950139409300741</v>
+        <v>0.3867035852022032</v>
       </c>
       <c r="C122" t="n">
-        <v>1355988500.85153</v>
+        <v>1043286573.294691</v>
       </c>
       <c r="D122" t="n">
-        <v>19922570552.08643</v>
+        <v>19501737942.72256</v>
       </c>
       <c r="E122" t="n">
-        <v>0.01079099594680236</v>
+        <v>0.01055905599302977</v>
+      </c>
+      <c r="F122" t="n">
+        <v>-2.112340916367339</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44910</v>
+        <v>44911</v>
       </c>
       <c r="B123" t="n">
-        <v>0.3867035852022032</v>
+        <v>0.3779085576571648</v>
       </c>
       <c r="C123" t="n">
-        <v>1043286573.294691</v>
+        <v>819703826.1357329</v>
       </c>
       <c r="D123" t="n">
-        <v>19501737942.72256</v>
+        <v>19073834524.49235</v>
       </c>
       <c r="E123" t="n">
-        <v>0.01055905599302977</v>
+        <v>0.01079063527015782</v>
+      </c>
+      <c r="F123" t="n">
+        <v>-2.194180946780133</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44911</v>
+        <v>44912</v>
       </c>
       <c r="B124" t="n">
-        <v>0.3779085576571648</v>
+        <v>0.3533298415240543</v>
       </c>
       <c r="C124" t="n">
-        <v>819703826.1357329</v>
+        <v>1170831763.124419</v>
       </c>
       <c r="D124" t="n">
-        <v>19073834524.49235</v>
+        <v>17743456573.2856</v>
       </c>
       <c r="E124" t="n">
-        <v>0.01079063527015782</v>
+        <v>0.01251768246592467</v>
+      </c>
+      <c r="F124" t="n">
+        <v>-6.974884622693123</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44912</v>
+        <v>44913</v>
       </c>
       <c r="B125" t="n">
-        <v>0.3533298415240543</v>
+        <v>0.3558315325555913</v>
       </c>
       <c r="C125" t="n">
-        <v>1170831763.124419</v>
+        <v>654553881.8687989</v>
       </c>
       <c r="D125" t="n">
-        <v>17743456573.2856</v>
+        <v>17909121465.34917</v>
       </c>
       <c r="E125" t="n">
-        <v>0.01251768246592467</v>
+        <v>0.01387977552863206</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.9336675262755501</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44913</v>
+        <v>44914</v>
       </c>
       <c r="B126" t="n">
-        <v>0.3558315325555913</v>
+        <v>0.3507100714134827</v>
       </c>
       <c r="C126" t="n">
-        <v>654553881.8687989</v>
+        <v>347030394.0865117</v>
       </c>
       <c r="D126" t="n">
-        <v>17909121465.34917</v>
+        <v>17712497955.34908</v>
       </c>
       <c r="E126" t="n">
-        <v>0.01387977552863206</v>
+        <v>0.01544992584284702</v>
+      </c>
+      <c r="F126" t="n">
+        <v>-1.097895898358392</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44914</v>
+        <v>44915</v>
       </c>
       <c r="B127" t="n">
-        <v>0.3507100714134827</v>
+        <v>0.3392138774124123</v>
       </c>
       <c r="C127" t="n">
-        <v>347030394.0865117</v>
+        <v>1118134740.035368</v>
       </c>
       <c r="D127" t="n">
-        <v>17712497955.34908</v>
+        <v>17095617572.6354</v>
       </c>
       <c r="E127" t="n">
-        <v>0.01544992584284702</v>
+        <v>0.01772468505170514</v>
+      </c>
+      <c r="F127" t="n">
+        <v>-3.482740741982071</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44915</v>
+        <v>44916</v>
       </c>
       <c r="B128" t="n">
-        <v>0.3392138774124123</v>
+        <v>0.3500238902162375</v>
       </c>
       <c r="C128" t="n">
-        <v>1118134740.035368</v>
+        <v>1027632998.109745</v>
       </c>
       <c r="D128" t="n">
-        <v>17095617572.6354</v>
+        <v>17641489469.68155</v>
       </c>
       <c r="E128" t="n">
-        <v>0.01772468505170514</v>
+        <v>0.01848375508012667</v>
+      </c>
+      <c r="F128" t="n">
+        <v>3.193051638683819</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44916</v>
+        <v>44917</v>
       </c>
       <c r="B129" t="n">
-        <v>0.3500238902162375</v>
+        <v>0.3465697645918239</v>
       </c>
       <c r="C129" t="n">
-        <v>1027632998.109745</v>
+        <v>858615195.2521</v>
       </c>
       <c r="D129" t="n">
-        <v>17641489469.68155</v>
+        <v>17435599303.21308</v>
       </c>
       <c r="E129" t="n">
-        <v>0.01848375508012667</v>
+        <v>0.01952479468017215</v>
+      </c>
+      <c r="F129" t="n">
+        <v>-1.167079269708537</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44917</v>
+        <v>44918</v>
       </c>
       <c r="B130" t="n">
-        <v>0.3465697645918239</v>
+        <v>0.3500778912764361</v>
       </c>
       <c r="C130" t="n">
-        <v>858615195.2521</v>
+        <v>780045315.5394924</v>
       </c>
       <c r="D130" t="n">
-        <v>17435599303.21308</v>
+        <v>17620195062.76461</v>
       </c>
       <c r="E130" t="n">
-        <v>0.01952479468017215</v>
+        <v>0.02045082279486611</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1.058729076880716</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44918</v>
+        <v>44919</v>
       </c>
       <c r="B131" t="n">
-        <v>0.3500778912764361</v>
+        <v>0.3551583306832213</v>
       </c>
       <c r="C131" t="n">
-        <v>780045315.5394924</v>
+        <v>666320112.6559712</v>
       </c>
       <c r="D131" t="n">
-        <v>17620195062.76461</v>
+        <v>17856407421.40487</v>
       </c>
       <c r="E131" t="n">
-        <v>0.02045082279486611</v>
+        <v>0.02107931754516389</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1.340577432876588</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44919</v>
+        <v>44920</v>
       </c>
       <c r="B132" t="n">
-        <v>0.3551583306832213</v>
+        <v>0.3531799742856997</v>
       </c>
       <c r="C132" t="n">
-        <v>666320112.6559712</v>
+        <v>231622343.957664</v>
       </c>
       <c r="D132" t="n">
-        <v>17856407421.40487</v>
+        <v>17779420196.45871</v>
       </c>
       <c r="E132" t="n">
-        <v>0.02107931754516389</v>
+        <v>0.0213151892218115</v>
+      </c>
+      <c r="F132" t="n">
+        <v>-0.4311462161972646</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44920</v>
+        <v>44921</v>
       </c>
       <c r="B133" t="n">
-        <v>0.3531799742856997</v>
+        <v>0.3469858575442719</v>
       </c>
       <c r="C133" t="n">
-        <v>231622343.957664</v>
+        <v>339542349.5552029</v>
       </c>
       <c r="D133" t="n">
-        <v>17779420196.45871</v>
+        <v>17471177171.15762</v>
       </c>
       <c r="E133" t="n">
-        <v>0.0213151892218115</v>
+        <v>0.02138310236040403</v>
+      </c>
+      <c r="F133" t="n">
+        <v>-1.733706846989791</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44921</v>
+        <v>44922</v>
       </c>
       <c r="B134" t="n">
-        <v>0.3469858575442719</v>
+        <v>0.3661426478635404</v>
       </c>
       <c r="C134" t="n">
-        <v>339542349.5552029</v>
+        <v>945058966.0773864</v>
       </c>
       <c r="D134" t="n">
-        <v>17471177171.15762</v>
+        <v>18434824599.69931</v>
       </c>
       <c r="E134" t="n">
-        <v>0.02138310236040403</v>
+        <v>0.02114215022598711</v>
+      </c>
+      <c r="F134" t="n">
+        <v>5.515641099058421</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44922</v>
+        <v>44923</v>
       </c>
       <c r="B135" t="n">
-        <v>0.3661426478635404</v>
+        <v>0.3678858141405444</v>
       </c>
       <c r="C135" t="n">
-        <v>945058966.0773864</v>
+        <v>1069684994.997978</v>
       </c>
       <c r="D135" t="n">
-        <v>18434824599.69931</v>
+        <v>18546249287.40341</v>
       </c>
       <c r="E135" t="n">
-        <v>0.02114215022598711</v>
+        <v>0.02080139806922699</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.6044249952121827</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44923</v>
+        <v>44924</v>
       </c>
       <c r="B136" t="n">
-        <v>0.3678858141405444</v>
+        <v>0.3563296234740831</v>
       </c>
       <c r="C136" t="n">
-        <v>1069684994.997978</v>
+        <v>979984594.6528118</v>
       </c>
       <c r="D136" t="n">
-        <v>18546249287.40341</v>
+        <v>17929049866.6208</v>
       </c>
       <c r="E136" t="n">
-        <v>0.02080139806922699</v>
+        <v>0.02090224560345136</v>
+      </c>
+      <c r="F136" t="n">
+        <v>-3.327893479798161</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44924</v>
+        <v>44925</v>
       </c>
       <c r="B137" t="n">
-        <v>0.3563296234740831</v>
+        <v>0.3432590772558555</v>
       </c>
       <c r="C137" t="n">
-        <v>979984594.6528118</v>
+        <v>1037430034.6293</v>
       </c>
       <c r="D137" t="n">
-        <v>17929049866.6208</v>
+        <v>17294056583.41884</v>
       </c>
       <c r="E137" t="n">
-        <v>0.02090224560345136</v>
+        <v>0.02114629661329466</v>
+      </c>
+      <c r="F137" t="n">
+        <v>-3.541700692038063</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44925</v>
+        <v>44926</v>
       </c>
       <c r="B138" t="n">
-        <v>0.3432590772558555</v>
+        <v>0.3454333605935747</v>
       </c>
       <c r="C138" t="n">
-        <v>1037430034.6293</v>
+        <v>798701561.8671073</v>
       </c>
       <c r="D138" t="n">
-        <v>17294056583.41884</v>
+        <v>17383390100.95133</v>
       </c>
       <c r="E138" t="n">
-        <v>0.02114629661329466</v>
+        <v>0.02047160615283248</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.5165561769824301</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44926</v>
+        <v>44927</v>
       </c>
       <c r="B139" t="n">
-        <v>0.3454333605935747</v>
+        <v>0.3400862829531819</v>
       </c>
       <c r="C139" t="n">
-        <v>798701561.8671073</v>
+        <v>404611674.3235269</v>
       </c>
       <c r="D139" t="n">
-        <v>17383390100.95133</v>
+        <v>17121133957.93717</v>
       </c>
       <c r="E139" t="n">
-        <v>0.02047160615283248</v>
+        <v>0.02054184647246939</v>
+      </c>
+      <c r="F139" t="n">
+        <v>-1.508659366735399</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44927</v>
+        <v>44928</v>
       </c>
       <c r="B140" t="n">
-        <v>0.3400862829531819</v>
+        <v>0.3390659137727584</v>
       </c>
       <c r="C140" t="n">
-        <v>404611674.3235269</v>
+        <v>327129626.0672564</v>
       </c>
       <c r="D140" t="n">
-        <v>17121133957.93717</v>
+        <v>17060108166.49119</v>
       </c>
       <c r="E140" t="n">
-        <v>0.02054184647246939</v>
+        <v>0.02046590627753487</v>
+      </c>
+      <c r="F140" t="n">
+        <v>-0.3564354533753922</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44928</v>
+        <v>44929</v>
       </c>
       <c r="B141" t="n">
-        <v>0.3390659137727584</v>
+        <v>0.3485704226652263</v>
       </c>
       <c r="C141" t="n">
-        <v>327129626.0672564</v>
+        <v>1581447168.2871</v>
       </c>
       <c r="D141" t="n">
-        <v>17060108166.49119</v>
+        <v>17560796887.61524</v>
       </c>
       <c r="E141" t="n">
-        <v>0.02046590627753487</v>
+        <v>0.0202690338847962</v>
+      </c>
+      <c r="F141" t="n">
+        <v>2.934850800697064</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44929</v>
+        <v>44930</v>
       </c>
       <c r="B142" t="n">
-        <v>0.3485704226652263</v>
+        <v>0.3438178292783567</v>
       </c>
       <c r="C142" t="n">
-        <v>1581447168.2871</v>
+        <v>955848915.0366379</v>
       </c>
       <c r="D142" t="n">
-        <v>17560796887.61524</v>
+        <v>17382384969.7444</v>
       </c>
       <c r="E142" t="n">
-        <v>0.0202690338847962</v>
+        <v>0.01998757273711122</v>
+      </c>
+      <c r="F142" t="n">
+        <v>-1.015967094276138</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44930</v>
+        <v>44931</v>
       </c>
       <c r="B143" t="n">
-        <v>0.3438178292783567</v>
+        <v>0.3481488850831712</v>
       </c>
       <c r="C143" t="n">
-        <v>955848915.0366379</v>
+        <v>957585438.9511281</v>
       </c>
       <c r="D143" t="n">
-        <v>17382384969.7444</v>
+        <v>17597994730.9952</v>
       </c>
       <c r="E143" t="n">
-        <v>0.01998757273711122</v>
+        <v>0.01953453836992119</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1.240392280035718</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44931</v>
+        <v>44932</v>
       </c>
       <c r="B144" t="n">
-        <v>0.3481488850831712</v>
+        <v>0.3384179800553607</v>
       </c>
       <c r="C144" t="n">
-        <v>957585438.9511281</v>
+        <v>744907998.8296136</v>
       </c>
       <c r="D144" t="n">
-        <v>17597994730.9952</v>
+        <v>17116070602.36482</v>
       </c>
       <c r="E144" t="n">
-        <v>0.01953453836992119</v>
+        <v>0.01918525340112346</v>
+      </c>
+      <c r="F144" t="n">
+        <v>-2.73851729130008</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44932</v>
+        <v>44933</v>
       </c>
       <c r="B145" t="n">
-        <v>0.3384179800553607</v>
+        <v>0.34511953355311</v>
       </c>
       <c r="C145" t="n">
-        <v>744907998.8296136</v>
+        <v>801001834.066361</v>
       </c>
       <c r="D145" t="n">
-        <v>17116070602.36482</v>
+        <v>17457329880.73863</v>
       </c>
       <c r="E145" t="n">
-        <v>0.01918525340112346</v>
+        <v>0.01885774096759297</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1.993794523882464</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44933</v>
+        <v>44934</v>
       </c>
       <c r="B146" t="n">
-        <v>0.34511953355311</v>
+        <v>0.3447533324613407</v>
       </c>
       <c r="C146" t="n">
-        <v>801001834.066361</v>
+        <v>342946545.8461409</v>
       </c>
       <c r="D146" t="n">
-        <v>17457329880.73863</v>
+        <v>17420356238.27483</v>
       </c>
       <c r="E146" t="n">
-        <v>0.01885774096759297</v>
+        <v>0.01780870786279633</v>
+      </c>
+      <c r="F146" t="n">
+        <v>-0.211794373574814</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44934</v>
+        <v>44935</v>
       </c>
       <c r="B147" t="n">
-        <v>0.3447533324613407</v>
+        <v>0.3452258121803157</v>
       </c>
       <c r="C147" t="n">
-        <v>342946545.8461409</v>
+        <v>545985714.4967215</v>
       </c>
       <c r="D147" t="n">
-        <v>17420356238.27483</v>
+        <v>17456961142.23426</v>
       </c>
       <c r="E147" t="n">
-        <v>0.01780870786279633</v>
+        <v>0.01686037831636753</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.2101271837311902</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44935</v>
+        <v>44936</v>
       </c>
       <c r="B148" t="n">
-        <v>0.3452258121803157</v>
+        <v>0.3496853723382183</v>
       </c>
       <c r="C148" t="n">
-        <v>545985714.4967215</v>
+        <v>1539262894.632893</v>
       </c>
       <c r="D148" t="n">
-        <v>17456961142.23426</v>
+        <v>17717747212.10003</v>
       </c>
       <c r="E148" t="n">
-        <v>0.01686037831636753</v>
+        <v>0.0158176468861979</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1.493880107430834</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44936</v>
+        <v>44937</v>
       </c>
       <c r="B149" t="n">
-        <v>0.3496853723382183</v>
+        <v>0.3516250959148819</v>
       </c>
       <c r="C149" t="n">
-        <v>1539262894.632893</v>
+        <v>917319432.2180703</v>
       </c>
       <c r="D149" t="n">
-        <v>17717747212.10003</v>
+        <v>17792177163.84715</v>
       </c>
       <c r="E149" t="n">
-        <v>0.0158176468861979</v>
+        <v>0.01493094300478648</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.4200869944475105</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44937</v>
+        <v>44938</v>
       </c>
       <c r="B150" t="n">
-        <v>0.3516250959148819</v>
+        <v>0.3751680418453305</v>
       </c>
       <c r="C150" t="n">
-        <v>917319432.2180703</v>
+        <v>1746275470.343199</v>
       </c>
       <c r="D150" t="n">
-        <v>17792177163.84715</v>
+        <v>19038727678.20348</v>
       </c>
       <c r="E150" t="n">
-        <v>0.01493094300478648</v>
+        <v>0.01409987177226981</v>
+      </c>
+      <c r="F150" t="n">
+        <v>7.006171885975099</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44938</v>
+        <v>44939</v>
       </c>
       <c r="B151" t="n">
-        <v>0.3751680418453305</v>
+        <v>0.3757077587246529</v>
       </c>
       <c r="C151" t="n">
-        <v>1746275470.343199</v>
+        <v>1426759425.259369</v>
       </c>
       <c r="D151" t="n">
-        <v>19038727678.20348</v>
+        <v>19039106716.02862</v>
       </c>
       <c r="E151" t="n">
-        <v>0.01409987177226981</v>
+        <v>0.01249614490626244</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.001990877917590339</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44939</v>
+        <v>44940</v>
       </c>
       <c r="B152" t="n">
-        <v>0.3757077587246529</v>
+        <v>0.3866854348676512</v>
       </c>
       <c r="C152" t="n">
-        <v>1426759425.259369</v>
+        <v>1170148577.997972</v>
       </c>
       <c r="D152" t="n">
-        <v>19039106716.02862</v>
+        <v>19580764523.90387</v>
       </c>
       <c r="E152" t="n">
-        <v>0.01249614490626244</v>
+        <v>0.01249445740332727</v>
+      </c>
+      <c r="F152" t="n">
+        <v>2.844974903256547</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44940</v>
+        <v>44941</v>
       </c>
       <c r="B153" t="n">
-        <v>0.3866854348676512</v>
+        <v>0.3957801415784646</v>
       </c>
       <c r="C153" t="n">
-        <v>1170148577.997972</v>
+        <v>1860485927.246682</v>
       </c>
       <c r="D153" t="n">
-        <v>19580764523.90387</v>
+        <v>20080653280.13184</v>
       </c>
       <c r="E153" t="n">
-        <v>0.01249445740332727</v>
+        <v>0.014051812946682</v>
+      </c>
+      <c r="F153" t="n">
+        <v>2.552958315890685</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44941</v>
+        <v>44942</v>
       </c>
       <c r="B154" t="n">
-        <v>0.3957801415784646</v>
+        <v>0.3846604814430939</v>
       </c>
       <c r="C154" t="n">
-        <v>1860485927.246682</v>
+        <v>938035524.0987028</v>
       </c>
       <c r="D154" t="n">
-        <v>20080653280.13184</v>
+        <v>19502566239.7335</v>
       </c>
       <c r="E154" t="n">
-        <v>0.014051812946682</v>
+        <v>0.01515225298410071</v>
+      </c>
+      <c r="F154" t="n">
+        <v>-2.87882586454653</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="B155" t="n">
-        <v>0.3846604814430939</v>
+        <v>0.3872187451452261</v>
       </c>
       <c r="C155" t="n">
-        <v>938035524.0987028</v>
+        <v>1668494268.054539</v>
       </c>
       <c r="D155" t="n">
-        <v>19502566239.7335</v>
+        <v>19619545376.60257</v>
       </c>
       <c r="E155" t="n">
-        <v>0.01515225298410071</v>
+        <v>0.01627881794251464</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.5998140728308066</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44943</v>
+        <v>44944</v>
       </c>
       <c r="B156" t="n">
-        <v>0.3872187451452261</v>
+        <v>0.3883460896972918</v>
       </c>
       <c r="C156" t="n">
-        <v>1668494268.054539</v>
+        <v>1138890767.181502</v>
       </c>
       <c r="D156" t="n">
-        <v>19619545376.60257</v>
+        <v>19658180910.92554</v>
       </c>
       <c r="E156" t="n">
-        <v>0.01627881794251464</v>
+        <v>0.01729997424805792</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.1969236981864242</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44944</v>
+        <v>44945</v>
       </c>
       <c r="B157" t="n">
-        <v>0.3883460896972918</v>
+        <v>0.3797679869684619</v>
       </c>
       <c r="C157" t="n">
-        <v>1138890767.181502</v>
+        <v>1702838567.322088</v>
       </c>
       <c r="D157" t="n">
-        <v>19658180910.92554</v>
+        <v>19245926197.7098</v>
       </c>
       <c r="E157" t="n">
-        <v>0.01729997424805792</v>
+        <v>0.01745049866648052</v>
+      </c>
+      <c r="F157" t="n">
+        <v>-2.097115267601501</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44945</v>
+        <v>44946</v>
       </c>
       <c r="B158" t="n">
-        <v>0.3797679869684619</v>
+        <v>0.3941963457659705</v>
       </c>
       <c r="C158" t="n">
-        <v>1702838567.322088</v>
+        <v>1255535645.986541</v>
       </c>
       <c r="D158" t="n">
-        <v>19245926197.7098</v>
+        <v>19971310554.25555</v>
       </c>
       <c r="E158" t="n">
-        <v>0.01745049866648052</v>
+        <v>0.01855689562340987</v>
+      </c>
+      <c r="F158" t="n">
+        <v>3.769028048294554</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44946</v>
+        <v>44947</v>
       </c>
       <c r="B159" t="n">
-        <v>0.3941963457659705</v>
+        <v>0.4135995980254182</v>
       </c>
       <c r="C159" t="n">
-        <v>1255535645.986541</v>
+        <v>1186977053.328279</v>
       </c>
       <c r="D159" t="n">
-        <v>19971310554.25555</v>
+        <v>20999925928.92542</v>
       </c>
       <c r="E159" t="n">
-        <v>0.01855689562340987</v>
+        <v>0.02081125399971476</v>
+      </c>
+      <c r="F159" t="n">
+        <v>5.150465072762511</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44947</v>
+        <v>44948</v>
       </c>
       <c r="B160" t="n">
-        <v>0.4135995980254182</v>
+        <v>0.4042373402682552</v>
       </c>
       <c r="C160" t="n">
-        <v>1186977053.328279</v>
+        <v>1142406486.226599</v>
       </c>
       <c r="D160" t="n">
-        <v>20999925928.92542</v>
+        <v>20511505868.34467</v>
       </c>
       <c r="E160" t="n">
-        <v>0.02081125399971476</v>
+        <v>0.02205311928073752</v>
+      </c>
+      <c r="F160" t="n">
+        <v>-2.325818015900682</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44948</v>
+        <v>44949</v>
       </c>
       <c r="B161" t="n">
-        <v>0.4042373402682552</v>
+        <v>0.4023071714072539</v>
       </c>
       <c r="C161" t="n">
-        <v>1142406486.226599</v>
+        <v>852878506.6611335</v>
       </c>
       <c r="D161" t="n">
-        <v>20511505868.34467</v>
+        <v>20425679976.40058</v>
       </c>
       <c r="E161" t="n">
-        <v>0.02205311928073752</v>
+        <v>0.0230719047998501</v>
+      </c>
+      <c r="F161" t="n">
+        <v>-0.418428039827845</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44949</v>
+        <v>44950</v>
       </c>
       <c r="B162" t="n">
-        <v>0.4023071714072539</v>
+        <v>0.4266693124379404</v>
       </c>
       <c r="C162" t="n">
-        <v>852878506.6611335</v>
+        <v>2285698262.677693</v>
       </c>
       <c r="D162" t="n">
-        <v>20425679976.40058</v>
+        <v>21638028918.38685</v>
       </c>
       <c r="E162" t="n">
-        <v>0.0230719047998501</v>
+        <v>0.02550493422016381</v>
+      </c>
+      <c r="F162" t="n">
+        <v>5.935415336904293</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44950</v>
+        <v>44951</v>
       </c>
       <c r="B163" t="n">
-        <v>0.4266693124379404</v>
+        <v>0.4087729415360423</v>
       </c>
       <c r="C163" t="n">
-        <v>2285698262.677693</v>
+        <v>1400007168.082197</v>
       </c>
       <c r="D163" t="n">
-        <v>21638028918.38685</v>
+        <v>20714879210.16023</v>
       </c>
       <c r="E163" t="n">
-        <v>0.02550493422016381</v>
+        <v>0.02624759494973296</v>
+      </c>
+      <c r="F163" t="n">
+        <v>-4.266329949500047</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>44951</v>
+        <v>44952</v>
       </c>
       <c r="B164" t="n">
-        <v>0.4087729415360423</v>
+        <v>0.4186592896798123</v>
       </c>
       <c r="C164" t="n">
-        <v>1400007168.082197</v>
+        <v>1245728191.771823</v>
       </c>
       <c r="D164" t="n">
-        <v>20714879210.16023</v>
+        <v>21255807576.52618</v>
       </c>
       <c r="E164" t="n">
-        <v>0.02624759494973296</v>
+        <v>0.02770016394932713</v>
+      </c>
+      <c r="F164" t="n">
+        <v>2.611303502559847</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>44952</v>
+        <v>44953</v>
       </c>
       <c r="B165" t="n">
-        <v>0.4186592896798123</v>
+        <v>0.4111158852427795</v>
       </c>
       <c r="C165" t="n">
-        <v>1245728191.771823</v>
+        <v>1019272806.048511</v>
       </c>
       <c r="D165" t="n">
-        <v>21255807576.52618</v>
+        <v>20916108969.41146</v>
       </c>
       <c r="E165" t="n">
-        <v>0.02770016394932713</v>
+        <v>0.02860770781446191</v>
+      </c>
+      <c r="F165" t="n">
+        <v>-1.598144911181187</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>44953</v>
+        <v>44954</v>
       </c>
       <c r="B166" t="n">
-        <v>0.4111158852427795</v>
+        <v>0.4140015975409833</v>
       </c>
       <c r="C166" t="n">
-        <v>1019272806.048511</v>
+        <v>942400534.0736151</v>
       </c>
       <c r="D166" t="n">
-        <v>20916108969.41146</v>
+        <v>21011973835.20259</v>
       </c>
       <c r="E166" t="n">
-        <v>0.02860770781446191</v>
+        <v>0.02937078151882299</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.4583303038405706</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>44954</v>
+        <v>44955</v>
       </c>
       <c r="B167" t="n">
-        <v>0.4140015975409833</v>
+        <v>0.4096758453041082</v>
       </c>
       <c r="C167" t="n">
-        <v>942400534.0736151</v>
+        <v>565735709.6176277</v>
       </c>
       <c r="D167" t="n">
-        <v>21011973835.20259</v>
+        <v>20794792977.81091</v>
       </c>
       <c r="E167" t="n">
-        <v>0.02937078151882299</v>
+        <v>0.02939861219847384</v>
+      </c>
+      <c r="F167" t="n">
+        <v>-1.033605215269351</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>44955</v>
+        <v>44956</v>
       </c>
       <c r="B168" t="n">
-        <v>0.4096758453041082</v>
+        <v>0.4149713432831109</v>
       </c>
       <c r="C168" t="n">
-        <v>565735709.6176277</v>
+        <v>630042252.5374581</v>
       </c>
       <c r="D168" t="n">
-        <v>20794792977.81091</v>
+        <v>21072151658.28616</v>
       </c>
       <c r="E168" t="n">
-        <v>0.02939861219847384</v>
+        <v>0.0295471769751478</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1.333789092159776</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>44956</v>
+        <v>44957</v>
       </c>
       <c r="B169" t="n">
-        <v>0.4149713432831109</v>
+        <v>0.3963337020923979</v>
       </c>
       <c r="C169" t="n">
-        <v>630042252.5374581</v>
+        <v>1441087625.968995</v>
       </c>
       <c r="D169" t="n">
-        <v>21072151658.28616</v>
+        <v>20091977273.8818</v>
       </c>
       <c r="E169" t="n">
-        <v>0.0295471769751478</v>
+        <v>0.02873094037024752</v>
+      </c>
+      <c r="F169" t="n">
+        <v>-4.651515423290564</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>44957</v>
+        <v>44958</v>
       </c>
       <c r="B170" t="n">
-        <v>0.3963337020923979</v>
+        <v>0.4073667927328009</v>
       </c>
       <c r="C170" t="n">
-        <v>1441087625.968995</v>
+        <v>1197426392.907628</v>
       </c>
       <c r="D170" t="n">
-        <v>20091977273.8818</v>
+        <v>20688747113.48663</v>
       </c>
       <c r="E170" t="n">
-        <v>0.02873094037024752</v>
+        <v>0.02795547593156228</v>
+      </c>
+      <c r="F170" t="n">
+        <v>2.970189700446246</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>44958</v>
+        <v>44959</v>
       </c>
       <c r="B171" t="n">
-        <v>0.4073667927328009</v>
+        <v>0.4148527743836202</v>
       </c>
       <c r="C171" t="n">
-        <v>1197426392.907628</v>
+        <v>1250397867.2488</v>
       </c>
       <c r="D171" t="n">
-        <v>20688747113.48663</v>
+        <v>21064449265.23854</v>
       </c>
       <c r="E171" t="n">
-        <v>0.02795547593156228</v>
+        <v>0.02770251705208683</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1.815973435660578</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>44959</v>
+        <v>44960</v>
       </c>
       <c r="B172" t="n">
-        <v>0.4148527743836202</v>
+        <v>0.4112098873232879</v>
       </c>
       <c r="C172" t="n">
-        <v>1250397867.2488</v>
+        <v>1151908009.908709</v>
       </c>
       <c r="D172" t="n">
-        <v>21064449265.23854</v>
+        <v>20884408869.32825</v>
       </c>
       <c r="E172" t="n">
-        <v>0.02770251705208683</v>
+        <v>0.0268933057029206</v>
+      </c>
+      <c r="F172" t="n">
+        <v>-0.8547120964012112</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>44960</v>
+        <v>44961</v>
       </c>
       <c r="B173" t="n">
-        <v>0.4112098873232879</v>
+        <v>0.4124106594131678</v>
       </c>
       <c r="C173" t="n">
-        <v>1151908009.908709</v>
+        <v>978829007.0556666</v>
       </c>
       <c r="D173" t="n">
-        <v>20884408869.32825</v>
+        <v>20950682121.52254</v>
       </c>
       <c r="E173" t="n">
-        <v>0.0268933057029206</v>
+        <v>0.02614681692212063</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.3173336272477068</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>44961</v>
+        <v>44962</v>
       </c>
       <c r="B174" t="n">
-        <v>0.4124106594131678</v>
+        <v>0.4121338298176891</v>
       </c>
       <c r="C174" t="n">
-        <v>978829007.0556666</v>
+        <v>648944348.9337069</v>
       </c>
       <c r="D174" t="n">
-        <v>20950682121.52254</v>
+        <v>20949793892.67069</v>
       </c>
       <c r="E174" t="n">
-        <v>0.02614681692212063</v>
+        <v>0.02451749008598144</v>
+      </c>
+      <c r="F174" t="n">
+        <v>-0.004239617816226282</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>44962</v>
+        <v>44963</v>
       </c>
       <c r="B175" t="n">
-        <v>0.4121338298176891</v>
+        <v>0.3998167475166554</v>
       </c>
       <c r="C175" t="n">
-        <v>648944348.9337069</v>
+        <v>863028588.790369</v>
       </c>
       <c r="D175" t="n">
-        <v>20949793892.67069</v>
+        <v>20322531847.38599</v>
       </c>
       <c r="E175" t="n">
-        <v>0.02451749008598144</v>
+        <v>0.02282961297048194</v>
+      </c>
+      <c r="F175" t="n">
+        <v>-2.994120364612052</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>44963</v>
+        <v>44964</v>
       </c>
       <c r="B176" t="n">
-        <v>0.3998167475166554</v>
+        <v>0.393765629446712</v>
       </c>
       <c r="C176" t="n">
-        <v>863028588.790369</v>
+        <v>1057791123.270857</v>
       </c>
       <c r="D176" t="n">
-        <v>20322531847.38599</v>
+        <v>19987203910.58881</v>
       </c>
       <c r="E176" t="n">
-        <v>0.02282961297048194</v>
+        <v>0.02080607618572099</v>
+      </c>
+      <c r="F176" t="n">
+        <v>-1.650030317656037</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>44964</v>
+        <v>44965</v>
       </c>
       <c r="B177" t="n">
-        <v>0.393765629446712</v>
+        <v>0.4048849794610551</v>
       </c>
       <c r="C177" t="n">
-        <v>1057791123.270857</v>
+        <v>1161291193.361951</v>
       </c>
       <c r="D177" t="n">
-        <v>19987203910.58881</v>
+        <v>20578617233.8652</v>
       </c>
       <c r="E177" t="n">
-        <v>0.02080607618572099</v>
+        <v>0.01848805815271132</v>
+      </c>
+      <c r="F177" t="n">
+        <v>2.9589597720723</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>44965</v>
+        <v>44966</v>
       </c>
       <c r="B178" t="n">
-        <v>0.4048849794610551</v>
+        <v>0.3986931996846012</v>
       </c>
       <c r="C178" t="n">
-        <v>1161291193.361951</v>
+        <v>950354663.9422504</v>
       </c>
       <c r="D178" t="n">
-        <v>20578617233.8652</v>
+        <v>20272568564.15036</v>
       </c>
       <c r="E178" t="n">
-        <v>0.01848805815271132</v>
+        <v>0.01606041935190882</v>
+      </c>
+      <c r="F178" t="n">
+        <v>-1.487216882634812</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>44966</v>
+        <v>44967</v>
       </c>
       <c r="B179" t="n">
-        <v>0.3986931996846012</v>
+        <v>0.3832139446465286</v>
       </c>
       <c r="C179" t="n">
-        <v>950354663.9422504</v>
+        <v>1821185002.166412</v>
       </c>
       <c r="D179" t="n">
-        <v>20272568564.15036</v>
+        <v>19494029957.97749</v>
       </c>
       <c r="E179" t="n">
-        <v>0.01606041935190882</v>
+        <v>0.01364557842368015</v>
+      </c>
+      <c r="F179" t="n">
+        <v>-3.840355028072895</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>44967</v>
+        <v>44968</v>
       </c>
       <c r="B180" t="n">
-        <v>0.3832139446465286</v>
+        <v>0.3835543661601323</v>
       </c>
       <c r="C180" t="n">
-        <v>1821185002.166412</v>
+        <v>1049701311.589864</v>
       </c>
       <c r="D180" t="n">
-        <v>19494029957.97749</v>
+        <v>19484210803.04671</v>
       </c>
       <c r="E180" t="n">
-        <v>0.01364557842368015</v>
+        <v>0.01317871799733596</v>
+      </c>
+      <c r="F180" t="n">
+        <v>-0.05037006176731307</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>44968</v>
+        <v>44969</v>
       </c>
       <c r="B181" t="n">
-        <v>0.3835543661601323</v>
+        <v>0.3852754283472096</v>
       </c>
       <c r="C181" t="n">
-        <v>1049701311.589864</v>
+        <v>511402933.8814731</v>
       </c>
       <c r="D181" t="n">
-        <v>19484210803.04671</v>
+        <v>19569331797.91024</v>
       </c>
       <c r="E181" t="n">
-        <v>0.01317871799733596</v>
+        <v>0.01264672865575464</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.4368716584107757</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>44969</v>
+        <v>44970</v>
       </c>
       <c r="B182" t="n">
-        <v>0.3852754283472096</v>
+        <v>0.376051100078587</v>
       </c>
       <c r="C182" t="n">
-        <v>511402933.8814731</v>
+        <v>560863913.2683896</v>
       </c>
       <c r="D182" t="n">
-        <v>19569331797.91024</v>
+        <v>19086935160.55186</v>
       </c>
       <c r="E182" t="n">
-        <v>0.01264672865575464</v>
+        <v>0.01321190037506034</v>
+      </c>
+      <c r="F182" t="n">
+        <v>-2.465064430099173</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>44970</v>
+        <v>44971</v>
       </c>
       <c r="B183" t="n">
-        <v>0.376051100078587</v>
+        <v>0.3720546283535058</v>
       </c>
       <c r="C183" t="n">
-        <v>560863913.2683896</v>
+        <v>1370370835.396149</v>
       </c>
       <c r="D183" t="n">
-        <v>19086935160.55186</v>
+        <v>18900034646.09865</v>
       </c>
       <c r="E183" t="n">
-        <v>0.01321190037506034</v>
+        <v>0.01421449422118874</v>
+      </c>
+      <c r="F183" t="n">
+        <v>-0.9792065246781556</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>44971</v>
+        <v>44972</v>
       </c>
       <c r="B184" t="n">
-        <v>0.3720546283535058</v>
+        <v>0.3832279512992213</v>
       </c>
       <c r="C184" t="n">
-        <v>1370370835.396149</v>
+        <v>1276863097.164904</v>
       </c>
       <c r="D184" t="n">
-        <v>18900034646.09865</v>
+        <v>19466658327.99643</v>
       </c>
       <c r="E184" t="n">
-        <v>0.01421449422118874</v>
+        <v>0.01427123163731038</v>
+      </c>
+      <c r="F184" t="n">
+        <v>2.998003403209326</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>44972</v>
+        <v>44973</v>
       </c>
       <c r="B185" t="n">
-        <v>0.3832279512992213</v>
+        <v>0.401361856233086</v>
       </c>
       <c r="C185" t="n">
-        <v>1276863097.164904</v>
+        <v>1320600525.785714</v>
       </c>
       <c r="D185" t="n">
-        <v>19466658327.99643</v>
+        <v>20368679852.00335</v>
       </c>
       <c r="E185" t="n">
-        <v>0.01427123163731038</v>
+        <v>0.01405689670661164</v>
+      </c>
+      <c r="F185" t="n">
+        <v>4.633674197228066</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>44973</v>
+        <v>44974</v>
       </c>
       <c r="B186" t="n">
-        <v>0.401361856233086</v>
+        <v>0.3869228608316964</v>
       </c>
       <c r="C186" t="n">
-        <v>1320600525.785714</v>
+        <v>1437284191.629153</v>
       </c>
       <c r="D186" t="n">
-        <v>20368679852.00335</v>
+        <v>19624357378.80268</v>
       </c>
       <c r="E186" t="n">
-        <v>0.01405689670661164</v>
+        <v>0.01410253333928877</v>
+      </c>
+      <c r="F186" t="n">
+        <v>-3.654249949475585</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>44974</v>
+        <v>44975</v>
       </c>
       <c r="B187" t="n">
-        <v>0.3869228608316964</v>
+        <v>0.3953120430532022</v>
       </c>
       <c r="C187" t="n">
-        <v>1437284191.629153</v>
+        <v>1212725512.05467</v>
       </c>
       <c r="D187" t="n">
-        <v>19624357378.80268</v>
+        <v>20087928758.71447</v>
       </c>
       <c r="E187" t="n">
-        <v>0.01410253333928877</v>
+        <v>0.01358279862399383</v>
+      </c>
+      <c r="F187" t="n">
+        <v>2.362224509896671</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>44975</v>
+        <v>44976</v>
       </c>
       <c r="B188" t="n">
-        <v>0.3953120430532022</v>
+        <v>0.3943929668386478</v>
       </c>
       <c r="C188" t="n">
-        <v>1212725512.05467</v>
+        <v>575785061.3648797</v>
       </c>
       <c r="D188" t="n">
-        <v>20087928758.71447</v>
+        <v>20036416117.84064</v>
       </c>
       <c r="E188" t="n">
-        <v>0.01358279862399383</v>
+        <v>0.01357933885279998</v>
+      </c>
+      <c r="F188" t="n">
+        <v>-0.2564358002886791</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>44976</v>
+        <v>44977</v>
       </c>
       <c r="B189" t="n">
-        <v>0.3943929668386478</v>
+        <v>0.3856060724873099</v>
       </c>
       <c r="C189" t="n">
-        <v>575785061.3648797</v>
+        <v>863659775.2319903</v>
       </c>
       <c r="D189" t="n">
-        <v>20036416117.84064</v>
+        <v>19625731454.88047</v>
       </c>
       <c r="E189" t="n">
-        <v>0.01357933885279998</v>
+        <v>0.01366146403176099</v>
+      </c>
+      <c r="F189" t="n">
+        <v>-2.049691224941619</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>44977</v>
+        <v>44978</v>
       </c>
       <c r="B190" t="n">
-        <v>0.3856060724873099</v>
+        <v>0.3976747252183048</v>
       </c>
       <c r="C190" t="n">
-        <v>863659775.2319903</v>
+        <v>1741797303.39565</v>
       </c>
       <c r="D190" t="n">
-        <v>19625731454.88047</v>
+        <v>20205624242.5724</v>
       </c>
       <c r="E190" t="n">
-        <v>0.01366146403176099</v>
+        <v>0.01364869770276043</v>
+      </c>
+      <c r="F190" t="n">
+        <v>2.954757579482292</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>44978</v>
+        <v>44979</v>
       </c>
       <c r="B191" t="n">
-        <v>0.3976747252183048</v>
+        <v>0.3913842408172827</v>
       </c>
       <c r="C191" t="n">
-        <v>1741797303.39565</v>
+        <v>1404135578.965351</v>
       </c>
       <c r="D191" t="n">
-        <v>20205624242.5724</v>
+        <v>19872689610.03978</v>
       </c>
       <c r="E191" t="n">
-        <v>0.01364869770276043</v>
+        <v>0.01373256888793553</v>
+      </c>
+      <c r="F191" t="n">
+        <v>-1.647732475550745</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>44979</v>
+        <v>44980</v>
       </c>
       <c r="B192" t="n">
-        <v>0.3913842408172827</v>
+        <v>0.3953586519644792</v>
       </c>
       <c r="C192" t="n">
-        <v>1404135578.965351</v>
+        <v>1391639960.457505</v>
       </c>
       <c r="D192" t="n">
-        <v>19872689610.03978</v>
+        <v>20196054648.29725</v>
       </c>
       <c r="E192" t="n">
-        <v>0.01373256888793553</v>
+        <v>0.01276918454203017</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1.627183056761994</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>44980</v>
+        <v>44981</v>
       </c>
       <c r="B193" t="n">
-        <v>0.3953586519644792</v>
+        <v>0.3895723801262456</v>
       </c>
       <c r="C193" t="n">
-        <v>1391639960.457505</v>
+        <v>1131967738.407395</v>
       </c>
       <c r="D193" t="n">
-        <v>20196054648.29725</v>
+        <v>19815369081.45072</v>
       </c>
       <c r="E193" t="n">
-        <v>0.01276918454203017</v>
+        <v>0.01272638080824224</v>
+      </c>
+      <c r="F193" t="n">
+        <v>-1.88495017208038</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>44981</v>
+        <v>44982</v>
       </c>
       <c r="B194" t="n">
-        <v>0.3895723801262456</v>
+        <v>0.3790953257370455</v>
       </c>
       <c r="C194" t="n">
-        <v>1131967738.407395</v>
+        <v>1058056427.874496</v>
       </c>
       <c r="D194" t="n">
-        <v>19815369081.45072</v>
+        <v>19325068033.96813</v>
       </c>
       <c r="E194" t="n">
-        <v>0.01272638080824224</v>
+        <v>0.01256366131461995</v>
+      </c>
+      <c r="F194" t="n">
+        <v>-2.474347288043011</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>44982</v>
+        <v>44983</v>
       </c>
       <c r="B195" t="n">
-        <v>0.3790953257370455</v>
+        <v>0.378689319605292</v>
       </c>
       <c r="C195" t="n">
-        <v>1058056427.874496</v>
+        <v>647196607.9575866</v>
       </c>
       <c r="D195" t="n">
-        <v>19325068033.96813</v>
+        <v>19283599327.0332</v>
       </c>
       <c r="E195" t="n">
-        <v>0.01256366131461995</v>
+        <v>0.01267589269429546</v>
+      </c>
+      <c r="F195" t="n">
+        <v>-0.2145850501640401</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>44983</v>
+        <v>44984</v>
       </c>
       <c r="B196" t="n">
-        <v>0.378689319605292</v>
+        <v>0.3780094713017035</v>
       </c>
       <c r="C196" t="n">
-        <v>647196607.9575866</v>
+        <v>540159353.6332139</v>
       </c>
       <c r="D196" t="n">
-        <v>19283599327.0332</v>
+        <v>19267086787.79969</v>
       </c>
       <c r="E196" t="n">
-        <v>0.01267589269429546</v>
+        <v>0.0125799120119811</v>
+      </c>
+      <c r="F196" t="n">
+        <v>-0.08562996437270209</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B197" t="n">
-        <v>0.3780094713017035</v>
+        <v>0.3793366092044523</v>
       </c>
       <c r="C197" t="n">
-        <v>540159353.6332139</v>
+        <v>1153758555.877414</v>
       </c>
       <c r="D197" t="n">
-        <v>19267086787.79969</v>
+        <v>19332749632.95152</v>
       </c>
       <c r="E197" t="n">
-        <v>0.0125799120119811</v>
+        <v>0.01253135181265055</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0.3408031835586245</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>44985</v>
+        <v>44986</v>
       </c>
       <c r="B198" t="n">
-        <v>0.3793366092044523</v>
+        <v>0.3784078089404583</v>
       </c>
       <c r="C198" t="n">
-        <v>1153758555.877414</v>
+        <v>1097670874.098415</v>
       </c>
       <c r="D198" t="n">
-        <v>19332749632.95152</v>
+        <v>19254765044.4153</v>
       </c>
       <c r="E198" t="n">
-        <v>0.01253135181265055</v>
+        <v>0.0121345742226655</v>
+      </c>
+      <c r="F198" t="n">
+        <v>-0.403380740023096</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>44986</v>
+        <v>44987</v>
       </c>
       <c r="B199" t="n">
-        <v>0.3784078089404583</v>
+        <v>0.3842122173302225</v>
       </c>
       <c r="C199" t="n">
-        <v>1097670874.098415</v>
+        <v>1016609362.857389</v>
       </c>
       <c r="D199" t="n">
-        <v>19254765044.4153</v>
+        <v>19594492700.91234</v>
       </c>
       <c r="E199" t="n">
-        <v>0.0121345742226655</v>
+        <v>0.0121938142511705</v>
+      </c>
+      <c r="F199" t="n">
+        <v>1.764382248827157</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>44987</v>
+        <v>44988</v>
       </c>
       <c r="B200" t="n">
-        <v>0.3842122173302225</v>
+        <v>0.3778275916753732</v>
       </c>
       <c r="C200" t="n">
-        <v>1016609362.857389</v>
+        <v>909585578.1475348</v>
       </c>
       <c r="D200" t="n">
-        <v>19594492700.91234</v>
+        <v>19261288580.63014</v>
       </c>
       <c r="E200" t="n">
-        <v>0.0121938142511705</v>
+        <v>0.01208519091477901</v>
+      </c>
+      <c r="F200" t="n">
+        <v>-1.700498835913666</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>44988</v>
+        <v>44989</v>
       </c>
       <c r="B201" t="n">
-        <v>0.3778275916753732</v>
+        <v>0.3797725783925803</v>
       </c>
       <c r="C201" t="n">
-        <v>909585578.1475348</v>
+        <v>1366537887.095314</v>
       </c>
       <c r="D201" t="n">
-        <v>19261288580.63014</v>
+        <v>19357672478.1105</v>
       </c>
       <c r="E201" t="n">
-        <v>0.01208519091477901</v>
+        <v>0.01135367785038317</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0.5004021256256319</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>44989</v>
+        <v>44990</v>
       </c>
       <c r="B202" t="n">
-        <v>0.3797725783925803</v>
+        <v>0.375482520911302</v>
       </c>
       <c r="C202" t="n">
-        <v>1366537887.095314</v>
+        <v>593218721.5744294</v>
       </c>
       <c r="D202" t="n">
-        <v>19357672478.1105</v>
+        <v>19125093149.85882</v>
       </c>
       <c r="E202" t="n">
-        <v>0.01135367785038317</v>
+        <v>0.01087700719789283</v>
+      </c>
+      <c r="F202" t="n">
+        <v>-1.201483951723437</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>44990</v>
+        <v>44991</v>
       </c>
       <c r="B203" t="n">
-        <v>0.375482520911302</v>
+        <v>0.368702052339315</v>
       </c>
       <c r="C203" t="n">
-        <v>593218721.5744294</v>
+        <v>531679793.84649</v>
       </c>
       <c r="D203" t="n">
-        <v>19125093149.85882</v>
+        <v>18772296579.30465</v>
       </c>
       <c r="E203" t="n">
-        <v>0.01087700719789283</v>
+        <v>0.01047683993556311</v>
+      </c>
+      <c r="F203" t="n">
+        <v>-1.844678965951996</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>44991</v>
+        <v>44992</v>
       </c>
       <c r="B204" t="n">
-        <v>0.368702052339315</v>
+        <v>0.370949886784883</v>
       </c>
       <c r="C204" t="n">
-        <v>531679793.84649</v>
+        <v>1262642327.175203</v>
       </c>
       <c r="D204" t="n">
-        <v>18772296579.30465</v>
+        <v>18870930797.40738</v>
       </c>
       <c r="E204" t="n">
-        <v>0.01047683993556311</v>
+        <v>0.00974140204507425</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0.5254243543726389</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>44992</v>
+        <v>44993</v>
       </c>
       <c r="B205" t="n">
-        <v>0.370949886784883</v>
+        <v>0.3809194177115544</v>
       </c>
       <c r="C205" t="n">
-        <v>1262642327.175203</v>
+        <v>1602133801.994629</v>
       </c>
       <c r="D205" t="n">
-        <v>18870930797.40738</v>
+        <v>19403006996.61596</v>
       </c>
       <c r="E205" t="n">
-        <v>0.00974140204507425</v>
+        <v>0.009396639589581637</v>
+      </c>
+      <c r="F205" t="n">
+        <v>2.819554609790043</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>44993</v>
+        <v>44994</v>
       </c>
       <c r="B206" t="n">
-        <v>0.3809194177115544</v>
+        <v>0.3895455769251921</v>
       </c>
       <c r="C206" t="n">
-        <v>1602133801.994629</v>
+        <v>2057330076.440078</v>
       </c>
       <c r="D206" t="n">
-        <v>19403006996.61596</v>
+        <v>19902227509.41309</v>
       </c>
       <c r="E206" t="n">
-        <v>0.009396639589581637</v>
+        <v>0.009291745575485668</v>
+      </c>
+      <c r="F206" t="n">
+        <v>2.572902812869127</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>44994</v>
+        <v>44995</v>
       </c>
       <c r="B207" t="n">
-        <v>0.3895455769251921</v>
+        <v>0.373153463761464</v>
       </c>
       <c r="C207" t="n">
-        <v>2057330076.440078</v>
+        <v>1880109254.40765</v>
       </c>
       <c r="D207" t="n">
-        <v>19902227509.41309</v>
+        <v>19038584759.28343</v>
       </c>
       <c r="E207" t="n">
-        <v>0.009291745575485668</v>
+        <v>0.008720937395996668</v>
+      </c>
+      <c r="F207" t="n">
+        <v>-4.33942758277277</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>44995</v>
+        <v>44996</v>
       </c>
       <c r="B208" t="n">
-        <v>0.373153463761464</v>
+        <v>0.3719842680149645</v>
       </c>
       <c r="C208" t="n">
-        <v>1880109254.40765</v>
+        <v>1600399582.466631</v>
       </c>
       <c r="D208" t="n">
-        <v>19038584759.28343</v>
+        <v>18960880522.27624</v>
       </c>
       <c r="E208" t="n">
-        <v>0.008720937395996668</v>
+        <v>0.008507980151777436</v>
+      </c>
+      <c r="F208" t="n">
+        <v>-0.4081408255374508</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>44996</v>
+        <v>44997</v>
       </c>
       <c r="B209" t="n">
-        <v>0.3719842680149645</v>
+        <v>0.3660374912479876</v>
       </c>
       <c r="C209" t="n">
-        <v>1600399582.466631</v>
+        <v>1134168277.578884</v>
       </c>
       <c r="D209" t="n">
-        <v>18960880522.27624</v>
+        <v>18618245861.40169</v>
       </c>
       <c r="E209" t="n">
-        <v>0.008507980151777436</v>
+        <v>0.009047110650004896</v>
+      </c>
+      <c r="F209" t="n">
+        <v>-1.807060914032999</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>44997</v>
+        <v>44998</v>
       </c>
       <c r="B210" t="n">
-        <v>0.3660374912479876</v>
+        <v>0.3724698526505245</v>
       </c>
       <c r="C210" t="n">
-        <v>1134168277.578884</v>
+        <v>1204499052.100208</v>
       </c>
       <c r="D210" t="n">
-        <v>18618245861.40169</v>
+        <v>18910866411.01387</v>
       </c>
       <c r="E210" t="n">
-        <v>0.009047110650004896</v>
+        <v>0.009220040837955076</v>
+      </c>
+      <c r="F210" t="n">
+        <v>1.57168699882102</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>44998</v>
+        <v>44999</v>
       </c>
       <c r="B211" t="n">
-        <v>0.3724698526505245</v>
+        <v>0.3741326627142878</v>
       </c>
       <c r="C211" t="n">
-        <v>1204499052.100208</v>
+        <v>1880603926.41351</v>
       </c>
       <c r="D211" t="n">
-        <v>18910866411.01387</v>
+        <v>19067422016.80757</v>
       </c>
       <c r="E211" t="n">
-        <v>0.009220040837955076</v>
+        <v>0.009305902302870666</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0.8278605664651772</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>44999</v>
+        <v>45000</v>
       </c>
       <c r="B212" t="n">
-        <v>0.3741326627142878</v>
+        <v>0.3748929729140572</v>
       </c>
       <c r="C212" t="n">
-        <v>1880603926.41351</v>
+        <v>1673162184.292314</v>
       </c>
       <c r="D212" t="n">
-        <v>19067422016.80757</v>
+        <v>19095493029.56411</v>
       </c>
       <c r="E212" t="n">
-        <v>0.009305902302870666</v>
+        <v>0.009332029969097714</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0.1472197590832947</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>45000</v>
+        <v>45001</v>
       </c>
       <c r="B213" t="n">
-        <v>0.3748929729140572</v>
+        <v>0.3620401175591995</v>
       </c>
       <c r="C213" t="n">
-        <v>1673162184.292314</v>
+        <v>1224433592.243678</v>
       </c>
       <c r="D213" t="n">
-        <v>19095493029.56411</v>
+        <v>18449948264.46785</v>
       </c>
       <c r="E213" t="n">
-        <v>0.009332029969097714</v>
+        <v>0.009848227741222515</v>
+      </c>
+      <c r="F213" t="n">
+        <v>-3.380613237358177</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="B214" t="n">
-        <v>0.3620401175591995</v>
+        <v>0.368342724275367</v>
       </c>
       <c r="C214" t="n">
-        <v>1224433592.243678</v>
+        <v>814391190.5999308</v>
       </c>
       <c r="D214" t="n">
-        <v>18449948264.46785</v>
+        <v>18785035463.22649</v>
       </c>
       <c r="E214" t="n">
-        <v>0.009848227741222515</v>
+        <v>0.0101147258755304</v>
+      </c>
+      <c r="F214" t="n">
+        <v>1.816195871963333</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>45002</v>
+        <v>45003</v>
       </c>
       <c r="B215" t="n">
-        <v>0.368342724275367</v>
+        <v>0.3809835123014356</v>
       </c>
       <c r="C215" t="n">
-        <v>814391190.5999308</v>
+        <v>1269614935.202442</v>
       </c>
       <c r="D215" t="n">
-        <v>18785035463.22649</v>
+        <v>19395225306.86912</v>
       </c>
       <c r="E215" t="n">
-        <v>0.0101147258755304</v>
+        <v>0.00933486124142816</v>
+      </c>
+      <c r="F215" t="n">
+        <v>3.248276240080239</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>45003</v>
+        <v>45004</v>
       </c>
       <c r="B216" t="n">
-        <v>0.3809835123014356</v>
+        <v>0.3764133710019362</v>
       </c>
       <c r="C216" t="n">
-        <v>1269614935.202442</v>
+        <v>1097398135.405194</v>
       </c>
       <c r="D216" t="n">
-        <v>19395225306.86912</v>
+        <v>19170540663.39767</v>
       </c>
       <c r="E216" t="n">
-        <v>0.00933486124142816</v>
+        <v>0.009264605230122134</v>
+      </c>
+      <c r="F216" t="n">
+        <v>-1.158453381780922</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>45004</v>
+        <v>45005</v>
       </c>
       <c r="B217" t="n">
-        <v>0.3764133710019362</v>
+        <v>0.3892865842417711</v>
       </c>
       <c r="C217" t="n">
-        <v>1097398135.405194</v>
+        <v>1440416397.35073</v>
       </c>
       <c r="D217" t="n">
-        <v>19170540663.39767</v>
+        <v>19979252277.27556</v>
       </c>
       <c r="E217" t="n">
-        <v>0.009264605230122134</v>
+        <v>0.008975044227324674</v>
+      </c>
+      <c r="F217" t="n">
+        <v>4.2185122896506</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>45005</v>
+        <v>45006</v>
       </c>
       <c r="B218" t="n">
-        <v>0.3892865842417711</v>
+        <v>0.3772352416274596</v>
       </c>
       <c r="C218" t="n">
-        <v>1440416397.35073</v>
+        <v>1313128522.97146</v>
       </c>
       <c r="D218" t="n">
-        <v>19979252277.27556</v>
+        <v>19226276544.65038</v>
       </c>
       <c r="E218" t="n">
-        <v>0.008975044227324674</v>
+        <v>0.008528121411984229</v>
+      </c>
+      <c r="F218" t="n">
+        <v>-3.768788351912566</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>45006</v>
+        <v>45007</v>
       </c>
       <c r="B219" t="n">
-        <v>0.3772352416274596</v>
+        <v>0.470749191774915</v>
       </c>
       <c r="C219" t="n">
-        <v>1313128522.97146</v>
+        <v>4548747517.178309</v>
       </c>
       <c r="D219" t="n">
-        <v>19226276544.65038</v>
+        <v>23963597176.99438</v>
       </c>
       <c r="E219" t="n">
-        <v>0.008528121411984229</v>
+        <v>0.01880558435147256</v>
+      </c>
+      <c r="F219" t="n">
+        <v>24.63982363585704</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>45007</v>
+        <v>45008</v>
       </c>
       <c r="B220" t="n">
-        <v>0.470749191774915</v>
+        <v>0.4252184081267417</v>
       </c>
       <c r="C220" t="n">
-        <v>4548747517.178309</v>
+        <v>4517426407.711967</v>
       </c>
       <c r="D220" t="n">
-        <v>23963597176.99438</v>
+        <v>21687465409.82775</v>
       </c>
       <c r="E220" t="n">
-        <v>0.01880558435147256</v>
+        <v>0.0202281555850568</v>
+      </c>
+      <c r="F220" t="n">
+        <v>-9.498289219081723</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>45008</v>
+        <v>45009</v>
       </c>
       <c r="B221" t="n">
-        <v>0.4252184081267417</v>
+        <v>0.4482196537624507</v>
       </c>
       <c r="C221" t="n">
-        <v>4517426407.711967</v>
+        <v>2294537469.642993</v>
       </c>
       <c r="D221" t="n">
-        <v>21687465409.82775</v>
+        <v>22838007729.7023</v>
       </c>
       <c r="E221" t="n">
-        <v>0.0202281555850568</v>
+        <v>0.02347332596816951</v>
+      </c>
+      <c r="F221" t="n">
+        <v>5.305102731613731</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>45009</v>
+        <v>45010</v>
       </c>
       <c r="B222" t="n">
-        <v>0.4482196537624507</v>
+        <v>0.4268002965976375</v>
       </c>
       <c r="C222" t="n">
-        <v>2294537469.642993</v>
+        <v>1705300121.755292</v>
       </c>
       <c r="D222" t="n">
-        <v>22838007729.7023</v>
+        <v>21860547088.83664</v>
       </c>
       <c r="E222" t="n">
-        <v>0.02347332596816951</v>
+        <v>0.02464442871105775</v>
+      </c>
+      <c r="F222" t="n">
+        <v>-4.279973334076804</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>45010</v>
+        <v>45011</v>
       </c>
       <c r="B223" t="n">
-        <v>0.4268002965976375</v>
+        <v>0.4490301632968959</v>
       </c>
       <c r="C223" t="n">
-        <v>1705300121.755292</v>
+        <v>2226693785.736741</v>
       </c>
       <c r="D223" t="n">
-        <v>21860547088.83664</v>
+        <v>22901966241.34404</v>
       </c>
       <c r="E223" t="n">
-        <v>0.02464442871105775</v>
+        <v>0.0272288767692152</v>
+      </c>
+      <c r="F223" t="n">
+        <v>4.763920812572953</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>45011</v>
+        <v>45012</v>
       </c>
       <c r="B224" t="n">
-        <v>0.4490301632968959</v>
+        <v>0.4507982030258973</v>
       </c>
       <c r="C224" t="n">
-        <v>2226693785.736741</v>
+        <v>1450602336.838315</v>
       </c>
       <c r="D224" t="n">
-        <v>22901966241.34404</v>
+        <v>23017901905.08662</v>
       </c>
       <c r="E224" t="n">
-        <v>0.0272288767692152</v>
+        <v>0.02950834594176436</v>
+      </c>
+      <c r="F224" t="n">
+        <v>0.506225808390548</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>45012</v>
+        <v>45013</v>
       </c>
       <c r="B225" t="n">
-        <v>0.4507982030258973</v>
+        <v>0.4804892582556843</v>
       </c>
       <c r="C225" t="n">
-        <v>1450602336.838315</v>
+        <v>2674251774.633235</v>
       </c>
       <c r="D225" t="n">
-        <v>23017901905.08662</v>
+        <v>24887269626.43507</v>
       </c>
       <c r="E225" t="n">
-        <v>0.02950834594176436</v>
+        <v>0.0337173273041575</v>
+      </c>
+      <c r="F225" t="n">
+        <v>8.121364532079035</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>45013</v>
+        <v>45014</v>
       </c>
       <c r="B226" t="n">
-        <v>0.4804892582556843</v>
+        <v>0.5168128670875739</v>
       </c>
       <c r="C226" t="n">
-        <v>2674251774.633235</v>
+        <v>4020187191.545979</v>
       </c>
       <c r="D226" t="n">
-        <v>24887269626.43507</v>
+        <v>26697226442.28926</v>
       </c>
       <c r="E226" t="n">
-        <v>0.0337173273041575</v>
+        <v>0.04039703555214099</v>
+      </c>
+      <c r="F226" t="n">
+        <v>7.272621075040187</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>45014</v>
+        <v>45015</v>
       </c>
       <c r="B227" t="n">
-        <v>0.5168128670875739</v>
+        <v>0.5453960004474748</v>
       </c>
       <c r="C227" t="n">
-        <v>4020187191.545979</v>
+        <v>5031225482.463057</v>
       </c>
       <c r="D227" t="n">
-        <v>26697226442.28926</v>
+        <v>28206497479.00727</v>
       </c>
       <c r="E227" t="n">
-        <v>0.04039703555214099</v>
+        <v>0.04834539254004527</v>
+      </c>
+      <c r="F227" t="n">
+        <v>5.653287767478621</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>45015</v>
+        <v>45016</v>
       </c>
       <c r="B228" t="n">
-        <v>0.5453960004474748</v>
+        <v>0.5372314130180667</v>
       </c>
       <c r="C228" t="n">
-        <v>5031225482.463057</v>
+        <v>3170922798.84686</v>
       </c>
       <c r="D228" t="n">
-        <v>28206497479.00727</v>
+        <v>27787487718.72779</v>
       </c>
       <c r="E228" t="n">
-        <v>0.04834539254004527</v>
+        <v>0.05387752591989323</v>
+      </c>
+      <c r="F228" t="n">
+        <v>-1.485507942243902</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>45016</v>
+        <v>45017</v>
       </c>
       <c r="B229" t="n">
-        <v>0.5372314130180667</v>
+        <v>0.5389087176387467</v>
       </c>
       <c r="C229" t="n">
-        <v>3170922798.84686</v>
+        <v>2114260332.100285</v>
       </c>
       <c r="D229" t="n">
-        <v>27787487718.72779</v>
+        <v>27928271774.46026</v>
       </c>
       <c r="E229" t="n">
-        <v>0.05387752591989323</v>
+        <v>0.05863246600470964</v>
+      </c>
+      <c r="F229" t="n">
+        <v>0.5066454987133762</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>45017</v>
+        <v>45018</v>
       </c>
       <c r="B230" t="n">
-        <v>0.5389087176387467</v>
+        <v>0.5108643384082717</v>
       </c>
       <c r="C230" t="n">
-        <v>2114260332.100285</v>
+        <v>1966596473.942674</v>
       </c>
       <c r="D230" t="n">
-        <v>27928271774.46026</v>
+        <v>26419768893.369</v>
       </c>
       <c r="E230" t="n">
-        <v>0.05863246600470964</v>
+        <v>0.06079390181795506</v>
+      </c>
+      <c r="F230" t="n">
+        <v>-5.401347040996473</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>45018</v>
+        <v>45019</v>
       </c>
       <c r="B231" t="n">
-        <v>0.5108643384082717</v>
+        <v>0.5206392045697563</v>
       </c>
       <c r="C231" t="n">
-        <v>1966596473.942674</v>
+        <v>1622515475.015703</v>
       </c>
       <c r="D231" t="n">
-        <v>26419768893.369</v>
+        <v>26865238853.58927</v>
       </c>
       <c r="E231" t="n">
-        <v>0.06079390181795506</v>
+        <v>0.06310152851007887</v>
+      </c>
+      <c r="F231" t="n">
+        <v>1.686123606978551</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>45019</v>
+        <v>45020</v>
       </c>
       <c r="B232" t="n">
-        <v>0.5206392045697563</v>
+        <v>0.497623149781166</v>
       </c>
       <c r="C232" t="n">
-        <v>1622515475.015703</v>
+        <v>1874356756.545465</v>
       </c>
       <c r="D232" t="n">
-        <v>26865238853.58927</v>
+        <v>25757164808.74974</v>
       </c>
       <c r="E232" t="n">
-        <v>0.06310152851007887</v>
+        <v>0.06385742262722328</v>
+      </c>
+      <c r="F232" t="n">
+        <v>-4.124564277571952</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>45020</v>
+        <v>45021</v>
       </c>
       <c r="B233" t="n">
-        <v>0.497623149781166</v>
+        <v>0.5042085209801936</v>
       </c>
       <c r="C233" t="n">
-        <v>1874356756.545465</v>
+        <v>1359219753.569949</v>
       </c>
       <c r="D233" t="n">
-        <v>25757164808.74974</v>
+        <v>26035551812.61459</v>
       </c>
       <c r="E233" t="n">
-        <v>0.06385742262722328</v>
+        <v>0.06436768084903985</v>
+      </c>
+      <c r="F233" t="n">
+        <v>1.080813847067041</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>45021</v>
+        <v>45022</v>
       </c>
       <c r="B234" t="n">
-        <v>0.5042085209801936</v>
+        <v>0.5064892991443272</v>
       </c>
       <c r="C234" t="n">
-        <v>1359219753.569949</v>
+        <v>1542944161.916251</v>
       </c>
       <c r="D234" t="n">
-        <v>26035551812.61459</v>
+        <v>26178153840.81308</v>
       </c>
       <c r="E234" t="n">
-        <v>0.06436768084903985</v>
+        <v>0.06471152114138115</v>
+      </c>
+      <c r="F234" t="n">
+        <v>0.547720398725704</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>45022</v>
+        <v>45023</v>
       </c>
       <c r="B235" t="n">
-        <v>0.5064892991443272</v>
+        <v>0.5033907322034521</v>
       </c>
       <c r="C235" t="n">
-        <v>1542944161.916251</v>
+        <v>1224093379.529938</v>
       </c>
       <c r="D235" t="n">
-        <v>26178153840.81308</v>
+        <v>26032005022.91688</v>
       </c>
       <c r="E235" t="n">
-        <v>0.06471152114138115</v>
+        <v>0.06496445905161227</v>
+      </c>
+      <c r="F235" t="n">
+        <v>-0.5582854267910498</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>45023</v>
+        <v>45024</v>
       </c>
       <c r="B236" t="n">
-        <v>0.5033907322034521</v>
+        <v>0.5141886150364228</v>
       </c>
       <c r="C236" t="n">
-        <v>1224093379.529938</v>
+        <v>1226161820.914067</v>
       </c>
       <c r="D236" t="n">
-        <v>26032005022.91688</v>
+        <v>26596750375.13526</v>
       </c>
       <c r="E236" t="n">
-        <v>0.06496445905161227</v>
+        <v>0.06558844578633173</v>
+      </c>
+      <c r="F236" t="n">
+        <v>2.169427025391313</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>45024</v>
+        <v>45025</v>
       </c>
       <c r="B237" t="n">
-        <v>0.5141886150364228</v>
+        <v>0.506259243519927</v>
       </c>
       <c r="C237" t="n">
-        <v>1226161820.914067</v>
+        <v>752220124.0481863</v>
       </c>
       <c r="D237" t="n">
-        <v>26596750375.13526</v>
+        <v>26189001074.26402</v>
       </c>
       <c r="E237" t="n">
-        <v>0.06558844578633173</v>
+        <v>0.06509817296850515</v>
+      </c>
+      <c r="F237" t="n">
+        <v>-1.533079399250337</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>45025</v>
+        <v>45026</v>
       </c>
       <c r="B238" t="n">
-        <v>0.506259243519927</v>
+        <v>0.5059049357511278</v>
       </c>
       <c r="C238" t="n">
-        <v>752220124.0481863</v>
+        <v>706849513.0381583</v>
       </c>
       <c r="D238" t="n">
-        <v>26189001074.26402</v>
+        <v>26153157422.11329</v>
       </c>
       <c r="E238" t="n">
-        <v>0.06509817296850515</v>
+        <v>0.06422747417745542</v>
+      </c>
+      <c r="F238" t="n">
+        <v>-0.136865289550725</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>45026</v>
+        <v>45027</v>
       </c>
       <c r="B239" t="n">
-        <v>0.5059049357511278</v>
+        <v>0.5182365433645599</v>
       </c>
       <c r="C239" t="n">
-        <v>706849513.0381583</v>
+        <v>1057662396.406325</v>
       </c>
       <c r="D239" t="n">
-        <v>26153157422.11329</v>
+        <v>26808568246.60892</v>
       </c>
       <c r="E239" t="n">
-        <v>0.06422747417745542</v>
+        <v>0.06309239893475337</v>
+      </c>
+      <c r="F239" t="n">
+        <v>2.506048558180818</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>45027</v>
+        <v>45028</v>
       </c>
       <c r="B240" t="n">
-        <v>0.5182365433645599</v>
+        <v>0.5174873118520239</v>
       </c>
       <c r="C240" t="n">
-        <v>1057662396.406325</v>
+        <v>1328973143.765817</v>
       </c>
       <c r="D240" t="n">
-        <v>26808568246.60892</v>
+        <v>26750764716.68435</v>
       </c>
       <c r="E240" t="n">
-        <v>0.06309239893475337</v>
+        <v>0.06182094572103389</v>
+      </c>
+      <c r="F240" t="n">
+        <v>-0.2156158784491824</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>45028</v>
+        <v>45029</v>
       </c>
       <c r="B241" t="n">
-        <v>0.5174873118520239</v>
+        <v>0.5054749022427573</v>
       </c>
       <c r="C241" t="n">
-        <v>1328973143.765817</v>
+        <v>1295350693.457841</v>
       </c>
       <c r="D241" t="n">
-        <v>26750764716.68435</v>
+        <v>26177625993.75378</v>
       </c>
       <c r="E241" t="n">
-        <v>0.06182094572103389</v>
+        <v>0.05991151414020006</v>
+      </c>
+      <c r="F241" t="n">
+        <v>-2.142513415973879</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>45029</v>
+        <v>45030</v>
       </c>
       <c r="B242" t="n">
-        <v>0.5054749022427573</v>
+        <v>0.5139001277815082</v>
       </c>
       <c r="C242" t="n">
-        <v>1295350693.457841</v>
+        <v>1078337862.053535</v>
       </c>
       <c r="D242" t="n">
-        <v>26177625993.75378</v>
+        <v>26594690668.57412</v>
       </c>
       <c r="E242" t="n">
-        <v>0.05991151414020006</v>
+        <v>0.05782921782164616</v>
+      </c>
+      <c r="F242" t="n">
+        <v>1.593210457357208</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>45030</v>
+        <v>45031</v>
       </c>
       <c r="B243" t="n">
-        <v>0.5139001277815082</v>
+        <v>0.5237427710723968</v>
       </c>
       <c r="C243" t="n">
-        <v>1078337862.053535</v>
+        <v>1686463892.485568</v>
       </c>
       <c r="D243" t="n">
-        <v>26594690668.57412</v>
+        <v>27098938485.67568</v>
       </c>
       <c r="E243" t="n">
-        <v>0.05782921782164616</v>
+        <v>0.0546474367353945</v>
+      </c>
+      <c r="F243" t="n">
+        <v>1.896046934275519</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>45031</v>
+        <v>45032</v>
       </c>
       <c r="B244" t="n">
-        <v>0.5237427710723968</v>
+        <v>0.5208058339366209</v>
       </c>
       <c r="C244" t="n">
-        <v>1686463892.485568</v>
+        <v>809065912.6958668</v>
       </c>
       <c r="D244" t="n">
-        <v>27098938485.67568</v>
+        <v>26973876116.81294</v>
       </c>
       <c r="E244" t="n">
-        <v>0.0546474367353945</v>
+        <v>0.05110336095219245</v>
+      </c>
+      <c r="F244" t="n">
+        <v>-0.4615028331417692</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>45032</v>
+        <v>45033</v>
       </c>
       <c r="B245" t="n">
-        <v>0.5208058339366209</v>
+        <v>0.5211750000486894</v>
       </c>
       <c r="C245" t="n">
-        <v>809065912.6958668</v>
+        <v>627790567.7404886</v>
       </c>
       <c r="D245" t="n">
-        <v>26973876116.81294</v>
+        <v>26957282986.18318</v>
       </c>
       <c r="E245" t="n">
-        <v>0.05110336095219245</v>
+        <v>0.04777724780530056</v>
+      </c>
+      <c r="F245" t="n">
+        <v>-0.06151555882403237</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>45033</v>
+        <v>45034</v>
       </c>
       <c r="B246" t="n">
-        <v>0.5211750000486894</v>
+        <v>0.5114244601565719</v>
       </c>
       <c r="C246" t="n">
-        <v>627790567.7404886</v>
+        <v>1050565458.321104</v>
       </c>
       <c r="D246" t="n">
-        <v>26957282986.18318</v>
+        <v>26426624699.02518</v>
       </c>
       <c r="E246" t="n">
-        <v>0.04777724780530056</v>
+        <v>0.04308772929965442</v>
+      </c>
+      <c r="F246" t="n">
+        <v>-1.96851547476049</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>45034</v>
+        <v>45035</v>
       </c>
       <c r="B247" t="n">
-        <v>0.5114244601565719</v>
+        <v>0.5313738900166128</v>
       </c>
       <c r="C247" t="n">
-        <v>1050565458.321104</v>
+        <v>1197384612.390829</v>
       </c>
       <c r="D247" t="n">
-        <v>26426624699.02518</v>
+        <v>27473961872.44431</v>
       </c>
       <c r="E247" t="n">
-        <v>0.04308772929965442</v>
+        <v>0.03903417943426685</v>
+      </c>
+      <c r="F247" t="n">
+        <v>3.963189341610307</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>45035</v>
+        <v>45036</v>
       </c>
       <c r="B248" t="n">
-        <v>0.5313738900166128</v>
+        <v>0.4909402891778075</v>
       </c>
       <c r="C248" t="n">
-        <v>1197384612.390829</v>
+        <v>2206782404.105177</v>
       </c>
       <c r="D248" t="n">
-        <v>27473961872.44431</v>
+        <v>25418640034.33746</v>
       </c>
       <c r="E248" t="n">
-        <v>0.03903417943426685</v>
+        <v>0.03190704122441823</v>
+      </c>
+      <c r="F248" t="n">
+        <v>-7.480980892560263</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>45036</v>
+        <v>45037</v>
       </c>
       <c r="B249" t="n">
-        <v>0.4909402891778075</v>
+        <v>0.4746185573837571</v>
       </c>
       <c r="C249" t="n">
-        <v>2206782404.105177</v>
+        <v>1557750802.69273</v>
       </c>
       <c r="D249" t="n">
-        <v>25418640034.33746</v>
+        <v>24546014136.65708</v>
       </c>
       <c r="E249" t="n">
-        <v>0.03190704122441823</v>
+        <v>0.03179040864518358</v>
+      </c>
+      <c r="F249" t="n">
+        <v>-3.433015678657736</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>45037</v>
+        <v>45038</v>
       </c>
       <c r="B250" t="n">
-        <v>0.4746185573837571</v>
+        <v>0.4497783659822294</v>
       </c>
       <c r="C250" t="n">
-        <v>1557750802.69273</v>
+        <v>1488791192.38869</v>
       </c>
       <c r="D250" t="n">
-        <v>24546014136.65708</v>
+        <v>23247077610.6119</v>
       </c>
       <c r="E250" t="n">
-        <v>0.03179040864518358</v>
+        <v>0.03005121416554142</v>
+      </c>
+      <c r="F250" t="n">
+        <v>-5.291842980344996</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>45038</v>
+        <v>45039</v>
       </c>
       <c r="B251" t="n">
-        <v>0.4497783659822294</v>
+        <v>0.4740167004581426</v>
       </c>
       <c r="C251" t="n">
-        <v>1488791192.38869</v>
+        <v>962045940.8242793</v>
       </c>
       <c r="D251" t="n">
-        <v>23247077610.6119</v>
+        <v>24522972208.70548</v>
       </c>
       <c r="E251" t="n">
-        <v>0.03005121416554142</v>
+        <v>0.02882069175045119</v>
+      </c>
+      <c r="F251" t="n">
+        <v>5.48840856242141</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>45039</v>
+        <v>45040</v>
       </c>
       <c r="B252" t="n">
-        <v>0.4740167004581426</v>
+        <v>0.4653741615519668</v>
       </c>
       <c r="C252" t="n">
-        <v>962045940.8242793</v>
+        <v>764793255.6385686</v>
       </c>
       <c r="D252" t="n">
-        <v>24522972208.70548</v>
+        <v>24043654913.47115</v>
       </c>
       <c r="E252" t="n">
-        <v>0.02882069175045119</v>
+        <v>0.02606662336814643</v>
+      </c>
+      <c r="F252" t="n">
+        <v>-1.954564443310725</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>45040</v>
+        <v>45041</v>
       </c>
       <c r="B253" t="n">
-        <v>0.4653741615519668</v>
+        <v>0.4613741823348922</v>
       </c>
       <c r="C253" t="n">
-        <v>764793255.6385686</v>
+        <v>1371506902.353954</v>
       </c>
       <c r="D253" t="n">
-        <v>24043654913.47115</v>
+        <v>23923037222.81683</v>
       </c>
       <c r="E253" t="n">
-        <v>0.02606662336814643</v>
+        <v>0.02526128005023247</v>
+      </c>
+      <c r="F253" t="n">
+        <v>-0.5016612120261943</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>45041</v>
+        <v>45042</v>
       </c>
       <c r="B254" t="n">
-        <v>0.4613741823348922</v>
+        <v>0.4701124118409249</v>
       </c>
       <c r="C254" t="n">
-        <v>1371506902.353954</v>
+        <v>1208296460.87979</v>
       </c>
       <c r="D254" t="n">
-        <v>23923037222.81683</v>
+        <v>24328714397.27629</v>
       </c>
       <c r="E254" t="n">
-        <v>0.02526128005023247</v>
+        <v>0.02407797639669241</v>
+      </c>
+      <c r="F254" t="n">
+        <v>1.695759491911586</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>45042</v>
+        <v>45043</v>
       </c>
       <c r="B255" t="n">
-        <v>0.4701124118409249</v>
+        <v>0.4617665683318512</v>
       </c>
       <c r="C255" t="n">
-        <v>1208296460.87979</v>
+        <v>1735110890.199413</v>
       </c>
       <c r="D255" t="n">
-        <v>24328714397.27629</v>
+        <v>23900530754.35566</v>
       </c>
       <c r="E255" t="n">
-        <v>0.02407797639669241</v>
+        <v>0.02495147819077047</v>
+      </c>
+      <c r="F255" t="n">
+        <v>-1.759992887123396</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="B256" t="n">
-        <v>0.4617665683318512</v>
+        <v>0.4671236174313539</v>
       </c>
       <c r="C256" t="n">
-        <v>1735110890.199413</v>
+        <v>1709074269.721798</v>
       </c>
       <c r="D256" t="n">
-        <v>23900530754.35566</v>
+        <v>24162104799.03539</v>
       </c>
       <c r="E256" t="n">
-        <v>0.02495147819077047</v>
+        <v>0.02570825439466569</v>
+      </c>
+      <c r="F256" t="n">
+        <v>1.094427765509165</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>45044</v>
+        <v>45045</v>
       </c>
       <c r="B257" t="n">
-        <v>0.4671236174313539</v>
+        <v>0.4801827318953045</v>
       </c>
       <c r="C257" t="n">
-        <v>1709074269.721798</v>
+        <v>1253720406.872157</v>
       </c>
       <c r="D257" t="n">
-        <v>24162104799.03539</v>
+        <v>24835475834.1362</v>
       </c>
       <c r="E257" t="n">
-        <v>0.02570825439466569</v>
+        <v>0.02467741752814831</v>
+      </c>
+      <c r="F257" t="n">
+        <v>2.786888976359747</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>45045</v>
+        <v>45046</v>
       </c>
       <c r="B258" t="n">
-        <v>0.4801827318953045</v>
+        <v>0.4777594384562189</v>
       </c>
       <c r="C258" t="n">
-        <v>1253720406.872157</v>
+        <v>630278066.5984057</v>
       </c>
       <c r="D258" t="n">
-        <v>24835475834.1362</v>
+        <v>24729043163.78943</v>
       </c>
       <c r="E258" t="n">
-        <v>0.02467741752814831</v>
+        <v>0.023974946899385</v>
+      </c>
+      <c r="F258" t="n">
+        <v>-0.4285509609623706</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>45046</v>
+        <v>45047</v>
       </c>
       <c r="B259" t="n">
-        <v>0.4777594384562189</v>
+        <v>0.4730668236845426</v>
       </c>
       <c r="C259" t="n">
-        <v>630278066.5984057</v>
+        <v>538719110.4492048</v>
       </c>
       <c r="D259" t="n">
-        <v>24729043163.78943</v>
+        <v>24497798435.85786</v>
       </c>
       <c r="E259" t="n">
-        <v>0.023974946899385</v>
+        <v>0.02311542352215435</v>
+      </c>
+      <c r="F259" t="n">
+        <v>-0.9351139322292035</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>45047</v>
+        <v>45048</v>
       </c>
       <c r="B260" t="n">
-        <v>0.4730668236845426</v>
+        <v>0.4652310090567144</v>
       </c>
       <c r="C260" t="n">
-        <v>538719110.4492048</v>
+        <v>1011865604.860965</v>
       </c>
       <c r="D260" t="n">
-        <v>24497798435.85786</v>
+        <v>24061056587.0365</v>
       </c>
       <c r="E260" t="n">
-        <v>0.02311542352215435</v>
+        <v>0.02359837002535856</v>
+      </c>
+      <c r="F260" t="n">
+        <v>-1.782779991291372</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>45048</v>
+        <v>45049</v>
       </c>
       <c r="B261" t="n">
-        <v>0.4652310090567144</v>
+        <v>0.465035475655163</v>
       </c>
       <c r="C261" t="n">
-        <v>1011865604.860965</v>
+        <v>969292690.3818562</v>
       </c>
       <c r="D261" t="n">
-        <v>24061056587.0365</v>
+        <v>24075470304.74457</v>
       </c>
       <c r="E261" t="n">
-        <v>0.02359837002535856</v>
+        <v>0.02365449404444037</v>
+      </c>
+      <c r="F261" t="n">
+        <v>0.05990475794748207</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>45049</v>
+        <v>45050</v>
       </c>
       <c r="B262" t="n">
-        <v>0.465035475655163</v>
+        <v>0.4633651736726446</v>
       </c>
       <c r="C262" t="n">
-        <v>969292690.3818562</v>
+        <v>1102846442.044967</v>
       </c>
       <c r="D262" t="n">
-        <v>24075470304.74457</v>
+        <v>23972787437.63871</v>
       </c>
       <c r="E262" t="n">
-        <v>0.02365449404444037</v>
+        <v>0.02422380582250632</v>
+      </c>
+      <c r="F262" t="n">
+        <v>-0.4265040965186317</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>45050</v>
+        <v>45051</v>
       </c>
       <c r="B263" t="n">
-        <v>0.4633651736726446</v>
+        <v>0.4623041483156036</v>
       </c>
       <c r="C263" t="n">
-        <v>1102846442.044967</v>
+        <v>754621495.3331013</v>
       </c>
       <c r="D263" t="n">
-        <v>23972787437.63871</v>
+        <v>23925163522.40899</v>
       </c>
       <c r="E263" t="n">
-        <v>0.02422380582250632</v>
+        <v>0.02466745596757502</v>
+      </c>
+      <c r="F263" t="n">
+        <v>-0.1986582301019779</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>45051</v>
+        <v>45052</v>
       </c>
       <c r="B264" t="n">
-        <v>0.4623041483156036</v>
+        <v>0.4678262625193613</v>
       </c>
       <c r="C264" t="n">
-        <v>754621495.3331013</v>
+        <v>977081363.4144815</v>
       </c>
       <c r="D264" t="n">
-        <v>23925163522.40899</v>
+        <v>24242740787.30804</v>
       </c>
       <c r="E264" t="n">
-        <v>0.02466745596757502</v>
+        <v>0.02478937062247598</v>
+      </c>
+      <c r="F264" t="n">
+        <v>1.327377614792935</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>45052</v>
+        <v>45053</v>
       </c>
       <c r="B265" t="n">
-        <v>0.4678262625193613</v>
+        <v>0.4600646398831866</v>
       </c>
       <c r="C265" t="n">
-        <v>977081363.4144815</v>
+        <v>652294979.7361903</v>
       </c>
       <c r="D265" t="n">
-        <v>24242740787.30804</v>
+        <v>23817157947.00623</v>
       </c>
       <c r="E265" t="n">
-        <v>0.02478937062247598</v>
+        <v>0.0251676717872897</v>
+      </c>
+      <c r="F265" t="n">
+        <v>-1.755506293762887</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>45053</v>
+        <v>45054</v>
       </c>
       <c r="B266" t="n">
-        <v>0.4600646398831866</v>
+        <v>0.4529586030531267</v>
       </c>
       <c r="C266" t="n">
-        <v>652294979.7361903</v>
+        <v>440022180.6111255</v>
       </c>
       <c r="D266" t="n">
-        <v>23817157947.00623</v>
+        <v>23508258509.09763</v>
       </c>
       <c r="E266" t="n">
-        <v>0.0251676717872897</v>
+        <v>0.02539619478251443</v>
+      </c>
+      <c r="F266" t="n">
+        <v>-1.29696178946247</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>45054</v>
+        <v>45055</v>
       </c>
       <c r="B267" t="n">
-        <v>0.4529586030531267</v>
+        <v>0.4296745042774418</v>
       </c>
       <c r="C267" t="n">
-        <v>440022180.6111255</v>
+        <v>1537388545.443165</v>
       </c>
       <c r="D267" t="n">
-        <v>23508258509.09763</v>
+        <v>22244894416.29692</v>
       </c>
       <c r="E267" t="n">
-        <v>0.02539619478251443</v>
+        <v>0.02701329212117602</v>
+      </c>
+      <c r="F267" t="n">
+        <v>-5.374128808017787</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>45055</v>
+        <v>45056</v>
       </c>
       <c r="B268" t="n">
-        <v>0.4296745042774418</v>
+        <v>0.430063469892419</v>
       </c>
       <c r="C268" t="n">
-        <v>1537388545.443165</v>
+        <v>1042751745.91793</v>
       </c>
       <c r="D268" t="n">
-        <v>22244894416.29692</v>
+        <v>22304188423.85518</v>
       </c>
       <c r="E268" t="n">
-        <v>0.02701329212117602</v>
+        <v>0.02828901565471488</v>
+      </c>
+      <c r="F268" t="n">
+        <v>0.2665510856046716</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>45056</v>
+        <v>45057</v>
       </c>
       <c r="B269" t="n">
-        <v>0.430063469892419</v>
+        <v>0.432245207178269</v>
       </c>
       <c r="C269" t="n">
-        <v>1042751745.91793</v>
+        <v>1182617804.244405</v>
       </c>
       <c r="D269" t="n">
-        <v>22304188423.85518</v>
+        <v>22424416872.48428</v>
       </c>
       <c r="E269" t="n">
-        <v>0.02828901565471488</v>
+        <v>0.02865710633679369</v>
+      </c>
+      <c r="F269" t="n">
+        <v>0.5390397818757497</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>45057</v>
+        <v>45058</v>
       </c>
       <c r="B270" t="n">
-        <v>0.432245207178269</v>
+        <v>0.4229559731087396</v>
       </c>
       <c r="C270" t="n">
-        <v>1182617804.244405</v>
+        <v>994189730.3843771</v>
       </c>
       <c r="D270" t="n">
-        <v>22424416872.48428</v>
+        <v>21920201048.04723</v>
       </c>
       <c r="E270" t="n">
-        <v>0.02865710633679369</v>
+        <v>0.02928105530608662</v>
+      </c>
+      <c r="F270" t="n">
+        <v>-2.248512535707237</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>45058</v>
+        <v>45059</v>
       </c>
       <c r="B271" t="n">
-        <v>0.4229559731087396</v>
+        <v>0.4316332273698814</v>
       </c>
       <c r="C271" t="n">
-        <v>994189730.3843771</v>
+        <v>1316061803.39857</v>
       </c>
       <c r="D271" t="n">
-        <v>21920201048.04723</v>
+        <v>22389881950.83387</v>
       </c>
       <c r="E271" t="n">
-        <v>0.02928105530608662</v>
+        <v>0.02966176004579679</v>
+      </c>
+      <c r="F271" t="n">
+        <v>2.142685195984928</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>45059</v>
+        <v>45060</v>
       </c>
       <c r="B272" t="n">
-        <v>0.4316332273698814</v>
+        <v>0.4255615051393777</v>
       </c>
       <c r="C272" t="n">
-        <v>1316061803.39857</v>
+        <v>401383427.9821559</v>
       </c>
       <c r="D272" t="n">
-        <v>22389881950.83387</v>
+        <v>22111880538.09539</v>
       </c>
       <c r="E272" t="n">
-        <v>0.02966176004579679</v>
+        <v>0.02971579704089778</v>
+      </c>
+      <c r="F272" t="n">
+        <v>-1.241638581877913</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>45060</v>
+        <v>45061</v>
       </c>
       <c r="B273" t="n">
-        <v>0.4255615051393777</v>
+        <v>0.4263508465954697</v>
       </c>
       <c r="C273" t="n">
-        <v>401383427.9821559</v>
+        <v>386393405.6176044</v>
       </c>
       <c r="D273" t="n">
-        <v>22111880538.09539</v>
+        <v>22099560865.68649</v>
       </c>
       <c r="E273" t="n">
-        <v>0.02971579704089778</v>
+        <v>0.02881091123387121</v>
+      </c>
+      <c r="F273" t="n">
+        <v>-0.055715172609061</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>45061</v>
+        <v>45062</v>
       </c>
       <c r="B274" t="n">
-        <v>0.4263508465954697</v>
+        <v>0.428405441169993</v>
       </c>
       <c r="C274" t="n">
-        <v>386393405.6176044</v>
+        <v>825806498.1413949</v>
       </c>
       <c r="D274" t="n">
-        <v>22099560865.68649</v>
+        <v>22182629326.12347</v>
       </c>
       <c r="E274" t="n">
-        <v>0.02881091123387121</v>
+        <v>0.02761298468861884</v>
+      </c>
+      <c r="F274" t="n">
+        <v>0.3758828555094462</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>45062</v>
+        <v>45063</v>
       </c>
       <c r="B275" t="n">
-        <v>0.428405441169993</v>
+        <v>0.4408099337346102</v>
       </c>
       <c r="C275" t="n">
-        <v>825806498.1413949</v>
+        <v>1063961406.815942</v>
       </c>
       <c r="D275" t="n">
-        <v>22182629326.12347</v>
+        <v>22818727048.2638</v>
       </c>
       <c r="E275" t="n">
-        <v>0.02761298468861884</v>
+        <v>0.02554078564083537</v>
+      </c>
+      <c r="F275" t="n">
+        <v>2.867548804916553</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>45063</v>
+        <v>45064</v>
       </c>
       <c r="B276" t="n">
-        <v>0.4408099337346102</v>
+        <v>0.4487326850226171</v>
       </c>
       <c r="C276" t="n">
-        <v>1063961406.815942</v>
+        <v>1641651715.463522</v>
       </c>
       <c r="D276" t="n">
-        <v>22818727048.2638</v>
+        <v>23256361575.19776</v>
       </c>
       <c r="E276" t="n">
-        <v>0.02554078564083537</v>
+        <v>0.02366540799716293</v>
+      </c>
+      <c r="F276" t="n">
+        <v>1.917874410821963</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>45064</v>
+        <v>45065</v>
       </c>
       <c r="B277" t="n">
-        <v>0.4487326850226171</v>
+        <v>0.4607641094436982</v>
       </c>
       <c r="C277" t="n">
-        <v>1641651715.463522</v>
+        <v>1511866848.49897</v>
       </c>
       <c r="D277" t="n">
-        <v>23256361575.19776</v>
+        <v>23918491004.36337</v>
       </c>
       <c r="E277" t="n">
-        <v>0.02366540799716293</v>
+        <v>0.01916845934433953</v>
+      </c>
+      <c r="F277" t="n">
+        <v>2.847089502907263</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>45065</v>
+        <v>45066</v>
       </c>
       <c r="B278" t="n">
-        <v>0.4607641094436982</v>
+        <v>0.4688768031244469</v>
       </c>
       <c r="C278" t="n">
-        <v>1511866848.49897</v>
+        <v>1203165079.372794</v>
       </c>
       <c r="D278" t="n">
-        <v>23918491004.36337</v>
+        <v>24327746704.90955</v>
       </c>
       <c r="E278" t="n">
-        <v>0.01916845934433953</v>
+        <v>0.01815161260455494</v>
+      </c>
+      <c r="F278" t="n">
+        <v>1.711043144283297</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>45066</v>
+        <v>45067</v>
       </c>
       <c r="B279" t="n">
-        <v>0.4688768031244469</v>
+        <v>0.4695940782186896</v>
       </c>
       <c r="C279" t="n">
-        <v>1203165079.372794</v>
+        <v>514027085.756053</v>
       </c>
       <c r="D279" t="n">
-        <v>24327746704.90955</v>
+        <v>24377025880.71992</v>
       </c>
       <c r="E279" t="n">
-        <v>0.01815161260455494</v>
+        <v>0.0179829414431203</v>
+      </c>
+      <c r="F279" t="n">
+        <v>0.2025636669442443</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>45067</v>
+        <v>45068</v>
       </c>
       <c r="B280" t="n">
-        <v>0.4695940782186896</v>
+        <v>0.4586412584498675</v>
       </c>
       <c r="C280" t="n">
-        <v>514027085.756053</v>
+        <v>577572180.6831025</v>
       </c>
       <c r="D280" t="n">
-        <v>24377025880.71992</v>
+        <v>23796873050.34155</v>
       </c>
       <c r="E280" t="n">
-        <v>0.0179829414431203</v>
+        <v>0.01797662665517635</v>
+      </c>
+      <c r="F280" t="n">
+        <v>-2.379916373790381</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>45068</v>
+        <v>45069</v>
       </c>
       <c r="B281" t="n">
-        <v>0.4586412584498675</v>
+        <v>0.4623516875950931</v>
       </c>
       <c r="C281" t="n">
-        <v>577572180.6831025</v>
+        <v>991756168.2991667</v>
       </c>
       <c r="D281" t="n">
-        <v>23796873050.34155</v>
+        <v>23977031841.92864</v>
       </c>
       <c r="E281" t="n">
-        <v>0.01797662665517635</v>
+        <v>0.01766856654414924</v>
+      </c>
+      <c r="F281" t="n">
+        <v>0.7570691796605855</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>45069</v>
+        <v>45070</v>
       </c>
       <c r="B282" t="n">
-        <v>0.4623516875950931</v>
+        <v>0.4660385198404762</v>
       </c>
       <c r="C282" t="n">
-        <v>991756168.2991667</v>
+        <v>888439002.3801645</v>
       </c>
       <c r="D282" t="n">
-        <v>23977031841.92864</v>
+        <v>24171255429.87479</v>
       </c>
       <c r="E282" t="n">
-        <v>0.01766856654414924</v>
+        <v>0.0176832832964786</v>
+      </c>
+      <c r="F282" t="n">
+        <v>0.810040163547332</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>45070</v>
+        <v>45071</v>
       </c>
       <c r="B283" t="n">
-        <v>0.4660385198404762</v>
+        <v>0.4543648673394695</v>
       </c>
       <c r="C283" t="n">
-        <v>888439002.3801645</v>
+        <v>1119381536.260876</v>
       </c>
       <c r="D283" t="n">
-        <v>24171255429.87479</v>
+        <v>23595882622.17748</v>
       </c>
       <c r="E283" t="n">
-        <v>0.0176832832964786</v>
+        <v>0.01763367975571294</v>
+      </c>
+      <c r="F283" t="n">
+        <v>-2.380401007165611</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>45071</v>
+        <v>45072</v>
       </c>
       <c r="B284" t="n">
-        <v>0.4543648673394695</v>
+        <v>0.4541151704696861</v>
       </c>
       <c r="C284" t="n">
-        <v>1119381536.260876</v>
+        <v>821478867.1634058</v>
       </c>
       <c r="D284" t="n">
-        <v>23595882622.17748</v>
+        <v>23556263618.68217</v>
       </c>
       <c r="E284" t="n">
-        <v>0.01763367975571294</v>
+        <v>0.01737362642606494</v>
+      </c>
+      <c r="F284" t="n">
+        <v>-0.1679064272767206</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>45072</v>
+        <v>45073</v>
       </c>
       <c r="B285" t="n">
-        <v>0.4541151704696861</v>
+        <v>0.4697451671376945</v>
       </c>
       <c r="C285" t="n">
-        <v>821478867.1634058</v>
+        <v>1052724018.826924</v>
       </c>
       <c r="D285" t="n">
-        <v>23556263618.68217</v>
+        <v>24417347419.40233</v>
       </c>
       <c r="E285" t="n">
-        <v>0.01737362642606494</v>
+        <v>0.01756305690332306</v>
+      </c>
+      <c r="F285" t="n">
+        <v>3.655434557275195</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>45073</v>
+        <v>45074</v>
       </c>
       <c r="B286" t="n">
-        <v>0.4697451671376945</v>
+        <v>0.472216408249837</v>
       </c>
       <c r="C286" t="n">
-        <v>1052724018.826924</v>
+        <v>759741391.0489581</v>
       </c>
       <c r="D286" t="n">
-        <v>24417347419.40233</v>
+        <v>24551886084.47911</v>
       </c>
       <c r="E286" t="n">
-        <v>0.01756305690332306</v>
+        <v>0.01771958132080046</v>
+      </c>
+      <c r="F286" t="n">
+        <v>0.5509962354464326</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>45074</v>
+        <v>45075</v>
       </c>
       <c r="B287" t="n">
-        <v>0.472216408249837</v>
+        <v>0.4835233012828498</v>
       </c>
       <c r="C287" t="n">
-        <v>759741391.0489581</v>
+        <v>706081731.4823192</v>
       </c>
       <c r="D287" t="n">
-        <v>24551886084.47911</v>
+        <v>25163437545.64434</v>
       </c>
       <c r="E287" t="n">
-        <v>0.01771958132080046</v>
+        <v>0.01789917444231232</v>
+      </c>
+      <c r="F287" t="n">
+        <v>2.490853285409411</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>45075</v>
+        <v>45076</v>
       </c>
       <c r="B288" t="n">
-        <v>0.4835233012828498</v>
+        <v>0.4937648669640393</v>
       </c>
       <c r="C288" t="n">
-        <v>706081731.4823192</v>
+        <v>1145216727.308033</v>
       </c>
       <c r="D288" t="n">
-        <v>25163437545.64434</v>
+        <v>25702162976.18112</v>
       </c>
       <c r="E288" t="n">
-        <v>0.01789917444231232</v>
+        <v>0.01884113730586069</v>
+      </c>
+      <c r="F288" t="n">
+        <v>2.140905548216843</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>45076</v>
+        <v>45077</v>
       </c>
       <c r="B289" t="n">
-        <v>0.4937648669640393</v>
+        <v>0.5223191694382098</v>
       </c>
       <c r="C289" t="n">
-        <v>1145216727.308033</v>
+        <v>2389465868.250918</v>
       </c>
       <c r="D289" t="n">
-        <v>25702162976.18112</v>
+        <v>27185803590.1863</v>
       </c>
       <c r="E289" t="n">
-        <v>0.01884113730586069</v>
+        <v>0.02232300309756217</v>
+      </c>
+      <c r="F289" t="n">
+        <v>5.772434854529984</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>45077</v>
+        <v>45078</v>
       </c>
       <c r="B290" t="n">
-        <v>0.5223191694382098</v>
+        <v>0.5193472366456729</v>
       </c>
       <c r="C290" t="n">
-        <v>2389465868.250918</v>
+        <v>1728394882.843164</v>
       </c>
       <c r="D290" t="n">
-        <v>27185803590.1863</v>
+        <v>26998129476.66491</v>
       </c>
       <c r="E290" t="n">
-        <v>0.02232300309756217</v>
+        <v>0.02508387655402057</v>
+      </c>
+      <c r="F290" t="n">
+        <v>-0.6903386648064336</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>45078</v>
+        <v>45079</v>
       </c>
       <c r="B291" t="n">
-        <v>0.5193472366456729</v>
+        <v>0.5084602612441388</v>
       </c>
       <c r="C291" t="n">
-        <v>1728394882.843164</v>
+        <v>1184491773.574651</v>
       </c>
       <c r="D291" t="n">
-        <v>26998129476.66491</v>
+        <v>26441448782.04242</v>
       </c>
       <c r="E291" t="n">
-        <v>0.02508387655402057</v>
+        <v>0.02669763134223005</v>
+      </c>
+      <c r="F291" t="n">
+        <v>-2.061923197692783</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>45079</v>
+        <v>45080</v>
       </c>
       <c r="B292" t="n">
-        <v>0.5084602612441388</v>
+        <v>0.5259130178454915</v>
       </c>
       <c r="C292" t="n">
-        <v>1184491773.574651</v>
+        <v>1172447803.48035</v>
       </c>
       <c r="D292" t="n">
-        <v>26441448782.04242</v>
+        <v>27330411902.31459</v>
       </c>
       <c r="E292" t="n">
-        <v>0.02669763134223005</v>
+        <v>0.02931801446558158</v>
+      </c>
+      <c r="F292" t="n">
+        <v>3.362006097320602</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>45080</v>
+        <v>45081</v>
       </c>
       <c r="B293" t="n">
-        <v>0.5259130178454915</v>
+        <v>0.5199723058938108</v>
       </c>
       <c r="C293" t="n">
-        <v>1172447803.48035</v>
+        <v>735045062.6217449</v>
       </c>
       <c r="D293" t="n">
-        <v>27330411902.31459</v>
+        <v>27029657254.60775</v>
       </c>
       <c r="E293" t="n">
-        <v>0.02931801446558158</v>
+        <v>0.03119271152146523</v>
+      </c>
+      <c r="F293" t="n">
+        <v>-1.100439498613537</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>45081</v>
+        <v>45082</v>
       </c>
       <c r="B294" t="n">
-        <v>0.5199723058938108</v>
+        <v>0.5376237449981687</v>
       </c>
       <c r="C294" t="n">
-        <v>735045062.6217449</v>
+        <v>1044713825.67911</v>
       </c>
       <c r="D294" t="n">
-        <v>27029657254.60775</v>
+        <v>27920135061.88086</v>
       </c>
       <c r="E294" t="n">
-        <v>0.03119271152146523</v>
+        <v>0.03399753414476516</v>
+      </c>
+      <c r="F294" t="n">
+        <v>3.294447276505186</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>45082</v>
+        <v>45083</v>
       </c>
       <c r="B295" t="n">
-        <v>0.5376237449981687</v>
+        <v>0.512255734923267</v>
       </c>
       <c r="C295" t="n">
-        <v>1044713825.67911</v>
+        <v>2324288258.578257</v>
       </c>
       <c r="D295" t="n">
-        <v>27920135061.88086</v>
+        <v>26576194800.0173</v>
       </c>
       <c r="E295" t="n">
-        <v>0.03399753414476516</v>
+        <v>0.03500878559898164</v>
+      </c>
+      <c r="F295" t="n">
+        <v>-4.813516334662838</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>45083</v>
+        <v>45084</v>
       </c>
       <c r="B296" t="n">
-        <v>0.512255734923267</v>
+        <v>0.5317141263258067</v>
       </c>
       <c r="C296" t="n">
-        <v>2324288258.578257</v>
+        <v>1788963243.707214</v>
       </c>
       <c r="D296" t="n">
-        <v>26576194800.0173</v>
+        <v>27595802610.62244</v>
       </c>
       <c r="E296" t="n">
-        <v>0.03500878559898164</v>
+        <v>0.03677781573199521</v>
+      </c>
+      <c r="F296" t="n">
+        <v>3.836545518564916</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="B297" t="n">
-        <v>0.5317141263258067</v>
+        <v>0.5208616065533803</v>
       </c>
       <c r="C297" t="n">
-        <v>1788963243.707214</v>
+        <v>1857008228.855628</v>
       </c>
       <c r="D297" t="n">
-        <v>27595802610.62244</v>
+        <v>27086725457.87463</v>
       </c>
       <c r="E297" t="n">
-        <v>0.03677781573199521</v>
+        <v>0.03707418860634765</v>
+      </c>
+      <c r="F297" t="n">
+        <v>-1.844762987802551</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>45085</v>
+        <v>45086</v>
       </c>
       <c r="B298" t="n">
-        <v>0.5208616065533803</v>
+        <v>0.5251989570987307</v>
       </c>
       <c r="C298" t="n">
-        <v>1857008228.855628</v>
+        <v>1066147795.047288</v>
       </c>
       <c r="D298" t="n">
-        <v>27086725457.87463</v>
+        <v>27313881799.61806</v>
       </c>
       <c r="E298" t="n">
-        <v>0.03707418860634765</v>
+        <v>0.03731569617269149</v>
+      </c>
+      <c r="F298" t="n">
+        <v>0.8386260720097294</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>45086</v>
+        <v>45087</v>
       </c>
       <c r="B299" t="n">
-        <v>0.5251989570987307</v>
+        <v>0.538716297328121</v>
       </c>
       <c r="C299" t="n">
-        <v>1066147795.047288</v>
+        <v>1400687394.716791</v>
       </c>
       <c r="D299" t="n">
-        <v>27313881799.61806</v>
+        <v>27947393305.97943</v>
       </c>
       <c r="E299" t="n">
-        <v>0.03731569617269149</v>
+        <v>0.03802016159919178</v>
+      </c>
+      <c r="F299" t="n">
+        <v>2.319375587142747</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>45087</v>
+        <v>45088</v>
       </c>
       <c r="B300" t="n">
-        <v>0.538716297328121</v>
+        <v>0.510823106689579</v>
       </c>
       <c r="C300" t="n">
-        <v>1400687394.716791</v>
+        <v>2377566256.837068</v>
       </c>
       <c r="D300" t="n">
-        <v>27947393305.97943</v>
+        <v>26595733464.30461</v>
       </c>
       <c r="E300" t="n">
-        <v>0.03802016159919178</v>
+        <v>0.03683808203048546</v>
+      </c>
+      <c r="F300" t="n">
+        <v>-4.8364433379396</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>45088</v>
+        <v>45089</v>
       </c>
       <c r="B301" t="n">
-        <v>0.510823106689579</v>
+        <v>0.5234656949507985</v>
       </c>
       <c r="C301" t="n">
-        <v>2377566256.837068</v>
+        <v>924538107.3721211</v>
       </c>
       <c r="D301" t="n">
-        <v>26595733464.30461</v>
+        <v>27216822149.88123</v>
       </c>
       <c r="E301" t="n">
-        <v>0.03683808203048546</v>
+        <v>0.03623681280297397</v>
+      </c>
+      <c r="F301" t="n">
+        <v>2.335294442660185</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>45089</v>
+        <v>45090</v>
       </c>
       <c r="B302" t="n">
-        <v>0.5234656949507985</v>
+        <v>0.5272915888541333</v>
       </c>
       <c r="C302" t="n">
-        <v>924538107.3721211</v>
+        <v>1366838192.07868</v>
       </c>
       <c r="D302" t="n">
-        <v>27216822149.88123</v>
+        <v>27379890906.22721</v>
       </c>
       <c r="E302" t="n">
-        <v>0.03623681280297397</v>
+        <v>0.03512722091450796</v>
+      </c>
+      <c r="F302" t="n">
+        <v>0.5991469373168412</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>45090</v>
+        <v>45091</v>
       </c>
       <c r="B303" t="n">
-        <v>0.5272915888541333</v>
+        <v>0.5222231726396263</v>
       </c>
       <c r="C303" t="n">
-        <v>1366838192.07868</v>
+        <v>2989624103.371322</v>
       </c>
       <c r="D303" t="n">
-        <v>27379890906.22721</v>
+        <v>27133015218.43599</v>
       </c>
       <c r="E303" t="n">
-        <v>0.03512722091450796</v>
+        <v>0.03351677930333529</v>
+      </c>
+      <c r="F303" t="n">
+        <v>-0.9016679015878659</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="B304" t="n">
-        <v>0.5222231726396263</v>
+        <v>0.4819853694716451</v>
       </c>
       <c r="C304" t="n">
-        <v>2989624103.371322</v>
+        <v>1999231994.029935</v>
       </c>
       <c r="D304" t="n">
-        <v>27133015218.43599</v>
+        <v>25055080654.37114</v>
       </c>
       <c r="E304" t="n">
-        <v>0.03351677930333529</v>
+        <v>0.03133436486573739</v>
+      </c>
+      <c r="F304" t="n">
+        <v>-7.658325281345668</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>45092</v>
+        <v>45093</v>
       </c>
       <c r="B305" t="n">
-        <v>0.4819853694716451</v>
+        <v>0.4818701232948997</v>
       </c>
       <c r="C305" t="n">
-        <v>1999231994.029935</v>
+        <v>1290064407.443428</v>
       </c>
       <c r="D305" t="n">
-        <v>25055080654.37114</v>
+        <v>25039056140.41708</v>
       </c>
       <c r="E305" t="n">
-        <v>0.03133436486573739</v>
+        <v>0.02977103893129788</v>
+      </c>
+      <c r="F305" t="n">
+        <v>-0.06395714376301598</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>45093</v>
+        <v>45094</v>
       </c>
       <c r="B306" t="n">
-        <v>0.4818701232948997</v>
+        <v>0.4774303959401837</v>
       </c>
       <c r="C306" t="n">
-        <v>1290064407.443428</v>
+        <v>1314734497.473471</v>
       </c>
       <c r="D306" t="n">
-        <v>25039056140.41708</v>
+        <v>24804635141.6786</v>
       </c>
       <c r="E306" t="n">
-        <v>0.02977103893129788</v>
+        <v>0.02864776494165494</v>
+      </c>
+      <c r="F306" t="n">
+        <v>-0.9362213871955238</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>45094</v>
+        <v>45095</v>
       </c>
       <c r="B307" t="n">
-        <v>0.4774303959401837</v>
+        <v>0.4809180169367648</v>
       </c>
       <c r="C307" t="n">
-        <v>1314734497.473471</v>
+        <v>702204082.5297493</v>
       </c>
       <c r="D307" t="n">
-        <v>24804635141.6786</v>
+        <v>25005716435.54188</v>
       </c>
       <c r="E307" t="n">
-        <v>0.02864776494165494</v>
+        <v>0.02800471208733377</v>
+      </c>
+      <c r="F307" t="n">
+        <v>0.8106601557117843</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>45095</v>
+        <v>45096</v>
       </c>
       <c r="B308" t="n">
-        <v>0.4809180169367648</v>
+        <v>0.4887370388601985</v>
       </c>
       <c r="C308" t="n">
-        <v>702204082.5297493</v>
+        <v>823404499.6246965</v>
       </c>
       <c r="D308" t="n">
-        <v>25005716435.54188</v>
+        <v>25416332506.73837</v>
       </c>
       <c r="E308" t="n">
-        <v>0.02800471208733377</v>
+        <v>0.02753836194604205</v>
+      </c>
+      <c r="F308" t="n">
+        <v>1.642088808992748</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>45096</v>
+        <v>45097</v>
       </c>
       <c r="B309" t="n">
-        <v>0.4887370388601985</v>
+        <v>0.4939406726272239</v>
       </c>
       <c r="C309" t="n">
-        <v>823404499.6246965</v>
+        <v>833887969.3753109</v>
       </c>
       <c r="D309" t="n">
-        <v>25416332506.73837</v>
+        <v>25708930078.3217</v>
       </c>
       <c r="E309" t="n">
-        <v>0.02753836194604205</v>
+        <v>0.02702482719074407</v>
+      </c>
+      <c r="F309" t="n">
+        <v>1.151218695717615</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>45097</v>
+        <v>45098</v>
       </c>
       <c r="B310" t="n">
-        <v>0.4939406726272239</v>
+        <v>0.4922733156227651</v>
       </c>
       <c r="C310" t="n">
-        <v>833887969.3753109</v>
+        <v>863398469.9608608</v>
       </c>
       <c r="D310" t="n">
-        <v>25708930078.3217</v>
+        <v>25641101459.89462</v>
       </c>
       <c r="E310" t="n">
-        <v>0.02702482719074407</v>
+        <v>0.0259760937088513</v>
+      </c>
+      <c r="F310" t="n">
+        <v>-0.2638329102784276</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>45098</v>
+        <v>45099</v>
       </c>
       <c r="B311" t="n">
-        <v>0.4922733156227651</v>
+        <v>0.500997345241522</v>
       </c>
       <c r="C311" t="n">
-        <v>863398469.9608608</v>
+        <v>1047444064.081369</v>
       </c>
       <c r="D311" t="n">
-        <v>25641101459.89462</v>
+        <v>26091973532.57578</v>
       </c>
       <c r="E311" t="n">
-        <v>0.0259760937088513</v>
+        <v>0.02498494103433128</v>
+      </c>
+      <c r="F311" t="n">
+        <v>1.758395883992647</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>45099</v>
+        <v>45100</v>
       </c>
       <c r="B312" t="n">
-        <v>0.500997345241522</v>
+        <v>0.4952656835302854</v>
       </c>
       <c r="C312" t="n">
-        <v>1047444064.081369</v>
+        <v>1203675448.963428</v>
       </c>
       <c r="D312" t="n">
-        <v>26091973532.57578</v>
+        <v>25824265989.03825</v>
       </c>
       <c r="E312" t="n">
-        <v>0.02498494103433128</v>
+        <v>0.024118585336444</v>
+      </c>
+      <c r="F312" t="n">
+        <v>-1.026014928320007</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>45100</v>
+        <v>45101</v>
       </c>
       <c r="B313" t="n">
-        <v>0.4952656835302854</v>
+        <v>0.4961332787394924</v>
       </c>
       <c r="C313" t="n">
-        <v>1203675448.963428</v>
+        <v>856055965.2622167</v>
       </c>
       <c r="D313" t="n">
-        <v>25824265989.03825</v>
+        <v>25917023949.95469</v>
       </c>
       <c r="E313" t="n">
-        <v>0.024118585336444</v>
+        <v>0.02240398402286656</v>
+      </c>
+      <c r="F313" t="n">
+        <v>0.359189147741179</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>45101</v>
+        <v>45102</v>
       </c>
       <c r="B314" t="n">
-        <v>0.4961332787394924</v>
+        <v>0.4866968613178579</v>
       </c>
       <c r="C314" t="n">
-        <v>856055965.2622167</v>
+        <v>519757792.4773254</v>
       </c>
       <c r="D314" t="n">
-        <v>25917023949.95469</v>
+        <v>25448414759.66534</v>
       </c>
       <c r="E314" t="n">
-        <v>0.02240398402286656</v>
+        <v>0.02064094077295029</v>
+      </c>
+      <c r="F314" t="n">
+        <v>-1.808113428433067</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>45102</v>
+        <v>45103</v>
       </c>
       <c r="B315" t="n">
-        <v>0.4866968613178579</v>
+        <v>0.4895723008499811</v>
       </c>
       <c r="C315" t="n">
-        <v>519757792.4773254</v>
+        <v>520726839.4971085</v>
       </c>
       <c r="D315" t="n">
-        <v>25448414759.66534</v>
+        <v>25577584986.08896</v>
       </c>
       <c r="E315" t="n">
-        <v>0.02064094077295029</v>
+        <v>0.01978191772968091</v>
+      </c>
+      <c r="F315" t="n">
+        <v>0.5075767101546225</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="B316" t="n">
-        <v>0.4895723008499811</v>
+        <v>0.479149986572276</v>
       </c>
       <c r="C316" t="n">
-        <v>520726839.4971085</v>
+        <v>781825263.0999359</v>
       </c>
       <c r="D316" t="n">
-        <v>25577584986.08896</v>
+        <v>24993365484.35052</v>
       </c>
       <c r="E316" t="n">
-        <v>0.01978191772968091</v>
+        <v>0.01941821025635658</v>
+      </c>
+      <c r="F316" t="n">
+        <v>-2.284107362193044</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>45104</v>
+        <v>45105</v>
       </c>
       <c r="B317" t="n">
-        <v>0.479149986572276</v>
+        <v>0.484369595972134</v>
       </c>
       <c r="C317" t="n">
-        <v>781825263.0999359</v>
+        <v>696818986.8407857</v>
       </c>
       <c r="D317" t="n">
-        <v>24993365484.35052</v>
+        <v>25305718851.56595</v>
       </c>
       <c r="E317" t="n">
-        <v>0.01941821025635658</v>
+        <v>0.01938559745273541</v>
+      </c>
+      <c r="F317" t="n">
+        <v>1.249745127005841</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>45105</v>
+        <v>45106</v>
       </c>
       <c r="B318" t="n">
-        <v>0.484369595972134</v>
+        <v>0.4648182268119624</v>
       </c>
       <c r="C318" t="n">
-        <v>696818986.8407857</v>
+        <v>821278549.3740807</v>
       </c>
       <c r="D318" t="n">
-        <v>25305718851.56595</v>
+        <v>24296794823.8332</v>
       </c>
       <c r="E318" t="n">
-        <v>0.01938559745273541</v>
+        <v>0.02067472532474786</v>
+      </c>
+      <c r="F318" t="n">
+        <v>-3.986940792516991</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>45106</v>
+        <v>45107</v>
       </c>
       <c r="B319" t="n">
-        <v>0.4648182268119624</v>
+        <v>0.4745882290863093</v>
       </c>
       <c r="C319" t="n">
-        <v>821278549.3740807</v>
+        <v>575213084.8797239</v>
       </c>
       <c r="D319" t="n">
-        <v>24296794823.8332</v>
+        <v>24810347278.9378</v>
       </c>
       <c r="E319" t="n">
-        <v>0.02067472532474786</v>
+        <v>0.02110249147979218</v>
+      </c>
+      <c r="F319" t="n">
+        <v>2.113663381644248</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>45107</v>
+        <v>45108</v>
       </c>
       <c r="B320" t="n">
-        <v>0.4745882290863093</v>
+        <v>0.473647912120312</v>
       </c>
       <c r="C320" t="n">
-        <v>575213084.8797239</v>
+        <v>1016983988.81059</v>
       </c>
       <c r="D320" t="n">
-        <v>24810347278.9378</v>
+        <v>24792368682.02519</v>
       </c>
       <c r="E320" t="n">
-        <v>0.02110249147979218</v>
+        <v>0.02153329387580852</v>
+      </c>
+      <c r="F320" t="n">
+        <v>-0.07246410826288185</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>45108</v>
+        <v>45109</v>
       </c>
       <c r="B321" t="n">
-        <v>0.473647912120312</v>
+        <v>0.4733162435648094</v>
       </c>
       <c r="C321" t="n">
-        <v>1016983988.81059</v>
+        <v>567687674.2493538</v>
       </c>
       <c r="D321" t="n">
-        <v>24792368682.02519</v>
+        <v>24715806335.75845</v>
       </c>
       <c r="E321" t="n">
-        <v>0.02153329387580852</v>
+        <v>0.02209383806735864</v>
+      </c>
+      <c r="F321" t="n">
+        <v>-0.3088141647484277</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>45109</v>
+        <v>45110</v>
       </c>
       <c r="B322" t="n">
-        <v>0.4733162435648094</v>
+        <v>0.4838261040782226</v>
       </c>
       <c r="C322" t="n">
-        <v>567687674.2493538</v>
+        <v>822937093.0322157</v>
       </c>
       <c r="D322" t="n">
-        <v>24715806335.75845</v>
+        <v>25298696946.57642</v>
       </c>
       <c r="E322" t="n">
-        <v>0.02209383806735864</v>
+        <v>0.02175100758731139</v>
+      </c>
+      <c r="F322" t="n">
+        <v>2.358371816397753</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>45110</v>
+        <v>45111</v>
       </c>
       <c r="B323" t="n">
-        <v>0.4838261040782226</v>
+        <v>0.4895164138633539</v>
       </c>
       <c r="C323" t="n">
-        <v>822937093.0322157</v>
+        <v>893581246.7063645</v>
       </c>
       <c r="D323" t="n">
-        <v>25298696946.57642</v>
+        <v>25565025718.74921</v>
       </c>
       <c r="E323" t="n">
-        <v>0.02175100758731139</v>
+        <v>0.02144650290659516</v>
+      </c>
+      <c r="F323" t="n">
+        <v>1.052737114228419</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>45111</v>
+        <v>45112</v>
       </c>
       <c r="B324" t="n">
-        <v>0.4895164138633539</v>
+        <v>0.4880342939240855</v>
       </c>
       <c r="C324" t="n">
-        <v>893581246.7063645</v>
+        <v>704205207.5325793</v>
       </c>
       <c r="D324" t="n">
-        <v>25565025718.74921</v>
+        <v>25539081808.62457</v>
       </c>
       <c r="E324" t="n">
-        <v>0.02144650290659516</v>
+        <v>0.02015745841652862</v>
+      </c>
+      <c r="F324" t="n">
+        <v>-0.1014820419507956</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="B325" t="n">
-        <v>0.4880342939240855</v>
+        <v>0.477805534337343</v>
       </c>
       <c r="C325" t="n">
-        <v>704205207.5325793</v>
+        <v>780909277.6090572</v>
       </c>
       <c r="D325" t="n">
-        <v>25539081808.62457</v>
+        <v>24999675952.49481</v>
       </c>
       <c r="E325" t="n">
-        <v>0.02015745841652862</v>
+        <v>0.02019963688850678</v>
+      </c>
+      <c r="F325" t="n">
+        <v>-2.112080066823729</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>45113</v>
+        <v>45114</v>
       </c>
       <c r="B326" t="n">
-        <v>0.477805534337343</v>
+        <v>0.4644087762849952</v>
       </c>
       <c r="C326" t="n">
-        <v>780909277.6090572</v>
+        <v>772623037.9496843</v>
       </c>
       <c r="D326" t="n">
-        <v>24999675952.49481</v>
+        <v>24328001206.9189</v>
       </c>
       <c r="E326" t="n">
-        <v>0.02019963688850678</v>
+        <v>0.01973348855314518</v>
+      </c>
+      <c r="F326" t="n">
+        <v>-2.686733807479114</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>45114</v>
+        <v>45115</v>
       </c>
       <c r="B327" t="n">
-        <v>0.4644087762849952</v>
+        <v>0.4683638400833771</v>
       </c>
       <c r="C327" t="n">
-        <v>772623037.9496843</v>
+        <v>570272199.3048488</v>
       </c>
       <c r="D327" t="n">
-        <v>24328001206.9189</v>
+        <v>24465410534.2725</v>
       </c>
       <c r="E327" t="n">
-        <v>0.01973348855314518</v>
+        <v>0.01949739012875258</v>
+      </c>
+      <c r="F327" t="n">
+        <v>0.5648196339061107</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>45115</v>
+        <v>45116</v>
       </c>
       <c r="B328" t="n">
-        <v>0.4683638400833771</v>
+        <v>0.4704270186958301</v>
       </c>
       <c r="C328" t="n">
-        <v>570272199.3048488</v>
+        <v>330926326.2177808</v>
       </c>
       <c r="D328" t="n">
-        <v>24465410534.2725</v>
+        <v>24583107111.16429</v>
       </c>
       <c r="E328" t="n">
-        <v>0.01949739012875258</v>
+        <v>0.01875213949627248</v>
+      </c>
+      <c r="F328" t="n">
+        <v>0.4810733779713638</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>45116</v>
+        <v>45117</v>
       </c>
       <c r="B329" t="n">
-        <v>0.4704270186958301</v>
+        <v>0.4681921443187148</v>
       </c>
       <c r="C329" t="n">
-        <v>330926326.2177808</v>
+        <v>254714219.854003</v>
       </c>
       <c r="D329" t="n">
-        <v>24583107111.16429</v>
+        <v>24462004905.83065</v>
       </c>
       <c r="E329" t="n">
-        <v>0.01875213949627248</v>
+        <v>0.01665367618369078</v>
+      </c>
+      <c r="F329" t="n">
+        <v>-0.4926236735902201</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>45117</v>
+        <v>45118</v>
       </c>
       <c r="B330" t="n">
-        <v>0.4681921443187148</v>
+        <v>0.4773172464675794</v>
       </c>
       <c r="C330" t="n">
-        <v>254714219.854003</v>
+        <v>748189491.8631514</v>
       </c>
       <c r="D330" t="n">
-        <v>24462004905.83065</v>
+        <v>24922515787.50966</v>
       </c>
       <c r="E330" t="n">
-        <v>0.01665367618369078</v>
+        <v>0.01611595276135077</v>
+      </c>
+      <c r="F330" t="n">
+        <v>1.882555757190807</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>45118</v>
+        <v>45119</v>
       </c>
       <c r="B331" t="n">
-        <v>0.4773172464675794</v>
+        <v>0.4754633027164488</v>
       </c>
       <c r="C331" t="n">
-        <v>748189491.8631514</v>
+        <v>566443960.1459918</v>
       </c>
       <c r="D331" t="n">
-        <v>24922515787.50966</v>
+        <v>25025475416.40221</v>
       </c>
       <c r="E331" t="n">
-        <v>0.01611595276135077</v>
+        <v>0.01456447416108673</v>
+      </c>
+      <c r="F331" t="n">
+        <v>0.4131189233478327</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>45119</v>
+        <v>45120</v>
       </c>
       <c r="B332" t="n">
-        <v>0.4754633027164488</v>
+        <v>0.4713759020166678</v>
       </c>
       <c r="C332" t="n">
-        <v>566443960.1459918</v>
+        <v>613551699.943614</v>
       </c>
       <c r="D332" t="n">
-        <v>25025475416.40221</v>
+        <v>24756292150.8321</v>
       </c>
       <c r="E332" t="n">
-        <v>0.01456447416108673</v>
+        <v>0.01226793493363041</v>
+      </c>
+      <c r="F332" t="n">
+        <v>-1.075636970291804</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>45120</v>
+        <v>45121</v>
       </c>
       <c r="B333" t="n">
-        <v>0.4713759020166678</v>
+        <v>0.8125093807114796</v>
       </c>
       <c r="C333" t="n">
-        <v>613551699.943614</v>
+        <v>11251096255.82042</v>
       </c>
       <c r="D333" t="n">
-        <v>24756292150.8321</v>
+        <v>42784396920.87513</v>
       </c>
       <c r="E333" t="n">
-        <v>0.01226793493363041</v>
+        <v>0.06128766446025356</v>
+      </c>
+      <c r="F333" t="n">
+        <v>72.82231385945681</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>45121</v>
+        <v>45122</v>
       </c>
       <c r="B334" t="n">
-        <v>0.8125093807114796</v>
+        <v>0.7196793898171404</v>
       </c>
       <c r="C334" t="n">
-        <v>11251096255.82042</v>
+        <v>5758002014.725879</v>
       </c>
       <c r="D334" t="n">
-        <v>42784396920.87513</v>
+        <v>37918177999.13425</v>
       </c>
       <c r="E334" t="n">
-        <v>0.06128766446025356</v>
+        <v>0.07398432534602963</v>
+      </c>
+      <c r="F334" t="n">
+        <v>-11.37381679293129</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>45122</v>
+        <v>45123</v>
       </c>
       <c r="B335" t="n">
-        <v>0.7196793898171404</v>
+        <v>0.7132555900513394</v>
       </c>
       <c r="C335" t="n">
-        <v>5758002014.725879</v>
+        <v>2658605337.547687</v>
       </c>
       <c r="D335" t="n">
-        <v>37918177999.13425</v>
+        <v>37484963831.14706</v>
       </c>
       <c r="E335" t="n">
-        <v>0.07398432534602963</v>
+        <v>0.08347855425988206</v>
+      </c>
+      <c r="F335" t="n">
+        <v>-1.1424973214617</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>45123</v>
+        <v>45124</v>
       </c>
       <c r="B336" t="n">
-        <v>0.7132555900513394</v>
+        <v>0.7476671129966201</v>
       </c>
       <c r="C336" t="n">
-        <v>2658605337.547687</v>
+        <v>3239778453.914754</v>
       </c>
       <c r="D336" t="n">
-        <v>37484963831.14706</v>
+        <v>39206989775.50542</v>
       </c>
       <c r="E336" t="n">
-        <v>0.08347855425988206</v>
+        <v>0.09401147183067352</v>
+      </c>
+      <c r="F336" t="n">
+        <v>4.593911180267685</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>45124</v>
+        <v>45125</v>
       </c>
       <c r="B337" t="n">
-        <v>0.7476671129966201</v>
+        <v>0.7394962152284867</v>
       </c>
       <c r="C337" t="n">
-        <v>3239778453.914754</v>
+        <v>2262921797.775354</v>
       </c>
       <c r="D337" t="n">
-        <v>39206989775.50542</v>
+        <v>38827092428.83717</v>
       </c>
       <c r="E337" t="n">
-        <v>0.09401147183067352</v>
+        <v>0.1021178761446667</v>
+      </c>
+      <c r="F337" t="n">
+        <v>-0.9689531097477722</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>45125</v>
+        <v>45126</v>
       </c>
       <c r="B338" t="n">
-        <v>0.7394962152284867</v>
+        <v>0.7812630940643422</v>
       </c>
       <c r="C338" t="n">
-        <v>2262921797.775354</v>
+        <v>2214761174.651494</v>
       </c>
       <c r="D338" t="n">
-        <v>38827092428.83717</v>
+        <v>40870157250.46478</v>
       </c>
       <c r="E338" t="n">
-        <v>0.1021178761446667</v>
+        <v>0.1119891698366812</v>
+      </c>
+      <c r="F338" t="n">
+        <v>5.261956777660237</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>45126</v>
+        <v>45127</v>
       </c>
       <c r="B339" t="n">
-        <v>0.7812630940643422</v>
+        <v>0.8212366992769505</v>
       </c>
       <c r="C339" t="n">
-        <v>2214761174.651494</v>
+        <v>3583242003.053844</v>
       </c>
       <c r="D339" t="n">
-        <v>40870157250.46478</v>
+        <v>43193317016.13269</v>
       </c>
       <c r="E339" t="n">
-        <v>0.1119891698366812</v>
+        <v>0.1232193053930138</v>
+      </c>
+      <c r="F339" t="n">
+        <v>5.684244744718958</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>45127</v>
+        <v>45128</v>
       </c>
       <c r="B340" t="n">
-        <v>0.8212366992769505</v>
+        <v>0.793283630832216</v>
       </c>
       <c r="C340" t="n">
-        <v>3583242003.053844</v>
+        <v>2588946338.45636</v>
       </c>
       <c r="D340" t="n">
-        <v>43193317016.13269</v>
+        <v>41729123773.57223</v>
       </c>
       <c r="E340" t="n">
-        <v>0.1232193053930138</v>
+        <v>0.1307189576605584</v>
+      </c>
+      <c r="F340" t="n">
+        <v>-3.38986061666342</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>45128</v>
+        <v>45129</v>
       </c>
       <c r="B341" t="n">
-        <v>0.793283630832216</v>
+        <v>0.7726808563347505</v>
       </c>
       <c r="C341" t="n">
-        <v>2588946338.45636</v>
+        <v>1675530391.283235</v>
       </c>
       <c r="D341" t="n">
-        <v>41729123773.57223</v>
+        <v>40587624026.9865</v>
       </c>
       <c r="E341" t="n">
-        <v>0.1307189576605584</v>
+        <v>0.1360743273110706</v>
+      </c>
+      <c r="F341" t="n">
+        <v>-2.735498959383043</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>45129</v>
+        <v>45130</v>
       </c>
       <c r="B342" t="n">
-        <v>0.7726808563347505</v>
+        <v>0.7314015935483464</v>
       </c>
       <c r="C342" t="n">
-        <v>1675530391.283235</v>
+        <v>1389970268.986684</v>
       </c>
       <c r="D342" t="n">
-        <v>40587624026.9865</v>
+        <v>38460345132.56344</v>
       </c>
       <c r="E342" t="n">
-        <v>0.1360743273110706</v>
+        <v>0.1386990651040225</v>
+      </c>
+      <c r="F342" t="n">
+        <v>-5.241200847353467</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>45130</v>
+        <v>45131</v>
       </c>
       <c r="B343" t="n">
-        <v>0.7314015935483464</v>
+        <v>0.7379910760166287</v>
       </c>
       <c r="C343" t="n">
-        <v>1389970268.986684</v>
+        <v>1257404824.397465</v>
       </c>
       <c r="D343" t="n">
-        <v>38460345132.56344</v>
+        <v>38757878154.63946</v>
       </c>
       <c r="E343" t="n">
-        <v>0.1386990651040225</v>
+        <v>0.1410865869643959</v>
+      </c>
+      <c r="F343" t="n">
+        <v>0.7736098598452479</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>45131</v>
+        <v>45132</v>
       </c>
       <c r="B344" t="n">
-        <v>0.7379910760166287</v>
+        <v>0.7035253934126873</v>
       </c>
       <c r="C344" t="n">
-        <v>1257404824.397465</v>
+        <v>1941377513.158155</v>
       </c>
       <c r="D344" t="n">
-        <v>38757878154.63946</v>
+        <v>37048588176.87444</v>
       </c>
       <c r="E344" t="n">
-        <v>0.1410865869643959</v>
+        <v>0.1416394136264908</v>
+      </c>
+      <c r="F344" t="n">
+        <v>-4.410174290102143</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>45132</v>
+        <v>45133</v>
       </c>
       <c r="B345" t="n">
-        <v>0.7035253934126873</v>
+        <v>0.710252778978069</v>
       </c>
       <c r="C345" t="n">
-        <v>1941377513.158155</v>
+        <v>1530207989.373473</v>
       </c>
       <c r="D345" t="n">
-        <v>37048588176.87444</v>
+        <v>37425088969.06976</v>
       </c>
       <c r="E345" t="n">
-        <v>0.1416394136264908</v>
+        <v>0.1420665206122425</v>
+      </c>
+      <c r="F345" t="n">
+        <v>1.016235194706638</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>45133</v>
+        <v>45134</v>
       </c>
       <c r="B346" t="n">
-        <v>0.710252778978069</v>
+        <v>0.7158774882632872</v>
       </c>
       <c r="C346" t="n">
-        <v>1530207989.373473</v>
+        <v>1495290293.126067</v>
       </c>
       <c r="D346" t="n">
-        <v>37425088969.06976</v>
+        <v>37694712104.53819</v>
       </c>
       <c r="E346" t="n">
-        <v>0.1420665206122425</v>
+        <v>0.1419480763167461</v>
+      </c>
+      <c r="F346" t="n">
+        <v>0.7204341870536979</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>45134</v>
+        <v>45135</v>
       </c>
       <c r="B347" t="n">
-        <v>0.7158774882632872</v>
+        <v>0.713435782414364</v>
       </c>
       <c r="C347" t="n">
-        <v>1495290293.126067</v>
+        <v>1329392797.06067</v>
       </c>
       <c r="D347" t="n">
-        <v>37694712104.53819</v>
+        <v>37592231679.3358</v>
       </c>
       <c r="E347" t="n">
-        <v>0.1419480763167461</v>
+        <v>0.1414779363092776</v>
+      </c>
+      <c r="F347" t="n">
+        <v>-0.2718694996746152</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>45135</v>
+        <v>45136</v>
       </c>
       <c r="B348" t="n">
-        <v>0.713435782414364</v>
+        <v>0.7122965862439442</v>
       </c>
       <c r="C348" t="n">
-        <v>1329392797.06067</v>
+        <v>943438023.2856784</v>
       </c>
       <c r="D348" t="n">
-        <v>37592231679.3358</v>
+        <v>37543055727.23403</v>
       </c>
       <c r="E348" t="n">
-        <v>0.1414779363092776</v>
+        <v>0.1398567886721008</v>
+      </c>
+      <c r="F348" t="n">
+        <v>-0.1308141334125712</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>45136</v>
+        <v>45137</v>
       </c>
       <c r="B349" t="n">
-        <v>0.7122965862439442</v>
+        <v>0.7126071592756545</v>
       </c>
       <c r="C349" t="n">
-        <v>943438023.2856784</v>
+        <v>642153174.3261417</v>
       </c>
       <c r="D349" t="n">
-        <v>37543055727.23403</v>
+        <v>37568028661.31408</v>
       </c>
       <c r="E349" t="n">
-        <v>0.1398567886721008</v>
+        <v>0.138098447951293</v>
+      </c>
+      <c r="F349" t="n">
+        <v>0.06651811792168782</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>45137</v>
+        <v>45138</v>
       </c>
       <c r="B350" t="n">
-        <v>0.7126071592756545</v>
+        <v>0.7049110934788799</v>
       </c>
       <c r="C350" t="n">
-        <v>642153174.3261417</v>
+        <v>1116791886.546934</v>
       </c>
       <c r="D350" t="n">
-        <v>37568028661.31408</v>
+        <v>37157825595.01724</v>
       </c>
       <c r="E350" t="n">
-        <v>0.138098447951293</v>
+        <v>0.1356565415138284</v>
+      </c>
+      <c r="F350" t="n">
+        <v>-1.091894041060626</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>45138</v>
+        <v>45139</v>
       </c>
       <c r="B351" t="n">
-        <v>0.7049110934788799</v>
+        <v>0.6990302831310987</v>
       </c>
       <c r="C351" t="n">
-        <v>1116791886.546934</v>
+        <v>1406177636.97565</v>
       </c>
       <c r="D351" t="n">
-        <v>37157825595.01724</v>
+        <v>36854361562.9146</v>
       </c>
       <c r="E351" t="n">
-        <v>0.1356565415138284</v>
+        <v>0.1326021921174058</v>
+      </c>
+      <c r="F351" t="n">
+        <v>-0.8166894247529144</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>45139</v>
+        <v>45140</v>
       </c>
       <c r="B352" t="n">
-        <v>0.6990302831310987</v>
+        <v>0.7072155102655546</v>
       </c>
       <c r="C352" t="n">
-        <v>1406177636.97565</v>
+        <v>1521287462.812475</v>
       </c>
       <c r="D352" t="n">
-        <v>36854361562.9146</v>
+        <v>37177683337.37651</v>
       </c>
       <c r="E352" t="n">
-        <v>0.1326021921174058</v>
+        <v>0.1296191258663761</v>
+      </c>
+      <c r="F352" t="n">
+        <v>0.8772958226666239</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="B353" t="n">
-        <v>0.7072155102655546</v>
+        <v>0.6847397250082338</v>
       </c>
       <c r="C353" t="n">
-        <v>1521287462.812475</v>
+        <v>1053596026.191069</v>
       </c>
       <c r="D353" t="n">
-        <v>37177683337.37651</v>
+        <v>36120553529.07423</v>
       </c>
       <c r="E353" t="n">
-        <v>0.1296191258663761</v>
+        <v>0.1261371851838423</v>
+      </c>
+      <c r="F353" t="n">
+        <v>-2.843452612980601</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>45141</v>
+        <v>45142</v>
       </c>
       <c r="B354" t="n">
-        <v>0.6847397250082338</v>
+        <v>0.6642104250823613</v>
       </c>
       <c r="C354" t="n">
-        <v>1053596026.191069</v>
+        <v>1277296653.400765</v>
       </c>
       <c r="D354" t="n">
-        <v>36120553529.07423</v>
+        <v>35083597032.29245</v>
       </c>
       <c r="E354" t="n">
-        <v>0.1261371851838423</v>
+        <v>0.1220574351049874</v>
+      </c>
+      <c r="F354" t="n">
+        <v>-2.870821168194748</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>45142</v>
+        <v>45143</v>
       </c>
       <c r="B355" t="n">
-        <v>0.6642104250823613</v>
+        <v>0.6358100524337328</v>
       </c>
       <c r="C355" t="n">
-        <v>1277296653.400765</v>
+        <v>1200556083.392803</v>
       </c>
       <c r="D355" t="n">
-        <v>35083597032.29245</v>
+        <v>33547950040.33152</v>
       </c>
       <c r="E355" t="n">
-        <v>0.1220574351049874</v>
+        <v>0.1171269676775634</v>
+      </c>
+      <c r="F355" t="n">
+        <v>-4.377108169802113</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>45143</v>
+        <v>45144</v>
       </c>
       <c r="B356" t="n">
-        <v>0.6358100524337328</v>
+        <v>0.6284302339961231</v>
       </c>
       <c r="C356" t="n">
-        <v>1200556083.392803</v>
+        <v>1002199104.309248</v>
       </c>
       <c r="D356" t="n">
-        <v>33547950040.33152</v>
+        <v>33126867546.14544</v>
       </c>
       <c r="E356" t="n">
-        <v>0.1171269676775634</v>
+        <v>0.1109788498568863</v>
+      </c>
+      <c r="F356" t="n">
+        <v>-1.255166094142446</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>45144</v>
+        <v>45145</v>
       </c>
       <c r="B357" t="n">
-        <v>0.6284302339961231</v>
+        <v>0.6221532337189516</v>
       </c>
       <c r="C357" t="n">
-        <v>1002199104.309248</v>
+        <v>771069752.2066147</v>
       </c>
       <c r="D357" t="n">
-        <v>33126867546.14544</v>
+        <v>32768402681.78805</v>
       </c>
       <c r="E357" t="n">
-        <v>0.1109788498568863</v>
+        <v>0.1045604013515048</v>
+      </c>
+      <c r="F357" t="n">
+        <v>-1.082097073796806</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>45145</v>
+        <v>45146</v>
       </c>
       <c r="B358" t="n">
-        <v>0.6221532337189516</v>
+        <v>0.6208379591018611</v>
       </c>
       <c r="C358" t="n">
-        <v>771069752.2066147</v>
+        <v>1327007615.212702</v>
       </c>
       <c r="D358" t="n">
-        <v>32768402681.78805</v>
+        <v>32710392083.95866</v>
       </c>
       <c r="E358" t="n">
-        <v>0.1045604013515048</v>
+        <v>0.09762749714908789</v>
+      </c>
+      <c r="F358" t="n">
+        <v>-0.1770321196084224</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>45146</v>
+        <v>45147</v>
       </c>
       <c r="B359" t="n">
-        <v>0.6208379591018611</v>
+        <v>0.6426242001562646</v>
       </c>
       <c r="C359" t="n">
-        <v>1327007615.212702</v>
+        <v>1375092164.804174</v>
       </c>
       <c r="D359" t="n">
-        <v>32710392083.95866</v>
+        <v>33895961202.84401</v>
       </c>
       <c r="E359" t="n">
-        <v>0.09762749714908789</v>
+        <v>0.08920753619622833</v>
+      </c>
+      <c r="F359" t="n">
+        <v>3.624441785480026</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>45147</v>
+        <v>45148</v>
       </c>
       <c r="B360" t="n">
-        <v>0.6426242001562646</v>
+        <v>0.6436052062261336</v>
       </c>
       <c r="C360" t="n">
-        <v>1375092164.804174</v>
+        <v>1498394768.283378</v>
       </c>
       <c r="D360" t="n">
-        <v>33895961202.84401</v>
+        <v>33977423508.89703</v>
       </c>
       <c r="E360" t="n">
-        <v>0.08920753619622833</v>
+        <v>0.08031883380075658</v>
+      </c>
+      <c r="F360" t="n">
+        <v>0.2403304203870249</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>45148</v>
+        <v>45149</v>
       </c>
       <c r="B361" t="n">
-        <v>0.6436052062261336</v>
+        <v>0.6332138416848744</v>
       </c>
       <c r="C361" t="n">
-        <v>1498394768.283378</v>
+        <v>1063357974.336819</v>
       </c>
       <c r="D361" t="n">
-        <v>33977423508.89703</v>
+        <v>33426764509.19273</v>
       </c>
       <c r="E361" t="n">
-        <v>0.08031883380075658</v>
+        <v>0.0699731672486362</v>
+      </c>
+      <c r="F361" t="n">
+        <v>-1.620661435850512</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>45149</v>
+        <v>45150</v>
       </c>
       <c r="B362" t="n">
-        <v>0.6332138416848744</v>
+        <v>0.631617580467985</v>
       </c>
       <c r="C362" t="n">
-        <v>1063357974.336819</v>
+        <v>924970915.6402841</v>
       </c>
       <c r="D362" t="n">
-        <v>33426764509.19273</v>
+        <v>33340650585.52871</v>
       </c>
       <c r="E362" t="n">
-        <v>0.0699731672486362</v>
+        <v>0.05680531738497843</v>
+      </c>
+      <c r="F362" t="n">
+        <v>-0.2576196797040686</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>45150</v>
+        <v>45151</v>
       </c>
       <c r="B363" t="n">
-        <v>0.631617580467985</v>
+        <v>0.6270807267798834</v>
       </c>
       <c r="C363" t="n">
-        <v>924970915.6402841</v>
+        <v>502921367.1804816</v>
       </c>
       <c r="D363" t="n">
-        <v>33340650585.52871</v>
+        <v>33093472877.81856</v>
       </c>
       <c r="E363" t="n">
-        <v>0.05680531738497843</v>
+        <v>0.05478178998117146</v>
+      </c>
+      <c r="F363" t="n">
+        <v>-0.7413703793093807</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>45151</v>
+        <v>45152</v>
       </c>
       <c r="B364" t="n">
-        <v>0.6270807267798834</v>
+        <v>0.6256892005801732</v>
       </c>
       <c r="C364" t="n">
-        <v>502921367.1804816</v>
+        <v>620939906.9800236</v>
       </c>
       <c r="D364" t="n">
-        <v>33093472877.81856</v>
+        <v>33020932779.51416</v>
       </c>
       <c r="E364" t="n">
-        <v>0.05478178998117146</v>
+        <v>0.05622970709231265</v>
+      </c>
+      <c r="F364" t="n">
+        <v>-0.2191975999987106</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>45152</v>
+        <v>45153</v>
       </c>
       <c r="B365" t="n">
-        <v>0.6256892005801732</v>
+        <v>0.6346809011389943</v>
       </c>
       <c r="C365" t="n">
-        <v>620939906.9800236</v>
+        <v>967305278.5730306</v>
       </c>
       <c r="D365" t="n">
-        <v>33020932779.51416</v>
+        <v>33526777989.72235</v>
       </c>
       <c r="E365" t="n">
-        <v>0.05622970709231265</v>
+        <v>0.0572154692068397</v>
+      </c>
+      <c r="F365" t="n">
+        <v>1.531892553083813</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>45153</v>
+        <v>45154</v>
       </c>
       <c r="B366" t="n">
-        <v>0.6346809011389943</v>
+        <v>0.6093303800158635</v>
       </c>
       <c r="C366" t="n">
-        <v>967305278.5730306</v>
+        <v>1200448874.419847</v>
       </c>
       <c r="D366" t="n">
-        <v>33526777989.72235</v>
+        <v>32153506290.77583</v>
       </c>
       <c r="E366" t="n">
-        <v>0.0572154692068397</v>
+        <v>0.05824758714401157</v>
+      </c>
+      <c r="F366" t="n">
+        <v>-4.096044360026174</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>45153.26081018519</v>
+        <v>45154.3434837963</v>
       </c>
       <c r="B367" t="n">
-        <v>0.6287098040952677</v>
+        <v>0.601747740868373</v>
       </c>
       <c r="C367" t="n">
-        <v>838214631.989777</v>
+        <v>1393293204.790246</v>
       </c>
       <c r="D367" t="n">
-        <v>33187492438.51135</v>
+        <v>31762915061.44933</v>
       </c>
       <c r="E367" t="n">
-        <v>0.05743903447496904</v>
+        <v>0.05951942206737186</v>
+      </c>
+      <c r="F367" t="n">
+        <v>-1.214770251786035</v>
       </c>
     </row>
   </sheetData>
